--- a/dataset_competition/META_DATA.xlsx
+++ b/dataset_competition/META_DATA.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hanbin Seo\bro.py\dataset_competition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seolab/bro.py/dataset_competition/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" tabRatio="681" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="740" yWindow="460" windowWidth="26580" windowHeight="14900" tabRatio="681" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="테이블" sheetId="2" r:id="rId1"/>
@@ -29,9 +29,15 @@
     <definedName name="OTHER_IDX">변수설명_이외변수!$B$427</definedName>
     <definedName name="US_IDX">변수설명_이외변수!$B$95</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -39,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="1129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="1141">
   <si>
     <t>SPX</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -556,21 +562,21 @@
     <t>회사채 AA- 3년</t>
   </si>
   <si>
-    <t xml:space="preserve">YSR(국고채권(5년))_x000D_
+    <t xml:space="preserve">YSR(국고채권(5년))
 </t>
   </si>
   <si>
     <t>국고채5년 - CD</t>
   </si>
   <si>
-    <t xml:space="preserve">YSR(국고채권(10년))_x000D_
+    <t xml:space="preserve">YSR(국고채권(10년))
 </t>
   </si>
   <si>
     <t>국고채10년 - 통안채1년</t>
   </si>
   <si>
-    <t xml:space="preserve">YSR(3Y)_x000D_
+    <t xml:space="preserve">YSR(3Y)
 </t>
   </si>
   <si>
@@ -3568,18 +3574,66 @@
   </si>
   <si>
     <t>aGLFUCRY_YoY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arKOFXUSDD_YoY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arKOFXJPYD_YoY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arKOFXEURD_YoY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arKOFXJPDD_YoY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arKOFXDERD_YoY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arKOFXDUKD_YoY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arKOFXDAUD_YoY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arKOFXCNDD_YoY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arKOFXSWDD_YoY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arKOFXHKDD_YoY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arKOFXTHDD_YoY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arKOFXINDD_YoY</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31" x14ac:knownFonts="1">
     <font>
@@ -3905,16 +3959,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4027,10 +4081,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -4099,8 +4153,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4131,8 +4185,8 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4252,6 +4306,15 @@
     <cellStyle name="60% - Accent4" xfId="18"/>
     <cellStyle name="60% - Accent5" xfId="19"/>
     <cellStyle name="60% - Accent6" xfId="20"/>
+    <cellStyle name="기본" xfId="0" builtinId="0"/>
+    <cellStyle name="백분율 2" xfId="53"/>
+    <cellStyle name="스타일 1" xfId="2"/>
+    <cellStyle name="콤마 [0]_일일금융시장_new" xfId="21"/>
+    <cellStyle name="콤마_일일금융시장_new" xfId="22"/>
+    <cellStyle name="표준 2" xfId="23"/>
+    <cellStyle name="표준 3" xfId="54"/>
+    <cellStyle name="표준 4" xfId="1"/>
+    <cellStyle name="하이퍼링크" xfId="55" builtinId="8"/>
     <cellStyle name="Accent1" xfId="24"/>
     <cellStyle name="Accent2" xfId="25"/>
     <cellStyle name="Accent3" xfId="26"/>
@@ -4281,15 +4344,6 @@
     <cellStyle name="Title" xfId="50"/>
     <cellStyle name="Total" xfId="51"/>
     <cellStyle name="Warning Text" xfId="52"/>
-    <cellStyle name="백분율 2" xfId="53"/>
-    <cellStyle name="스타일 1" xfId="2"/>
-    <cellStyle name="콤마 [0]_일일금융시장_new" xfId="21"/>
-    <cellStyle name="콤마_일일금융시장_new" xfId="22"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="23"/>
-    <cellStyle name="표준 3" xfId="54"/>
-    <cellStyle name="표준 4" xfId="1"/>
-    <cellStyle name="하이퍼링크" xfId="55" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4571,14 +4625,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="2" max="3" width="29.5" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -4595,7 +4649,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -4612,7 +4666,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -4629,7 +4683,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -4646,7 +4700,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -4663,7 +4717,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1063</v>
       </c>
@@ -4680,7 +4734,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1064</v>
       </c>
@@ -4697,7 +4751,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1065</v>
       </c>
@@ -4714,7 +4768,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>100</v>
       </c>
@@ -4731,7 +4785,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>495</v>
       </c>
@@ -4748,7 +4802,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>496</v>
       </c>
@@ -4765,7 +4819,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>494</v>
       </c>
@@ -4782,7 +4836,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>498</v>
       </c>
@@ -4799,7 +4853,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>497</v>
       </c>
@@ -4816,7 +4870,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>500</v>
       </c>
@@ -4833,7 +4887,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>499</v>
       </c>
@@ -4850,7 +4904,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>501</v>
       </c>
@@ -4892,13 +4946,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="2" max="2" width="29.125" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>258</v>
       </c>
@@ -4906,7 +4960,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -4914,7 +4968,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4922,7 +4976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -4930,7 +4984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -4938,7 +4992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4946,7 +5000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4954,7 +5008,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -4962,7 +5016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -4970,7 +5024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -4978,7 +5032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -4986,7 +5040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -5006,13 +5060,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="2" max="2" width="29.125" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>258</v>
       </c>
@@ -5020,7 +5074,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -5028,7 +5082,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -5036,7 +5090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -5044,7 +5098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -5052,7 +5106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -5060,7 +5114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -5078,27 +5132,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
-      <selection activeCell="B313" sqref="B313:B392"/>
+    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
+      <selection activeCell="C440" sqref="C440"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="4" width="36.25" customWidth="1"/>
-    <col min="5" max="5" width="14.375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
-    <col min="8" max="8" width="16.375" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="4" width="36.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1071</v>
       </c>
@@ -5124,7 +5178,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5150,7 +5204,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5176,7 +5230,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5202,7 +5256,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5228,7 +5282,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5254,7 +5308,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5280,7 +5334,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5306,7 +5360,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5332,7 +5386,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5358,7 +5412,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5384,7 +5438,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5410,7 +5464,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5436,7 +5490,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5462,7 +5516,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5488,7 +5542,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5514,7 +5568,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5540,7 +5594,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5566,7 +5620,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5592,7 +5646,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -5618,7 +5672,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5644,7 +5698,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -5670,7 +5724,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -5696,7 +5750,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -5722,7 +5776,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -5748,7 +5802,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -5774,7 +5828,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -5800,7 +5854,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -5826,7 +5880,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -5852,7 +5906,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -5878,7 +5932,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -5904,12 +5958,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>1071</v>
       </c>
@@ -5935,7 +5989,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -5961,7 +6015,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -5987,7 +6041,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>3</v>
       </c>
@@ -6013,7 +6067,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>4</v>
       </c>
@@ -6039,7 +6093,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>5</v>
       </c>
@@ -6065,7 +6119,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>6</v>
       </c>
@@ -6091,7 +6145,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>7</v>
       </c>
@@ -6117,7 +6171,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>8</v>
       </c>
@@ -6143,7 +6197,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>9</v>
       </c>
@@ -6169,7 +6223,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>10</v>
       </c>
@@ -6195,7 +6249,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>11</v>
       </c>
@@ -6221,7 +6275,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>12</v>
       </c>
@@ -6247,7 +6301,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>13</v>
       </c>
@@ -6273,7 +6327,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>14</v>
       </c>
@@ -6299,7 +6353,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>15</v>
       </c>
@@ -6325,7 +6379,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>16</v>
       </c>
@@ -6351,7 +6405,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>17</v>
       </c>
@@ -6377,7 +6431,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>18</v>
       </c>
@@ -6403,7 +6457,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>19</v>
       </c>
@@ -6429,7 +6483,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>20</v>
       </c>
@@ -6455,7 +6509,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>21</v>
       </c>
@@ -6481,7 +6535,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>22</v>
       </c>
@@ -6507,7 +6561,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>23</v>
       </c>
@@ -6533,7 +6587,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>24</v>
       </c>
@@ -6559,7 +6613,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>25</v>
       </c>
@@ -6585,7 +6639,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>26</v>
       </c>
@@ -6611,7 +6665,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>27</v>
       </c>
@@ -6637,7 +6691,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>28</v>
       </c>
@@ -6663,7 +6717,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>29</v>
       </c>
@@ -6689,7 +6743,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>30</v>
       </c>
@@ -6715,7 +6769,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
         <v>31</v>
       </c>
@@ -6741,7 +6795,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
         <v>32</v>
       </c>
@@ -6767,7 +6821,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
         <v>33</v>
       </c>
@@ -6793,7 +6847,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="10">
         <v>34</v>
       </c>
@@ -6819,7 +6873,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="10">
         <v>35</v>
       </c>
@@ -6845,7 +6899,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>36</v>
       </c>
@@ -6871,7 +6925,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
         <v>37</v>
       </c>
@@ -6897,7 +6951,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>38</v>
       </c>
@@ -6923,7 +6977,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>39</v>
       </c>
@@ -6949,7 +7003,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>40</v>
       </c>
@@ -6975,7 +7029,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>41</v>
       </c>
@@ -7001,7 +7055,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>42</v>
       </c>
@@ -7027,7 +7081,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43</v>
       </c>
@@ -7053,7 +7107,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44</v>
       </c>
@@ -7079,7 +7133,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>45</v>
       </c>
@@ -7105,7 +7159,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>46</v>
       </c>
@@ -7131,7 +7185,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>47</v>
       </c>
@@ -7157,7 +7211,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>48</v>
       </c>
@@ -7183,7 +7237,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>49</v>
       </c>
@@ -7209,7 +7263,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>50</v>
       </c>
@@ -7235,7 +7289,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>51</v>
       </c>
@@ -7261,7 +7315,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>52</v>
       </c>
@@ -7287,7 +7341,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>53</v>
       </c>
@@ -7313,7 +7367,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>54</v>
       </c>
@@ -7339,7 +7393,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>55</v>
       </c>
@@ -7365,7 +7419,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>56</v>
       </c>
@@ -7391,7 +7445,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>57</v>
       </c>
@@ -7417,7 +7471,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>58</v>
       </c>
@@ -7443,12 +7497,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B95" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>1071</v>
       </c>
@@ -7474,7 +7528,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>1</v>
       </c>
@@ -7500,7 +7554,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>2</v>
       </c>
@@ -7526,7 +7580,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>3</v>
       </c>
@@ -7552,7 +7606,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>4</v>
       </c>
@@ -7578,7 +7632,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>5</v>
       </c>
@@ -7604,7 +7658,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>6</v>
       </c>
@@ -7630,7 +7684,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="11">
         <v>7</v>
       </c>
@@ -7656,7 +7710,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>8</v>
       </c>
@@ -7682,7 +7736,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>9</v>
       </c>
@@ -7708,7 +7762,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>10</v>
       </c>
@@ -7734,7 +7788,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>11</v>
       </c>
@@ -7760,7 +7814,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>12</v>
       </c>
@@ -7786,7 +7840,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>13</v>
       </c>
@@ -7812,7 +7866,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>14</v>
       </c>
@@ -7838,7 +7892,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>15</v>
       </c>
@@ -7864,7 +7918,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>16</v>
       </c>
@@ -7890,7 +7944,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="10">
         <v>17</v>
       </c>
@@ -7916,7 +7970,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>18</v>
       </c>
@@ -7942,7 +7996,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>19</v>
       </c>
@@ -7968,7 +8022,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>20</v>
       </c>
@@ -7994,7 +8048,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>21</v>
       </c>
@@ -8020,7 +8074,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>22</v>
       </c>
@@ -8046,7 +8100,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>23</v>
       </c>
@@ -8072,7 +8126,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>24</v>
       </c>
@@ -8098,7 +8152,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>25</v>
       </c>
@@ -8124,7 +8178,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>26</v>
       </c>
@@ -8150,7 +8204,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>27</v>
       </c>
@@ -8176,7 +8230,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>28</v>
       </c>
@@ -8202,7 +8256,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>29</v>
       </c>
@@ -8228,7 +8282,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>30</v>
       </c>
@@ -8254,7 +8308,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>31</v>
       </c>
@@ -8280,7 +8334,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>32</v>
       </c>
@@ -8306,7 +8360,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>33</v>
       </c>
@@ -8332,7 +8386,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>34</v>
       </c>
@@ -8358,7 +8412,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>35</v>
       </c>
@@ -8384,7 +8438,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>36</v>
       </c>
@@ -8410,7 +8464,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>37</v>
       </c>
@@ -8436,7 +8490,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>38</v>
       </c>
@@ -8462,7 +8516,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="11">
         <v>39</v>
       </c>
@@ -8488,7 +8542,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="11">
         <v>40</v>
       </c>
@@ -8514,7 +8568,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>41</v>
       </c>
@@ -8540,7 +8594,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>42</v>
       </c>
@@ -8566,7 +8620,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>43</v>
       </c>
@@ -8592,7 +8646,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>44</v>
       </c>
@@ -8618,7 +8672,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>45</v>
       </c>
@@ -8644,7 +8698,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>46</v>
       </c>
@@ -8670,7 +8724,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>47</v>
       </c>
@@ -8696,7 +8750,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>48</v>
       </c>
@@ -8722,7 +8776,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>49</v>
       </c>
@@ -8748,7 +8802,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>50</v>
       </c>
@@ -8774,7 +8828,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>51</v>
       </c>
@@ -8800,7 +8854,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>52</v>
       </c>
@@ -8826,7 +8880,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>53</v>
       </c>
@@ -8852,7 +8906,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>54</v>
       </c>
@@ -8878,7 +8932,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>55</v>
       </c>
@@ -8904,7 +8958,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>56</v>
       </c>
@@ -8930,7 +8984,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>57</v>
       </c>
@@ -8956,7 +9010,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>58</v>
       </c>
@@ -8982,7 +9036,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>59</v>
       </c>
@@ -9008,7 +9062,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>60</v>
       </c>
@@ -9034,7 +9088,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>61</v>
       </c>
@@ -9060,7 +9114,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>62</v>
       </c>
@@ -9086,7 +9140,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>63</v>
       </c>
@@ -9112,7 +9166,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="11">
         <v>64</v>
       </c>
@@ -9138,7 +9192,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>65</v>
       </c>
@@ -9164,7 +9218,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>66</v>
       </c>
@@ -9190,7 +9244,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="11">
         <v>67</v>
       </c>
@@ -9216,7 +9270,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>68</v>
       </c>
@@ -9242,7 +9296,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="11">
         <v>69</v>
       </c>
@@ -9268,7 +9322,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>70</v>
       </c>
@@ -9294,7 +9348,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>71</v>
       </c>
@@ -9320,7 +9374,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>72</v>
       </c>
@@ -9346,7 +9400,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>73</v>
       </c>
@@ -9372,7 +9426,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>74</v>
       </c>
@@ -9398,7 +9452,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>75</v>
       </c>
@@ -9422,7 +9476,7 @@
       </c>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>76</v>
       </c>
@@ -9446,7 +9500,7 @@
       </c>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>77</v>
       </c>
@@ -9472,7 +9526,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>78</v>
       </c>
@@ -9498,12 +9552,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B176" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>1071</v>
       </c>
@@ -9529,7 +9583,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>1</v>
       </c>
@@ -9555,7 +9609,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="11">
         <v>2</v>
       </c>
@@ -9581,7 +9635,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>3</v>
       </c>
@@ -9607,7 +9661,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>4</v>
       </c>
@@ -9633,7 +9687,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>5</v>
       </c>
@@ -9659,7 +9713,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>6</v>
       </c>
@@ -9685,7 +9739,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>7</v>
       </c>
@@ -9711,7 +9765,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>8</v>
       </c>
@@ -9737,7 +9791,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="11">
         <v>9</v>
       </c>
@@ -9763,7 +9817,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>10</v>
       </c>
@@ -9789,7 +9843,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>11</v>
       </c>
@@ -9815,7 +9869,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>12</v>
       </c>
@@ -9841,7 +9895,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>13</v>
       </c>
@@ -9867,7 +9921,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>14</v>
       </c>
@@ -9893,7 +9947,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>15</v>
       </c>
@@ -9919,7 +9973,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>16</v>
       </c>
@@ -9945,7 +9999,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>17</v>
       </c>
@@ -9971,7 +10025,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>18</v>
       </c>
@@ -9997,7 +10051,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="11">
         <v>19</v>
       </c>
@@ -10023,7 +10077,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>20</v>
       </c>
@@ -10049,7 +10103,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>21</v>
       </c>
@@ -10075,7 +10129,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>22</v>
       </c>
@@ -10101,7 +10155,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>23</v>
       </c>
@@ -10127,7 +10181,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>24</v>
       </c>
@@ -10153,7 +10207,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>25</v>
       </c>
@@ -10179,7 +10233,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>26</v>
       </c>
@@ -10205,7 +10259,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>27</v>
       </c>
@@ -10231,7 +10285,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>28</v>
       </c>
@@ -10257,7 +10311,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>29</v>
       </c>
@@ -10283,7 +10337,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>30</v>
       </c>
@@ -10309,7 +10363,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>31</v>
       </c>
@@ -10335,7 +10389,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>32</v>
       </c>
@@ -10361,7 +10415,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>33</v>
       </c>
@@ -10387,7 +10441,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>34</v>
       </c>
@@ -10413,7 +10467,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="11">
         <v>35</v>
       </c>
@@ -10439,7 +10493,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>36</v>
       </c>
@@ -10465,7 +10519,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>37</v>
       </c>
@@ -10491,7 +10545,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>38</v>
       </c>
@@ -10517,7 +10571,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>39</v>
       </c>
@@ -10543,7 +10597,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>40</v>
       </c>
@@ -10569,7 +10623,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>41</v>
       </c>
@@ -10595,7 +10649,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>42</v>
       </c>
@@ -10621,7 +10675,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>43</v>
       </c>
@@ -10647,7 +10701,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>44</v>
       </c>
@@ -10673,7 +10727,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>45</v>
       </c>
@@ -10699,7 +10753,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>46</v>
       </c>
@@ -10725,7 +10779,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="11">
         <v>47</v>
       </c>
@@ -10751,7 +10805,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>48</v>
       </c>
@@ -10777,7 +10831,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>49</v>
       </c>
@@ -10803,7 +10857,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="11">
         <v>50</v>
       </c>
@@ -10829,7 +10883,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>51</v>
       </c>
@@ -10855,7 +10909,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>52</v>
       </c>
@@ -10881,7 +10935,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>53</v>
       </c>
@@ -10907,7 +10961,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>54</v>
       </c>
@@ -10933,7 +10987,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>55</v>
       </c>
@@ -10959,7 +11013,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>56</v>
       </c>
@@ -10985,7 +11039,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>57</v>
       </c>
@@ -11011,7 +11065,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>58</v>
       </c>
@@ -11037,7 +11091,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>59</v>
       </c>
@@ -11063,12 +11117,12 @@
         <v>598</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B238" s="2" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
         <v>1071</v>
       </c>
@@ -11094,7 +11148,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>1</v>
       </c>
@@ -11120,7 +11174,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>2</v>
       </c>
@@ -11146,7 +11200,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>3</v>
       </c>
@@ -11172,7 +11226,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>4</v>
       </c>
@@ -11198,7 +11252,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>5</v>
       </c>
@@ -11224,7 +11278,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>6</v>
       </c>
@@ -11250,7 +11304,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>7</v>
       </c>
@@ -11276,7 +11330,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>8</v>
       </c>
@@ -11302,7 +11356,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>9</v>
       </c>
@@ -11328,7 +11382,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>10</v>
       </c>
@@ -11354,7 +11408,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>11</v>
       </c>
@@ -11380,7 +11434,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>12</v>
       </c>
@@ -11406,7 +11460,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>13</v>
       </c>
@@ -11432,7 +11486,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>14</v>
       </c>
@@ -11458,7 +11512,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>15</v>
       </c>
@@ -11484,7 +11538,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>16</v>
       </c>
@@ -11510,7 +11564,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>17</v>
       </c>
@@ -11536,7 +11590,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>18</v>
       </c>
@@ -11562,7 +11616,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>19</v>
       </c>
@@ -11588,7 +11642,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>20</v>
       </c>
@@ -11614,7 +11668,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>21</v>
       </c>
@@ -11640,7 +11694,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>22</v>
       </c>
@@ -11666,7 +11720,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>23</v>
       </c>
@@ -11692,7 +11746,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>24</v>
       </c>
@@ -11718,7 +11772,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>25</v>
       </c>
@@ -11744,7 +11798,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>26</v>
       </c>
@@ -11770,7 +11824,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>27</v>
       </c>
@@ -11796,7 +11850,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>28</v>
       </c>
@@ -11822,7 +11876,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>29</v>
       </c>
@@ -11848,7 +11902,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>30</v>
       </c>
@@ -11874,7 +11928,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>31</v>
       </c>
@@ -11900,7 +11954,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>32</v>
       </c>
@@ -11926,7 +11980,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>33</v>
       </c>
@@ -11952,7 +12006,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>34</v>
       </c>
@@ -11978,12 +12032,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B275" s="3" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
         <v>1071</v>
       </c>
@@ -12009,7 +12063,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>1</v>
       </c>
@@ -12035,7 +12089,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>2</v>
       </c>
@@ -12061,7 +12115,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>3</v>
       </c>
@@ -12087,7 +12141,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>4</v>
       </c>
@@ -12113,7 +12167,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>5</v>
       </c>
@@ -12139,7 +12193,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>6</v>
       </c>
@@ -12165,7 +12219,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>7</v>
       </c>
@@ -12191,7 +12245,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>8</v>
       </c>
@@ -12217,7 +12271,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>9</v>
       </c>
@@ -12243,7 +12297,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>10</v>
       </c>
@@ -12269,7 +12323,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>11</v>
       </c>
@@ -12295,7 +12349,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>12</v>
       </c>
@@ -12321,7 +12375,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>13</v>
       </c>
@@ -12347,7 +12401,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>14</v>
       </c>
@@ -12373,7 +12427,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>15</v>
       </c>
@@ -12399,7 +12453,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>16</v>
       </c>
@@ -12425,7 +12479,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>17</v>
       </c>
@@ -12451,7 +12505,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>18</v>
       </c>
@@ -12477,7 +12531,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>19</v>
       </c>
@@ -12503,7 +12557,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>20</v>
       </c>
@@ -12529,7 +12583,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>21</v>
       </c>
@@ -12555,7 +12609,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>22</v>
       </c>
@@ -12581,7 +12635,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>23</v>
       </c>
@@ -12607,7 +12661,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>24</v>
       </c>
@@ -12633,7 +12687,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>25</v>
       </c>
@@ -12659,7 +12713,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>26</v>
       </c>
@@ -12685,7 +12739,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>27</v>
       </c>
@@ -12711,7 +12765,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>28</v>
       </c>
@@ -12737,7 +12791,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>29</v>
       </c>
@@ -12763,7 +12817,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>30</v>
       </c>
@@ -12789,7 +12843,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>31</v>
       </c>
@@ -12815,7 +12869,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>32</v>
       </c>
@@ -12841,7 +12895,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>33</v>
       </c>
@@ -12867,12 +12921,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B311" s="3" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
         <v>1071</v>
       </c>
@@ -12898,7 +12952,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>1</v>
       </c>
@@ -12924,7 +12978,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>2</v>
       </c>
@@ -12950,7 +13004,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>3</v>
       </c>
@@ -12976,7 +13030,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>4</v>
       </c>
@@ -13002,7 +13056,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>5</v>
       </c>
@@ -13028,7 +13082,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>6</v>
       </c>
@@ -13054,7 +13108,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>7</v>
       </c>
@@ -13080,7 +13134,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>8</v>
       </c>
@@ -13106,7 +13160,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>9</v>
       </c>
@@ -13132,7 +13186,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>10</v>
       </c>
@@ -13158,7 +13212,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>11</v>
       </c>
@@ -13184,7 +13238,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>12</v>
       </c>
@@ -13210,7 +13264,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>13</v>
       </c>
@@ -13236,7 +13290,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>14</v>
       </c>
@@ -13262,7 +13316,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>15</v>
       </c>
@@ -13288,7 +13342,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>16</v>
       </c>
@@ -13314,7 +13368,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>17</v>
       </c>
@@ -13340,7 +13394,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>18</v>
       </c>
@@ -13366,7 +13420,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>19</v>
       </c>
@@ -13392,7 +13446,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>20</v>
       </c>
@@ -13418,7 +13472,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>21</v>
       </c>
@@ -13444,7 +13498,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>22</v>
       </c>
@@ -13470,7 +13524,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>23</v>
       </c>
@@ -13496,7 +13550,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>24</v>
       </c>
@@ -13522,7 +13576,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>25</v>
       </c>
@@ -13548,7 +13602,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>26</v>
       </c>
@@ -13574,7 +13628,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>27</v>
       </c>
@@ -13600,7 +13654,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>28</v>
       </c>
@@ -13626,7 +13680,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>29</v>
       </c>
@@ -13652,7 +13706,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>30</v>
       </c>
@@ -13678,7 +13732,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>31</v>
       </c>
@@ -13704,7 +13758,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>32</v>
       </c>
@@ -13730,7 +13784,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>33</v>
       </c>
@@ -13756,7 +13810,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>34</v>
       </c>
@@ -13782,7 +13836,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>35</v>
       </c>
@@ -13808,7 +13862,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>36</v>
       </c>
@@ -13834,7 +13888,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>37</v>
       </c>
@@ -13860,7 +13914,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>38</v>
       </c>
@@ -13886,7 +13940,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>39</v>
       </c>
@@ -13912,7 +13966,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="11">
         <v>40</v>
       </c>
@@ -13938,7 +13992,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="11">
         <v>41</v>
       </c>
@@ -13964,7 +14018,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="11">
         <v>42</v>
       </c>
@@ -13990,7 +14044,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="11">
         <v>43</v>
       </c>
@@ -14016,7 +14070,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="11">
         <v>44</v>
       </c>
@@ -14042,7 +14096,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="11">
         <v>45</v>
       </c>
@@ -14068,7 +14122,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="11">
         <v>46</v>
       </c>
@@ -14094,7 +14148,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="11">
         <v>47</v>
       </c>
@@ -14120,7 +14174,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="11">
         <v>48</v>
       </c>
@@ -14146,7 +14200,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="11">
         <v>49</v>
       </c>
@@ -14172,7 +14226,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="11">
         <v>50</v>
       </c>
@@ -14198,7 +14252,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="11">
         <v>51</v>
       </c>
@@ -14224,7 +14278,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="11">
         <v>52</v>
       </c>
@@ -14250,7 +14304,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" s="11">
         <v>53</v>
       </c>
@@ -14276,7 +14330,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" s="11">
         <v>54</v>
       </c>
@@ -14302,7 +14356,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="11">
         <v>55</v>
       </c>
@@ -14328,7 +14382,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" s="11">
         <v>56</v>
       </c>
@@ -14354,7 +14408,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="11">
         <v>57</v>
       </c>
@@ -14380,7 +14434,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="11">
         <v>58</v>
       </c>
@@ -14406,7 +14460,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="11">
         <v>59</v>
       </c>
@@ -14432,7 +14486,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="11">
         <v>60</v>
       </c>
@@ -14458,7 +14512,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="11">
         <v>61</v>
       </c>
@@ -14484,7 +14538,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="11">
         <v>62</v>
       </c>
@@ -14510,7 +14564,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="11">
         <v>63</v>
       </c>
@@ -14536,7 +14590,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="11">
         <v>64</v>
       </c>
@@ -14562,7 +14616,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="11">
         <v>65</v>
       </c>
@@ -14588,7 +14642,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="11">
         <v>66</v>
       </c>
@@ -14614,7 +14668,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="11">
         <v>67</v>
       </c>
@@ -14640,7 +14694,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="11">
         <v>68</v>
       </c>
@@ -14666,7 +14720,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="11">
         <v>69</v>
       </c>
@@ -14692,7 +14746,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="11">
         <v>70</v>
       </c>
@@ -14718,7 +14772,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="11">
         <v>71</v>
       </c>
@@ -14744,7 +14798,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" s="11">
         <v>72</v>
       </c>
@@ -14770,7 +14824,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" s="11">
         <v>73</v>
       </c>
@@ -14796,7 +14850,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" s="11">
         <v>74</v>
       </c>
@@ -14822,7 +14876,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" s="11">
         <v>75</v>
       </c>
@@ -14848,7 +14902,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" s="11">
         <v>76</v>
       </c>
@@ -14874,7 +14928,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" s="11">
         <v>77</v>
       </c>
@@ -14900,7 +14954,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" s="11">
         <v>78</v>
       </c>
@@ -14926,7 +14980,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>79</v>
       </c>
@@ -14950,7 +15004,7 @@
       </c>
       <c r="H391" s="1"/>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>80</v>
       </c>
@@ -14974,12 +15028,12 @@
       </c>
       <c r="H392" s="1"/>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B394" s="3" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" s="4" t="s">
         <v>1071</v>
       </c>
@@ -15005,7 +15059,10 @@
         <v>99</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A396" s="1">
+        <v>1</v>
+      </c>
       <c r="B396" s="1" t="s">
         <v>966</v>
       </c>
@@ -15028,7 +15085,10 @@
         <v>984</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A397" s="1">
+        <v>2</v>
+      </c>
       <c r="B397" s="1" t="s">
         <v>967</v>
       </c>
@@ -15051,7 +15111,10 @@
         <v>984</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A398" s="1">
+        <v>3</v>
+      </c>
       <c r="B398" s="1" t="s">
         <v>968</v>
       </c>
@@ -15074,7 +15137,10 @@
         <v>984</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A399" s="1">
+        <v>4</v>
+      </c>
       <c r="B399" s="1" t="s">
         <v>969</v>
       </c>
@@ -15097,7 +15163,10 @@
         <v>985</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A400" s="1">
+        <v>5</v>
+      </c>
       <c r="B400" s="1" t="s">
         <v>970</v>
       </c>
@@ -15120,7 +15189,10 @@
         <v>476</v>
       </c>
     </row>
-    <row r="401" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A401" s="1">
+        <v>6</v>
+      </c>
       <c r="B401" s="1" t="s">
         <v>971</v>
       </c>
@@ -15143,7 +15215,10 @@
         <v>476</v>
       </c>
     </row>
-    <row r="402" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A402" s="1">
+        <v>7</v>
+      </c>
       <c r="B402" s="1" t="s">
         <v>972</v>
       </c>
@@ -15166,7 +15241,10 @@
         <v>476</v>
       </c>
     </row>
-    <row r="403" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A403" s="1">
+        <v>8</v>
+      </c>
       <c r="B403" s="1" t="s">
         <v>973</v>
       </c>
@@ -15189,7 +15267,10 @@
         <v>986</v>
       </c>
     </row>
-    <row r="404" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A404" s="1">
+        <v>9</v>
+      </c>
       <c r="B404" s="1" t="s">
         <v>974</v>
       </c>
@@ -15212,7 +15293,10 @@
         <v>987</v>
       </c>
     </row>
-    <row r="405" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A405" s="1">
+        <v>10</v>
+      </c>
       <c r="B405" s="1" t="s">
         <v>975</v>
       </c>
@@ -15235,7 +15319,10 @@
         <v>988</v>
       </c>
     </row>
-    <row r="406" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A406" s="1">
+        <v>11</v>
+      </c>
       <c r="B406" s="1" t="s">
         <v>976</v>
       </c>
@@ -15258,7 +15345,10 @@
         <v>989</v>
       </c>
     </row>
-    <row r="407" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A407" s="1">
+        <v>12</v>
+      </c>
       <c r="B407" s="1" t="s">
         <v>977</v>
       </c>
@@ -15281,7 +15371,10 @@
         <v>990</v>
       </c>
     </row>
-    <row r="408" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A408" s="1">
+        <v>13</v>
+      </c>
       <c r="B408" s="1" t="s">
         <v>978</v>
       </c>
@@ -15304,7 +15397,10 @@
         <v>991</v>
       </c>
     </row>
-    <row r="409" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A409" s="1">
+        <v>14</v>
+      </c>
       <c r="B409" s="1" t="s">
         <v>979</v>
       </c>
@@ -15327,7 +15423,10 @@
         <v>992</v>
       </c>
     </row>
-    <row r="410" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A410" s="1">
+        <v>15</v>
+      </c>
       <c r="B410" s="1" t="s">
         <v>980</v>
       </c>
@@ -15350,7 +15449,10 @@
         <v>992</v>
       </c>
     </row>
-    <row r="411" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A411" s="1">
+        <v>16</v>
+      </c>
       <c r="B411" s="1" t="s">
         <v>981</v>
       </c>
@@ -15373,7 +15475,10 @@
         <v>991</v>
       </c>
     </row>
-    <row r="412" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A412" s="1">
+        <v>17</v>
+      </c>
       <c r="B412" s="1" t="s">
         <v>982</v>
       </c>
@@ -15396,7 +15501,10 @@
         <v>991</v>
       </c>
     </row>
-    <row r="413" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A413" s="1">
+        <v>18</v>
+      </c>
       <c r="B413" s="1" t="s">
         <v>983</v>
       </c>
@@ -15419,288 +15527,324 @@
         <v>991</v>
       </c>
     </row>
-    <row r="414" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B414" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="C414" s="1" t="s">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A414" s="11">
+        <v>19</v>
+      </c>
+      <c r="B414" s="11" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C414" s="11" t="s">
         <v>1003</v>
       </c>
-      <c r="D414" s="1" t="s">
+      <c r="D414" s="11" t="s">
         <v>1029</v>
       </c>
-      <c r="E414" s="1" t="s">
+      <c r="E414" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="F414" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G414" s="1">
+      <c r="F414" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G414" s="11">
         <v>1</v>
       </c>
-      <c r="H414" s="1" t="s">
+      <c r="H414" s="11" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="415" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B415" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="C415" s="1" t="s">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A415" s="11">
+        <v>20</v>
+      </c>
+      <c r="B415" s="11" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C415" s="11" t="s">
         <v>1005</v>
       </c>
-      <c r="D415" s="1" t="s">
+      <c r="D415" s="11" t="s">
         <v>1030</v>
       </c>
-      <c r="E415" s="1" t="s">
+      <c r="E415" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="F415" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G415" s="1">
+      <c r="F415" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G415" s="11">
         <v>1</v>
       </c>
-      <c r="H415" s="1" t="s">
+      <c r="H415" s="11" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="416" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B416" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="C416" s="1" t="s">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A416" s="11">
+        <v>21</v>
+      </c>
+      <c r="B416" s="11" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C416" s="11" t="s">
         <v>1007</v>
       </c>
-      <c r="D416" s="1" t="s">
+      <c r="D416" s="11" t="s">
         <v>1031</v>
       </c>
-      <c r="E416" s="1" t="s">
+      <c r="E416" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="F416" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G416" s="1">
+      <c r="F416" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G416" s="11">
         <v>1</v>
       </c>
-      <c r="H416" s="1" t="s">
+      <c r="H416" s="11" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B417" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="C417" s="1" t="s">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A417" s="11">
+        <v>22</v>
+      </c>
+      <c r="B417" s="11" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C417" s="11" t="s">
         <v>1008</v>
       </c>
-      <c r="D417" s="1" t="s">
+      <c r="D417" s="11" t="s">
         <v>1032</v>
       </c>
-      <c r="E417" s="1" t="s">
+      <c r="E417" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="F417" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G417" s="1">
+      <c r="F417" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G417" s="11">
         <v>1</v>
       </c>
-      <c r="H417" s="1" t="s">
+      <c r="H417" s="11" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B418" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="C418" s="1" t="s">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A418" s="11">
+        <v>23</v>
+      </c>
+      <c r="B418" s="11" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C418" s="11" t="s">
         <v>1009</v>
       </c>
-      <c r="D418" s="1" t="s">
+      <c r="D418" s="11" t="s">
         <v>1033</v>
       </c>
-      <c r="E418" s="1" t="s">
+      <c r="E418" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="F418" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G418" s="1">
+      <c r="F418" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G418" s="11">
         <v>1</v>
       </c>
-      <c r="H418" s="1" t="s">
+      <c r="H418" s="11" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B419" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="C419" s="1" t="s">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A419" s="11">
+        <v>24</v>
+      </c>
+      <c r="B419" s="11" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C419" s="11" t="s">
         <v>1010</v>
       </c>
-      <c r="D419" s="1" t="s">
+      <c r="D419" s="11" t="s">
         <v>1034</v>
       </c>
-      <c r="E419" s="1" t="s">
+      <c r="E419" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="F419" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G419" s="1">
+      <c r="F419" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G419" s="11">
         <v>1</v>
       </c>
-      <c r="H419" s="1" t="s">
+      <c r="H419" s="11" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B420" s="1" t="s">
-        <v>972</v>
-      </c>
-      <c r="C420" s="1" t="s">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A420" s="11">
+        <v>25</v>
+      </c>
+      <c r="B420" s="11" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C420" s="11" t="s">
         <v>1011</v>
       </c>
-      <c r="D420" s="1" t="s">
+      <c r="D420" s="11" t="s">
         <v>1035</v>
       </c>
-      <c r="E420" s="1" t="s">
+      <c r="E420" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="F420" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G420" s="1">
+      <c r="F420" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G420" s="11">
         <v>1</v>
       </c>
-      <c r="H420" s="1" t="s">
+      <c r="H420" s="11" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B421" s="1" t="s">
-        <v>973</v>
-      </c>
-      <c r="C421" s="1" t="s">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A421" s="11">
+        <v>26</v>
+      </c>
+      <c r="B421" s="11" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C421" s="11" t="s">
         <v>1012</v>
       </c>
-      <c r="D421" s="1" t="s">
+      <c r="D421" s="11" t="s">
         <v>1036</v>
       </c>
-      <c r="E421" s="1" t="s">
+      <c r="E421" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="F421" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G421" s="1">
+      <c r="F421" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G421" s="11">
         <v>1</v>
       </c>
-      <c r="H421" s="1" t="s">
+      <c r="H421" s="11" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B422" s="1" t="s">
-        <v>974</v>
-      </c>
-      <c r="C422" s="1" t="s">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A422" s="11">
+        <v>27</v>
+      </c>
+      <c r="B422" s="11" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C422" s="11" t="s">
         <v>1013</v>
       </c>
-      <c r="D422" s="1" t="s">
+      <c r="D422" s="11" t="s">
         <v>1037</v>
       </c>
-      <c r="E422" s="1" t="s">
+      <c r="E422" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="F422" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G422" s="1">
+      <c r="F422" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G422" s="11">
         <v>1</v>
       </c>
-      <c r="H422" s="1" t="s">
+      <c r="H422" s="11" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B423" s="1" t="s">
-        <v>975</v>
-      </c>
-      <c r="C423" s="1" t="s">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A423" s="11">
+        <v>28</v>
+      </c>
+      <c r="B423" s="11" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C423" s="11" t="s">
         <v>1014</v>
       </c>
-      <c r="D423" s="1" t="s">
+      <c r="D423" s="11" t="s">
         <v>1038</v>
       </c>
-      <c r="E423" s="1" t="s">
+      <c r="E423" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="F423" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G423" s="1">
+      <c r="F423" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G423" s="11">
         <v>1</v>
       </c>
-      <c r="H423" s="1" t="s">
+      <c r="H423" s="11" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B424" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="C424" s="1" t="s">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A424" s="11">
+        <v>29</v>
+      </c>
+      <c r="B424" s="11" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C424" s="11" t="s">
         <v>1015</v>
       </c>
-      <c r="D424" s="1" t="s">
+      <c r="D424" s="11" t="s">
         <v>1039</v>
       </c>
-      <c r="E424" s="1" t="s">
+      <c r="E424" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="F424" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G424" s="1">
+      <c r="F424" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G424" s="11">
         <v>1</v>
       </c>
-      <c r="H424" s="1" t="s">
+      <c r="H424" s="11" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B425" s="1" t="s">
-        <v>977</v>
-      </c>
-      <c r="C425" s="1" t="s">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A425" s="11">
+        <v>30</v>
+      </c>
+      <c r="B425" s="11" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C425" s="11" t="s">
         <v>1016</v>
       </c>
-      <c r="D425" s="1" t="s">
+      <c r="D425" s="11" t="s">
         <v>1040</v>
       </c>
-      <c r="E425" s="1" t="s">
+      <c r="E425" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="F425" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G425" s="1">
+      <c r="F425" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G425" s="11">
         <v>1</v>
       </c>
-      <c r="H425" s="1" t="s">
+      <c r="H425" s="11" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B427" s="3" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" s="4" t="s">
         <v>1071</v>
       </c>
@@ -15726,7 +15870,10 @@
         <v>99</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A429" s="1">
+        <v>1</v>
+      </c>
       <c r="B429" s="1" t="s">
         <v>993</v>
       </c>
@@ -15749,7 +15896,10 @@
         <v>249</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A430" s="1">
+        <v>2</v>
+      </c>
       <c r="B430" s="1" t="s">
         <v>994</v>
       </c>
@@ -15772,7 +15922,10 @@
         <v>249</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A431" s="1">
+        <v>3</v>
+      </c>
       <c r="B431" s="1" t="s">
         <v>995</v>
       </c>
@@ -15795,7 +15948,10 @@
         <v>249</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A432" s="1">
+        <v>4</v>
+      </c>
       <c r="B432" s="1" t="s">
         <v>996</v>
       </c>
@@ -15818,7 +15974,10 @@
         <v>249</v>
       </c>
     </row>
-    <row r="433" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A433" s="1">
+        <v>5</v>
+      </c>
       <c r="B433" s="1" t="s">
         <v>997</v>
       </c>
@@ -15841,7 +16000,10 @@
         <v>249</v>
       </c>
     </row>
-    <row r="434" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A434" s="1">
+        <v>6</v>
+      </c>
       <c r="B434" s="1" t="s">
         <v>998</v>
       </c>
@@ -15864,7 +16026,10 @@
         <v>249</v>
       </c>
     </row>
-    <row r="435" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A435" s="1">
+        <v>7</v>
+      </c>
       <c r="B435" s="1" t="s">
         <v>999</v>
       </c>
@@ -15887,7 +16052,10 @@
         <v>249</v>
       </c>
     </row>
-    <row r="436" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A436" s="1">
+        <v>8</v>
+      </c>
       <c r="B436" s="1" t="s">
         <v>1000</v>
       </c>
@@ -15910,7 +16078,10 @@
         <v>249</v>
       </c>
     </row>
-    <row r="437" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A437" s="1">
+        <v>9</v>
+      </c>
       <c r="B437" s="1" t="s">
         <v>1001</v>
       </c>
@@ -15933,7 +16104,10 @@
         <v>249</v>
       </c>
     </row>
-    <row r="438" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A438" s="1">
+        <v>10</v>
+      </c>
       <c r="B438" s="1" t="s">
         <v>1002</v>
       </c>

--- a/dataset_competition/META_DATA.xlsx
+++ b/dataset_competition/META_DATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="26580" windowHeight="14900" tabRatio="681" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="2720" yWindow="460" windowWidth="22380" windowHeight="14760" tabRatio="681" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="테이블" sheetId="2" r:id="rId1"/>
@@ -5132,8 +5132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="C440" sqref="C440"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G423" sqref="D1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -5141,8 +5141,8 @@
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
     <col min="3" max="4" width="36.1640625" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" customWidth="1"/>
     <col min="8" max="8" width="16.33203125" customWidth="1"/>
   </cols>

--- a/dataset_competition/META_DATA.xlsx
+++ b/dataset_competition/META_DATA.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seolab/bro.py/dataset_competition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SERVER1\bro.py\dataset_competition\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="460" windowWidth="22380" windowHeight="14760" tabRatio="681" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="2715" yWindow="465" windowWidth="22380" windowHeight="14760" tabRatio="681" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="테이블" sheetId="2" r:id="rId1"/>
@@ -31,21 +31,18 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="1141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="1142">
   <si>
     <t>SPX</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3622,6 +3619,10 @@
   </si>
   <si>
     <t>arKOFXINDD_YoY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aJPCBLD_YoY</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3630,10 +3631,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31" x14ac:knownFonts="1">
     <font>
@@ -4153,8 +4154,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4185,8 +4186,8 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4306,15 +4307,6 @@
     <cellStyle name="60% - Accent4" xfId="18"/>
     <cellStyle name="60% - Accent5" xfId="19"/>
     <cellStyle name="60% - Accent6" xfId="20"/>
-    <cellStyle name="기본" xfId="0" builtinId="0"/>
-    <cellStyle name="백분율 2" xfId="53"/>
-    <cellStyle name="스타일 1" xfId="2"/>
-    <cellStyle name="콤마 [0]_일일금융시장_new" xfId="21"/>
-    <cellStyle name="콤마_일일금융시장_new" xfId="22"/>
-    <cellStyle name="표준 2" xfId="23"/>
-    <cellStyle name="표준 3" xfId="54"/>
-    <cellStyle name="표준 4" xfId="1"/>
-    <cellStyle name="하이퍼링크" xfId="55" builtinId="8"/>
     <cellStyle name="Accent1" xfId="24"/>
     <cellStyle name="Accent2" xfId="25"/>
     <cellStyle name="Accent3" xfId="26"/>
@@ -4344,6 +4336,15 @@
     <cellStyle name="Title" xfId="50"/>
     <cellStyle name="Total" xfId="51"/>
     <cellStyle name="Warning Text" xfId="52"/>
+    <cellStyle name="백분율 2" xfId="53"/>
+    <cellStyle name="스타일 1" xfId="2"/>
+    <cellStyle name="콤마 [0]_일일금융시장_new" xfId="21"/>
+    <cellStyle name="콤마_일일금융시장_new" xfId="22"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="23"/>
+    <cellStyle name="표준 3" xfId="54"/>
+    <cellStyle name="표준 4" xfId="1"/>
+    <cellStyle name="하이퍼링크" xfId="55" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4625,14 +4626,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
     <col min="2" max="3" width="29.5" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -4649,7 +4650,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -4666,7 +4667,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -4683,7 +4684,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -4700,7 +4701,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -4717,7 +4718,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1063</v>
       </c>
@@ -4734,7 +4735,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>1064</v>
       </c>
@@ -4751,7 +4752,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>1065</v>
       </c>
@@ -4768,7 +4769,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>100</v>
       </c>
@@ -4785,7 +4786,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>495</v>
       </c>
@@ -4802,7 +4803,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>496</v>
       </c>
@@ -4819,7 +4820,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>494</v>
       </c>
@@ -4836,7 +4837,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>498</v>
       </c>
@@ -4853,7 +4854,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>497</v>
       </c>
@@ -4870,7 +4871,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>500</v>
       </c>
@@ -4887,7 +4888,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>499</v>
       </c>
@@ -4904,7 +4905,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>501</v>
       </c>
@@ -4946,13 +4947,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>258</v>
       </c>
@@ -4960,7 +4961,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -4968,7 +4969,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4976,7 +4977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -4984,7 +4985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -4992,7 +4993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -5000,7 +5001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -5008,7 +5009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -5016,7 +5017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -5024,7 +5025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -5032,7 +5033,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -5040,7 +5041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -5060,13 +5061,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>258</v>
       </c>
@@ -5074,7 +5075,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -5082,7 +5083,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -5090,7 +5091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -5098,7 +5099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -5106,7 +5107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -5114,7 +5115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -5132,27 +5133,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H438"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G423" sqref="D1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A275" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B290" sqref="B290"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="4" width="36.1640625" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="4" width="36.125" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1071</v>
       </c>
@@ -5178,7 +5179,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5204,7 +5205,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5230,7 +5231,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5256,7 +5257,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5282,7 +5283,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5308,7 +5309,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5334,7 +5335,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5360,7 +5361,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5386,7 +5387,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5412,7 +5413,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5438,7 +5439,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5464,7 +5465,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5490,7 +5491,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5516,7 +5517,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5542,7 +5543,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5568,7 +5569,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5594,7 +5595,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5620,7 +5621,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5646,7 +5647,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -5672,7 +5673,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5698,7 +5699,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -5724,7 +5725,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -5750,7 +5751,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -5776,7 +5777,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -5802,7 +5803,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -5828,7 +5829,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -5854,7 +5855,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -5880,7 +5881,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -5906,7 +5907,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -5932,7 +5933,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -5958,12 +5959,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>1071</v>
       </c>
@@ -5989,7 +5990,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -6015,7 +6016,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -6041,7 +6042,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>3</v>
       </c>
@@ -6067,7 +6068,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>4</v>
       </c>
@@ -6093,7 +6094,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>5</v>
       </c>
@@ -6119,7 +6120,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>6</v>
       </c>
@@ -6145,7 +6146,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>7</v>
       </c>
@@ -6171,7 +6172,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>8</v>
       </c>
@@ -6197,7 +6198,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>9</v>
       </c>
@@ -6223,7 +6224,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>10</v>
       </c>
@@ -6249,7 +6250,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>11</v>
       </c>
@@ -6275,7 +6276,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>12</v>
       </c>
@@ -6301,7 +6302,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>13</v>
       </c>
@@ -6327,7 +6328,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>14</v>
       </c>
@@ -6353,7 +6354,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>15</v>
       </c>
@@ -6379,7 +6380,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>16</v>
       </c>
@@ -6405,7 +6406,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
         <v>17</v>
       </c>
@@ -6431,7 +6432,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>18</v>
       </c>
@@ -6457,7 +6458,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>19</v>
       </c>
@@ -6483,7 +6484,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>20</v>
       </c>
@@ -6509,7 +6510,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>21</v>
       </c>
@@ -6535,7 +6536,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>22</v>
       </c>
@@ -6561,7 +6562,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>23</v>
       </c>
@@ -6587,7 +6588,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>24</v>
       </c>
@@ -6613,7 +6614,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>25</v>
       </c>
@@ -6639,7 +6640,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>26</v>
       </c>
@@ -6665,7 +6666,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>27</v>
       </c>
@@ -6691,7 +6692,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>28</v>
       </c>
@@ -6717,7 +6718,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>29</v>
       </c>
@@ -6743,7 +6744,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>30</v>
       </c>
@@ -6769,7 +6770,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="10">
         <v>31</v>
       </c>
@@ -6795,7 +6796,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="10">
         <v>32</v>
       </c>
@@ -6821,7 +6822,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="10">
         <v>33</v>
       </c>
@@ -6847,7 +6848,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="10">
         <v>34</v>
       </c>
@@ -6873,7 +6874,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="10">
         <v>35</v>
       </c>
@@ -6899,7 +6900,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>36</v>
       </c>
@@ -6925,7 +6926,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="11">
         <v>37</v>
       </c>
@@ -6951,7 +6952,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>38</v>
       </c>
@@ -6977,7 +6978,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>39</v>
       </c>
@@ -7003,7 +7004,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>40</v>
       </c>
@@ -7029,7 +7030,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>41</v>
       </c>
@@ -7055,7 +7056,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>42</v>
       </c>
@@ -7081,7 +7082,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>43</v>
       </c>
@@ -7107,7 +7108,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>44</v>
       </c>
@@ -7133,7 +7134,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>45</v>
       </c>
@@ -7159,7 +7160,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>46</v>
       </c>
@@ -7185,7 +7186,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>47</v>
       </c>
@@ -7211,7 +7212,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>48</v>
       </c>
@@ -7237,7 +7238,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>49</v>
       </c>
@@ -7263,7 +7264,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>50</v>
       </c>
@@ -7289,7 +7290,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>51</v>
       </c>
@@ -7315,7 +7316,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>52</v>
       </c>
@@ -7341,7 +7342,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>53</v>
       </c>
@@ -7367,7 +7368,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>54</v>
       </c>
@@ -7393,7 +7394,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>55</v>
       </c>
@@ -7419,7 +7420,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>56</v>
       </c>
@@ -7445,7 +7446,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>57</v>
       </c>
@@ -7471,7 +7472,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>58</v>
       </c>
@@ -7497,12 +7498,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B95" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>1071</v>
       </c>
@@ -7528,7 +7529,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>1</v>
       </c>
@@ -7554,7 +7555,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>2</v>
       </c>
@@ -7580,7 +7581,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>3</v>
       </c>
@@ -7606,7 +7607,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>4</v>
       </c>
@@ -7632,7 +7633,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>5</v>
       </c>
@@ -7658,7 +7659,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>6</v>
       </c>
@@ -7684,7 +7685,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="11">
         <v>7</v>
       </c>
@@ -7710,7 +7711,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>8</v>
       </c>
@@ -7736,7 +7737,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>9</v>
       </c>
@@ -7762,7 +7763,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>10</v>
       </c>
@@ -7788,7 +7789,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>11</v>
       </c>
@@ -7814,7 +7815,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>12</v>
       </c>
@@ -7840,7 +7841,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>13</v>
       </c>
@@ -7866,7 +7867,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>14</v>
       </c>
@@ -7892,7 +7893,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>15</v>
       </c>
@@ -7918,7 +7919,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>16</v>
       </c>
@@ -7944,7 +7945,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="10">
         <v>17</v>
       </c>
@@ -7970,7 +7971,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>18</v>
       </c>
@@ -7996,7 +7997,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>19</v>
       </c>
@@ -8022,7 +8023,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>20</v>
       </c>
@@ -8048,7 +8049,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>21</v>
       </c>
@@ -8074,7 +8075,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>22</v>
       </c>
@@ -8100,7 +8101,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>23</v>
       </c>
@@ -8126,7 +8127,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>24</v>
       </c>
@@ -8152,7 +8153,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>25</v>
       </c>
@@ -8178,7 +8179,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>26</v>
       </c>
@@ -8204,7 +8205,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>27</v>
       </c>
@@ -8230,7 +8231,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>28</v>
       </c>
@@ -8256,7 +8257,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>29</v>
       </c>
@@ -8282,7 +8283,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>30</v>
       </c>
@@ -8308,7 +8309,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>31</v>
       </c>
@@ -8334,7 +8335,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>32</v>
       </c>
@@ -8360,7 +8361,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>33</v>
       </c>
@@ -8386,7 +8387,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>34</v>
       </c>
@@ -8412,7 +8413,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>35</v>
       </c>
@@ -8438,7 +8439,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>36</v>
       </c>
@@ -8464,7 +8465,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>37</v>
       </c>
@@ -8490,7 +8491,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>38</v>
       </c>
@@ -8516,7 +8517,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="11">
         <v>39</v>
       </c>
@@ -8542,7 +8543,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="11">
         <v>40</v>
       </c>
@@ -8568,7 +8569,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>41</v>
       </c>
@@ -8594,7 +8595,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>42</v>
       </c>
@@ -8620,7 +8621,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>43</v>
       </c>
@@ -8646,7 +8647,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>44</v>
       </c>
@@ -8672,7 +8673,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>45</v>
       </c>
@@ -8698,7 +8699,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>46</v>
       </c>
@@ -8724,7 +8725,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>47</v>
       </c>
@@ -8750,7 +8751,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>48</v>
       </c>
@@ -8776,7 +8777,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>49</v>
       </c>
@@ -8802,7 +8803,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>50</v>
       </c>
@@ -8828,7 +8829,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>51</v>
       </c>
@@ -8854,7 +8855,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>52</v>
       </c>
@@ -8880,7 +8881,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>53</v>
       </c>
@@ -8906,7 +8907,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>54</v>
       </c>
@@ -8932,7 +8933,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>55</v>
       </c>
@@ -8958,7 +8959,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>56</v>
       </c>
@@ -8984,7 +8985,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>57</v>
       </c>
@@ -9010,7 +9011,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>58</v>
       </c>
@@ -9036,7 +9037,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>59</v>
       </c>
@@ -9062,7 +9063,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>60</v>
       </c>
@@ -9088,7 +9089,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>61</v>
       </c>
@@ -9114,7 +9115,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>62</v>
       </c>
@@ -9140,7 +9141,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>63</v>
       </c>
@@ -9166,7 +9167,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="11">
         <v>64</v>
       </c>
@@ -9192,7 +9193,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>65</v>
       </c>
@@ -9218,7 +9219,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>66</v>
       </c>
@@ -9244,7 +9245,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="11">
         <v>67</v>
       </c>
@@ -9270,7 +9271,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>68</v>
       </c>
@@ -9296,7 +9297,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="11">
         <v>69</v>
       </c>
@@ -9322,7 +9323,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>70</v>
       </c>
@@ -9348,7 +9349,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>71</v>
       </c>
@@ -9374,7 +9375,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>72</v>
       </c>
@@ -9400,7 +9401,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>73</v>
       </c>
@@ -9426,7 +9427,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>74</v>
       </c>
@@ -9452,7 +9453,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>75</v>
       </c>
@@ -9476,7 +9477,7 @@
       </c>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>76</v>
       </c>
@@ -9500,7 +9501,7 @@
       </c>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>77</v>
       </c>
@@ -9526,7 +9527,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>78</v>
       </c>
@@ -9552,12 +9553,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B176" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
         <v>1071</v>
       </c>
@@ -9583,7 +9584,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>1</v>
       </c>
@@ -9609,7 +9610,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="11">
         <v>2</v>
       </c>
@@ -9635,7 +9636,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>3</v>
       </c>
@@ -9661,7 +9662,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>4</v>
       </c>
@@ -9687,7 +9688,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>5</v>
       </c>
@@ -9713,7 +9714,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>6</v>
       </c>
@@ -9739,7 +9740,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>7</v>
       </c>
@@ -9765,7 +9766,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>8</v>
       </c>
@@ -9791,7 +9792,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="11">
         <v>9</v>
       </c>
@@ -9817,7 +9818,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>10</v>
       </c>
@@ -9843,7 +9844,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>11</v>
       </c>
@@ -9869,7 +9870,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>12</v>
       </c>
@@ -9895,7 +9896,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>13</v>
       </c>
@@ -9921,7 +9922,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>14</v>
       </c>
@@ -9947,7 +9948,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>15</v>
       </c>
@@ -9973,7 +9974,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>16</v>
       </c>
@@ -9999,7 +10000,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>17</v>
       </c>
@@ -10025,7 +10026,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>18</v>
       </c>
@@ -10051,7 +10052,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="11">
         <v>19</v>
       </c>
@@ -10077,7 +10078,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>20</v>
       </c>
@@ -10103,7 +10104,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>21</v>
       </c>
@@ -10129,7 +10130,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>22</v>
       </c>
@@ -10155,7 +10156,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>23</v>
       </c>
@@ -10181,7 +10182,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>24</v>
       </c>
@@ -10207,7 +10208,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>25</v>
       </c>
@@ -10233,7 +10234,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>26</v>
       </c>
@@ -10259,7 +10260,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>27</v>
       </c>
@@ -10285,7 +10286,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>28</v>
       </c>
@@ -10311,7 +10312,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>29</v>
       </c>
@@ -10337,7 +10338,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>30</v>
       </c>
@@ -10363,7 +10364,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>31</v>
       </c>
@@ -10389,7 +10390,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>32</v>
       </c>
@@ -10415,7 +10416,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>33</v>
       </c>
@@ -10441,7 +10442,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>34</v>
       </c>
@@ -10467,7 +10468,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="11">
         <v>35</v>
       </c>
@@ -10493,7 +10494,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>36</v>
       </c>
@@ -10519,7 +10520,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>37</v>
       </c>
@@ -10545,7 +10546,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>38</v>
       </c>
@@ -10571,7 +10572,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>39</v>
       </c>
@@ -10597,7 +10598,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>40</v>
       </c>
@@ -10623,7 +10624,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>41</v>
       </c>
@@ -10649,7 +10650,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>42</v>
       </c>
@@ -10675,7 +10676,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>43</v>
       </c>
@@ -10701,7 +10702,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>44</v>
       </c>
@@ -10727,7 +10728,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>45</v>
       </c>
@@ -10753,7 +10754,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>46</v>
       </c>
@@ -10779,7 +10780,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="11">
         <v>47</v>
       </c>
@@ -10805,7 +10806,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>48</v>
       </c>
@@ -10831,7 +10832,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>49</v>
       </c>
@@ -10857,7 +10858,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="11">
         <v>50</v>
       </c>
@@ -10883,7 +10884,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>51</v>
       </c>
@@ -10909,7 +10910,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>52</v>
       </c>
@@ -10935,7 +10936,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>53</v>
       </c>
@@ -10961,7 +10962,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>54</v>
       </c>
@@ -10987,7 +10988,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>55</v>
       </c>
@@ -11013,7 +11014,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>56</v>
       </c>
@@ -11039,7 +11040,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>57</v>
       </c>
@@ -11065,7 +11066,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>58</v>
       </c>
@@ -11091,7 +11092,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>59</v>
       </c>
@@ -11117,12 +11118,12 @@
         <v>598</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B238" s="2" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
         <v>1071</v>
       </c>
@@ -11148,7 +11149,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>1</v>
       </c>
@@ -11174,7 +11175,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>2</v>
       </c>
@@ -11200,7 +11201,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>3</v>
       </c>
@@ -11226,7 +11227,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>4</v>
       </c>
@@ -11252,7 +11253,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>5</v>
       </c>
@@ -11278,7 +11279,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>6</v>
       </c>
@@ -11304,7 +11305,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>7</v>
       </c>
@@ -11330,7 +11331,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>8</v>
       </c>
@@ -11356,7 +11357,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>9</v>
       </c>
@@ -11382,7 +11383,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>10</v>
       </c>
@@ -11408,7 +11409,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>11</v>
       </c>
@@ -11434,7 +11435,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>12</v>
       </c>
@@ -11460,7 +11461,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>13</v>
       </c>
@@ -11486,7 +11487,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>14</v>
       </c>
@@ -11512,7 +11513,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>15</v>
       </c>
@@ -11538,7 +11539,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>16</v>
       </c>
@@ -11564,7 +11565,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>17</v>
       </c>
@@ -11590,7 +11591,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>18</v>
       </c>
@@ -11616,7 +11617,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>19</v>
       </c>
@@ -11642,7 +11643,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>20</v>
       </c>
@@ -11668,7 +11669,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>21</v>
       </c>
@@ -11694,7 +11695,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>22</v>
       </c>
@@ -11720,7 +11721,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>23</v>
       </c>
@@ -11746,7 +11747,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>24</v>
       </c>
@@ -11772,7 +11773,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>25</v>
       </c>
@@ -11798,7 +11799,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>26</v>
       </c>
@@ -11824,7 +11825,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>27</v>
       </c>
@@ -11850,7 +11851,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>28</v>
       </c>
@@ -11876,7 +11877,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>29</v>
       </c>
@@ -11902,7 +11903,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>30</v>
       </c>
@@ -11928,7 +11929,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>31</v>
       </c>
@@ -11954,7 +11955,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>32</v>
       </c>
@@ -11980,7 +11981,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>33</v>
       </c>
@@ -12006,7 +12007,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>34</v>
       </c>
@@ -12032,12 +12033,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B275" s="3" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
         <v>1071</v>
       </c>
@@ -12063,7 +12064,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>1</v>
       </c>
@@ -12089,7 +12090,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>2</v>
       </c>
@@ -12115,7 +12116,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>3</v>
       </c>
@@ -12141,7 +12142,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>4</v>
       </c>
@@ -12167,7 +12168,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>5</v>
       </c>
@@ -12193,7 +12194,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>6</v>
       </c>
@@ -12219,7 +12220,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>7</v>
       </c>
@@ -12245,7 +12246,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>8</v>
       </c>
@@ -12271,7 +12272,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>9</v>
       </c>
@@ -12297,7 +12298,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>10</v>
       </c>
@@ -12323,7 +12324,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>11</v>
       </c>
@@ -12349,7 +12350,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>12</v>
       </c>
@@ -12375,7 +12376,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>13</v>
       </c>
@@ -12401,33 +12402,33 @@
         <v>732</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A290" s="1">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A290" s="11">
         <v>14</v>
       </c>
-      <c r="B290" s="1" t="s">
+      <c r="B290" s="11" t="s">
         <v>781</v>
       </c>
-      <c r="C290" s="1" t="s">
+      <c r="C290" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="D290" s="1" t="s">
+      <c r="D290" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="E290" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F290" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G290" s="1">
-        <v>0</v>
-      </c>
-      <c r="H290" s="1" t="s">
+      <c r="E290" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F290" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G290" s="11">
+        <v>0</v>
+      </c>
+      <c r="H290" s="11" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>15</v>
       </c>
@@ -12453,7 +12454,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>16</v>
       </c>
@@ -12479,7 +12480,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>17</v>
       </c>
@@ -12505,7 +12506,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>18</v>
       </c>
@@ -12531,7 +12532,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>19</v>
       </c>
@@ -12557,7 +12558,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>20</v>
       </c>
@@ -12583,7 +12584,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>21</v>
       </c>
@@ -12609,7 +12610,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>22</v>
       </c>
@@ -12635,7 +12636,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>23</v>
       </c>
@@ -12661,7 +12662,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>24</v>
       </c>
@@ -12687,7 +12688,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>25</v>
       </c>
@@ -12713,7 +12714,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>26</v>
       </c>
@@ -12739,7 +12740,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>27</v>
       </c>
@@ -12765,7 +12766,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>28</v>
       </c>
@@ -12791,7 +12792,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>29</v>
       </c>
@@ -12817,7 +12818,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>30</v>
       </c>
@@ -12843,7 +12844,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>31</v>
       </c>
@@ -12869,7 +12870,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>32</v>
       </c>
@@ -12895,38 +12896,38 @@
         <v>249</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A309" s="1">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A309" s="11">
         <v>33</v>
       </c>
-      <c r="B309" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="C309" s="1" t="s">
+      <c r="B309" s="11" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C309" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="D309" s="1" t="s">
+      <c r="D309" s="11" t="s">
         <v>767</v>
       </c>
-      <c r="E309" s="1" t="s">
+      <c r="E309" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="F309" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G309" s="1">
-        <v>0</v>
-      </c>
-      <c r="H309" s="1" t="s">
+      <c r="F309" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G309" s="11">
+        <v>0</v>
+      </c>
+      <c r="H309" s="11" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B311" s="3" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" s="4" t="s">
         <v>1071</v>
       </c>
@@ -12952,7 +12953,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>1</v>
       </c>
@@ -12978,7 +12979,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>2</v>
       </c>
@@ -13004,7 +13005,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>3</v>
       </c>
@@ -13030,7 +13031,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>4</v>
       </c>
@@ -13056,7 +13057,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>5</v>
       </c>
@@ -13082,7 +13083,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>6</v>
       </c>
@@ -13108,7 +13109,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>7</v>
       </c>
@@ -13134,7 +13135,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>8</v>
       </c>
@@ -13160,7 +13161,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>9</v>
       </c>
@@ -13186,7 +13187,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>10</v>
       </c>
@@ -13212,7 +13213,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>11</v>
       </c>
@@ -13238,7 +13239,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>12</v>
       </c>
@@ -13264,7 +13265,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>13</v>
       </c>
@@ -13290,7 +13291,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>14</v>
       </c>
@@ -13316,7 +13317,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>15</v>
       </c>
@@ -13342,7 +13343,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>16</v>
       </c>
@@ -13368,7 +13369,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>17</v>
       </c>
@@ -13394,7 +13395,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>18</v>
       </c>
@@ -13420,7 +13421,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>19</v>
       </c>
@@ -13446,7 +13447,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>20</v>
       </c>
@@ -13472,7 +13473,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>21</v>
       </c>
@@ -13498,7 +13499,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>22</v>
       </c>
@@ -13524,7 +13525,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>23</v>
       </c>
@@ -13550,7 +13551,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>24</v>
       </c>
@@ -13576,7 +13577,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>25</v>
       </c>
@@ -13602,7 +13603,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>26</v>
       </c>
@@ -13628,7 +13629,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>27</v>
       </c>
@@ -13654,7 +13655,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>28</v>
       </c>
@@ -13680,7 +13681,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>29</v>
       </c>
@@ -13706,7 +13707,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>30</v>
       </c>
@@ -13732,7 +13733,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>31</v>
       </c>
@@ -13758,7 +13759,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>32</v>
       </c>
@@ -13784,7 +13785,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>33</v>
       </c>
@@ -13810,7 +13811,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>34</v>
       </c>
@@ -13836,7 +13837,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>35</v>
       </c>
@@ -13862,7 +13863,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>36</v>
       </c>
@@ -13888,7 +13889,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>37</v>
       </c>
@@ -13914,7 +13915,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>38</v>
       </c>
@@ -13940,7 +13941,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>39</v>
       </c>
@@ -13966,7 +13967,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" s="11">
         <v>40</v>
       </c>
@@ -13992,7 +13993,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" s="11">
         <v>41</v>
       </c>
@@ -14018,7 +14019,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" s="11">
         <v>42</v>
       </c>
@@ -14044,7 +14045,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355" s="11">
         <v>43</v>
       </c>
@@ -14070,7 +14071,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" s="11">
         <v>44</v>
       </c>
@@ -14096,7 +14097,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A357" s="11">
         <v>45</v>
       </c>
@@ -14122,7 +14123,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358" s="11">
         <v>46</v>
       </c>
@@ -14148,7 +14149,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359" s="11">
         <v>47</v>
       </c>
@@ -14174,7 +14175,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" s="11">
         <v>48</v>
       </c>
@@ -14200,7 +14201,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361" s="11">
         <v>49</v>
       </c>
@@ -14226,7 +14227,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362" s="11">
         <v>50</v>
       </c>
@@ -14252,7 +14253,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A363" s="11">
         <v>51</v>
       </c>
@@ -14278,7 +14279,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" s="11">
         <v>52</v>
       </c>
@@ -14304,7 +14305,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" s="11">
         <v>53</v>
       </c>
@@ -14330,7 +14331,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A366" s="11">
         <v>54</v>
       </c>
@@ -14356,7 +14357,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" s="11">
         <v>55</v>
       </c>
@@ -14382,7 +14383,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368" s="11">
         <v>56</v>
       </c>
@@ -14408,7 +14409,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" s="11">
         <v>57</v>
       </c>
@@ -14434,7 +14435,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" s="11">
         <v>58</v>
       </c>
@@ -14460,7 +14461,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" s="11">
         <v>59</v>
       </c>
@@ -14486,7 +14487,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A372" s="11">
         <v>60</v>
       </c>
@@ -14512,7 +14513,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" s="11">
         <v>61</v>
       </c>
@@ -14538,7 +14539,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" s="11">
         <v>62</v>
       </c>
@@ -14564,7 +14565,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" s="11">
         <v>63</v>
       </c>
@@ -14590,7 +14591,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" s="11">
         <v>64</v>
       </c>
@@ -14616,7 +14617,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A377" s="11">
         <v>65</v>
       </c>
@@ -14642,7 +14643,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" s="11">
         <v>66</v>
       </c>
@@ -14668,7 +14669,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" s="11">
         <v>67</v>
       </c>
@@ -14694,7 +14695,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" s="11">
         <v>68</v>
       </c>
@@ -14720,7 +14721,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" s="11">
         <v>69</v>
       </c>
@@ -14746,7 +14747,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" s="11">
         <v>70</v>
       </c>
@@ -14772,7 +14773,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" s="11">
         <v>71</v>
       </c>
@@ -14798,7 +14799,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" s="11">
         <v>72</v>
       </c>
@@ -14824,7 +14825,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A385" s="11">
         <v>73</v>
       </c>
@@ -14850,7 +14851,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A386" s="11">
         <v>74</v>
       </c>
@@ -14876,7 +14877,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A387" s="11">
         <v>75</v>
       </c>
@@ -14902,7 +14903,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A388" s="11">
         <v>76</v>
       </c>
@@ -14928,7 +14929,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A389" s="11">
         <v>77</v>
       </c>
@@ -14954,7 +14955,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A390" s="11">
         <v>78</v>
       </c>
@@ -14980,7 +14981,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>79</v>
       </c>
@@ -15004,7 +15005,7 @@
       </c>
       <c r="H391" s="1"/>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>80</v>
       </c>
@@ -15028,12 +15029,12 @@
       </c>
       <c r="H392" s="1"/>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B394" s="3" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A395" s="4" t="s">
         <v>1071</v>
       </c>
@@ -15059,7 +15060,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>1</v>
       </c>
@@ -15085,7 +15086,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>2</v>
       </c>
@@ -15111,7 +15112,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>3</v>
       </c>
@@ -15137,7 +15138,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>4</v>
       </c>
@@ -15163,7 +15164,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>5</v>
       </c>
@@ -15189,7 +15190,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>6</v>
       </c>
@@ -15215,7 +15216,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>7</v>
       </c>
@@ -15241,7 +15242,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>8</v>
       </c>
@@ -15267,7 +15268,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>9</v>
       </c>
@@ -15293,7 +15294,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>10</v>
       </c>
@@ -15319,7 +15320,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>11</v>
       </c>
@@ -15345,7 +15346,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>12</v>
       </c>
@@ -15371,7 +15372,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>13</v>
       </c>
@@ -15397,7 +15398,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>14</v>
       </c>
@@ -15423,7 +15424,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>15</v>
       </c>
@@ -15449,7 +15450,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>16</v>
       </c>
@@ -15475,7 +15476,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>17</v>
       </c>
@@ -15501,7 +15502,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>18</v>
       </c>
@@ -15527,7 +15528,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414" s="11">
         <v>19</v>
       </c>
@@ -15553,7 +15554,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A415" s="11">
         <v>20</v>
       </c>
@@ -15579,7 +15580,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A416" s="11">
         <v>21</v>
       </c>
@@ -15605,7 +15606,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A417" s="11">
         <v>22</v>
       </c>
@@ -15631,7 +15632,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A418" s="11">
         <v>23</v>
       </c>
@@ -15657,7 +15658,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A419" s="11">
         <v>24</v>
       </c>
@@ -15683,7 +15684,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A420" s="11">
         <v>25</v>
       </c>
@@ -15709,7 +15710,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A421" s="11">
         <v>26</v>
       </c>
@@ -15735,7 +15736,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A422" s="11">
         <v>27</v>
       </c>
@@ -15761,7 +15762,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A423" s="11">
         <v>28</v>
       </c>
@@ -15787,7 +15788,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A424" s="11">
         <v>29</v>
       </c>
@@ -15813,7 +15814,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A425" s="11">
         <v>30</v>
       </c>
@@ -15839,12 +15840,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B427" s="3" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A428" s="4" t="s">
         <v>1071</v>
       </c>
@@ -15870,7 +15871,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>1</v>
       </c>
@@ -15896,7 +15897,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>2</v>
       </c>
@@ -15922,7 +15923,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>3</v>
       </c>
@@ -15948,7 +15949,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>4</v>
       </c>
@@ -15974,7 +15975,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>5</v>
       </c>
@@ -16000,7 +16001,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>6</v>
       </c>
@@ -16026,7 +16027,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>7</v>
       </c>
@@ -16052,7 +16053,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>8</v>
       </c>
@@ -16078,7 +16079,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>9</v>
       </c>
@@ -16104,7 +16105,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>10</v>
       </c>

--- a/dataset_competition/META_DATA.xlsx
+++ b/dataset_competition/META_DATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="465" windowWidth="22380" windowHeight="14760" tabRatio="681" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="2715" yWindow="465" windowWidth="22380" windowHeight="14760" tabRatio="681"/>
   </bookViews>
   <sheets>
     <sheet name="테이블" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="OTHER_IDX">변수설명_이외변수!$B$427</definedName>
     <definedName name="US_IDX">변수설명_이외변수!$B$95</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="1142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2657" uniqueCount="1143">
   <si>
     <t>SPX</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1321,9 +1321,6 @@
     <t>aeUSPRPFG</t>
   </si>
   <si>
-    <t>aeUSPRPFXFEC</t>
-  </si>
-  <si>
     <t>aaUSWRSRX</t>
   </si>
   <si>
@@ -2024,13 +2021,7 @@
     <t>aCHCBSG</t>
   </si>
   <si>
-    <t>aCHCBLK</t>
-  </si>
-  <si>
     <t>aCHBSBSIT</t>
-  </si>
-  <si>
-    <t>aCHBSPMHPMI</t>
   </si>
   <si>
     <t>aCHCSCI</t>
@@ -3454,10 +3445,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>aGLFUGC1_YoY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>aGLFUSI1_YoY</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3623,6 +3610,26 @@
   </si>
   <si>
     <t>aJPCBLD_YoY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aeUSPRPFXFEC(제거)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Achcblk(제거)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aCHBSPMHPMI(제거)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aGLFUGC1_YoY(삭제)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.5.11.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3636,7 +3643,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3853,6 +3860,22 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="19">
     <fill>
@@ -3950,7 +3973,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -4089,6 +4112,19 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -4244,7 +4280,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4286,6 +4322,24 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="56">
@@ -4622,18 +4676,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.875" customWidth="1"/>
     <col min="2" max="3" width="29.5" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -4641,16 +4696,19 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1063</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -4658,16 +4716,16 @@
         <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D2" s="1">
         <v>10</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -4675,16 +4733,16 @@
         <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D3" s="1">
         <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -4692,16 +4750,16 @@
         <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -4709,75 +4767,75 @@
         <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D5" s="1">
         <v>10</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D8" s="1">
         <v>5</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>100</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D9" s="5">
         <v>30</v>
@@ -4786,140 +4844,140 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D10" s="5">
         <v>58</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>496</v>
-      </c>
       <c r="B11" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D11" s="5">
         <v>78</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D12" s="5">
         <v>59</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D13" s="5">
         <v>34</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D14" s="1">
         <v>33</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D15" s="1">
         <v>80</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D16" s="1">
         <v>30</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D17" s="1">
         <v>10</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -5133,8 +5191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B290" sqref="B290"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B427" sqref="B427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5155,7 +5213,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>258</v>
@@ -5190,7 +5248,7 @@
         <v>63</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>95</v>
@@ -5216,7 +5274,7 @@
         <v>64</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>95</v>
@@ -5242,7 +5300,7 @@
         <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>95</v>
@@ -5268,7 +5326,7 @@
         <v>66</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>95</v>
@@ -5294,7 +5352,7 @@
         <v>67</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>95</v>
@@ -5320,7 +5378,7 @@
         <v>68</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>95</v>
@@ -5346,7 +5404,7 @@
         <v>69</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>95</v>
@@ -5372,7 +5430,7 @@
         <v>70</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>95</v>
@@ -5398,7 +5456,7 @@
         <v>71</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>95</v>
@@ -5424,7 +5482,7 @@
         <v>72</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>95</v>
@@ -5450,7 +5508,7 @@
         <v>73</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>95</v>
@@ -5476,7 +5534,7 @@
         <v>74</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>95</v>
@@ -5502,7 +5560,7 @@
         <v>75</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>95</v>
@@ -5528,7 +5586,7 @@
         <v>76</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>95</v>
@@ -5554,7 +5612,7 @@
         <v>77</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>95</v>
@@ -5580,7 +5638,7 @@
         <v>78</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>95</v>
@@ -5606,7 +5664,7 @@
         <v>79</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>95</v>
@@ -5632,7 +5690,7 @@
         <v>80</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>95</v>
@@ -5658,7 +5716,7 @@
         <v>81</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>95</v>
@@ -5684,7 +5742,7 @@
         <v>82</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>95</v>
@@ -5710,7 +5768,7 @@
         <v>83</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>95</v>
@@ -5736,7 +5794,7 @@
         <v>84</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>95</v>
@@ -5762,7 +5820,7 @@
         <v>85</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>95</v>
@@ -5788,7 +5846,7 @@
         <v>86</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>95</v>
@@ -5814,7 +5872,7 @@
         <v>87</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>95</v>
@@ -5840,7 +5898,7 @@
         <v>88</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>95</v>
@@ -5866,7 +5924,7 @@
         <v>89</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>95</v>
@@ -5892,7 +5950,7 @@
         <v>90</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>95</v>
@@ -5918,7 +5976,7 @@
         <v>91</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>95</v>
@@ -5944,7 +6002,7 @@
         <v>92</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>95</v>
@@ -5961,12 +6019,12 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>258</v>
@@ -6411,7 +6469,7 @@
         <v>17</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>198</v>
@@ -6437,7 +6495,7 @@
         <v>18</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>200</v>
@@ -6463,7 +6521,7 @@
         <v>19</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>200</v>
@@ -6775,7 +6833,7 @@
         <v>31</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>159</v>
@@ -6801,7 +6859,7 @@
         <v>32</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>161</v>
@@ -6827,7 +6885,7 @@
         <v>33</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>163</v>
@@ -6853,7 +6911,7 @@
         <v>34</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>165</v>
@@ -6879,7 +6937,7 @@
         <v>35</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>165</v>
@@ -6931,7 +6989,7 @@
         <v>37</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>198</v>
@@ -7500,12 +7558,12 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B95" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>258</v>
@@ -7534,7 +7592,7 @@
         <v>1</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>261</v>
@@ -7630,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -7656,7 +7714,7 @@
         <v>0</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
@@ -7682,7 +7740,7 @@
         <v>0</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
@@ -7690,7 +7748,7 @@
         <v>7</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C103" s="11" t="s">
         <v>265</v>
@@ -7708,7 +7766,7 @@
         <v>0</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -7786,7 +7844,7 @@
         <v>0</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
@@ -7812,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
@@ -7923,25 +7981,25 @@
       <c r="A112" s="1">
         <v>16</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C112" s="1" t="s">
+      <c r="B112" s="14" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C112" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="E112" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="F112" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G112" s="1">
-        <v>0</v>
-      </c>
-      <c r="H112" s="1" t="s">
+      <c r="F112" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G112" s="15">
+        <v>0</v>
+      </c>
+      <c r="H112" s="15" t="s">
         <v>249</v>
       </c>
     </row>
@@ -7950,7 +8008,7 @@
         <v>17</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C113" s="13" t="s">
         <v>274</v>
@@ -7976,7 +8034,7 @@
         <v>18</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>275</v>
@@ -8002,7 +8060,7 @@
         <v>19</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>276</v>
@@ -8028,7 +8086,7 @@
         <v>20</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>266</v>
@@ -8046,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
@@ -8054,7 +8112,7 @@
         <v>21</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>266</v>
@@ -8072,7 +8130,7 @@
         <v>0</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
@@ -8080,7 +8138,7 @@
         <v>22</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>277</v>
@@ -8106,7 +8164,7 @@
         <v>23</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>278</v>
@@ -8132,7 +8190,7 @@
         <v>24</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>279</v>
@@ -8158,7 +8216,7 @@
         <v>25</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>280</v>
@@ -8184,7 +8242,7 @@
         <v>26</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>281</v>
@@ -8210,7 +8268,7 @@
         <v>27</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>282</v>
@@ -8228,7 +8286,7 @@
         <v>0</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
@@ -8236,7 +8294,7 @@
         <v>28</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>283</v>
@@ -8254,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
@@ -8262,7 +8320,7 @@
         <v>29</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>284</v>
@@ -8280,7 +8338,7 @@
         <v>0</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
@@ -8288,7 +8346,7 @@
         <v>30</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>285</v>
@@ -8306,7 +8364,7 @@
         <v>0</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
@@ -8314,7 +8372,7 @@
         <v>31</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>286</v>
@@ -8332,7 +8390,7 @@
         <v>0</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
@@ -8340,7 +8398,7 @@
         <v>32</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>287</v>
@@ -8358,7 +8416,7 @@
         <v>0</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
@@ -8366,7 +8424,7 @@
         <v>33</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>288</v>
@@ -8384,7 +8442,7 @@
         <v>0</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
@@ -8392,7 +8450,7 @@
         <v>34</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>289</v>
@@ -8410,7 +8468,7 @@
         <v>0</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
@@ -8418,7 +8476,7 @@
         <v>35</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>266</v>
@@ -8436,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
@@ -8444,7 +8502,7 @@
         <v>36</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>290</v>
@@ -8470,7 +8528,7 @@
         <v>37</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>291</v>
@@ -8488,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
@@ -8496,7 +8554,7 @@
         <v>38</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>292</v>
@@ -8514,7 +8572,7 @@
         <v>0</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
@@ -8522,7 +8580,7 @@
         <v>39</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C135" s="11" t="s">
         <v>293</v>
@@ -8540,7 +8598,7 @@
         <v>0</v>
       </c>
       <c r="H135" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
@@ -8548,7 +8606,7 @@
         <v>40</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C136" s="11" t="s">
         <v>294</v>
@@ -8566,7 +8624,7 @@
         <v>0</v>
       </c>
       <c r="H136" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
@@ -8574,7 +8632,7 @@
         <v>41</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>295</v>
@@ -8600,7 +8658,7 @@
         <v>42</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>266</v>
@@ -8626,7 +8684,7 @@
         <v>43</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>296</v>
@@ -8652,7 +8710,7 @@
         <v>44</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>266</v>
@@ -8678,7 +8736,7 @@
         <v>45</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>297</v>
@@ -8704,7 +8762,7 @@
         <v>46</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>298</v>
@@ -8730,7 +8788,7 @@
         <v>47</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>299</v>
@@ -8756,7 +8814,7 @@
         <v>48</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>293</v>
@@ -8774,7 +8832,7 @@
         <v>1</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
@@ -8782,7 +8840,7 @@
         <v>49</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>294</v>
@@ -8800,7 +8858,7 @@
         <v>1</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
@@ -8826,7 +8884,7 @@
         <v>0</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
@@ -8834,7 +8892,7 @@
         <v>51</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>300</v>
@@ -8852,7 +8910,7 @@
         <v>0</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
@@ -8860,7 +8918,7 @@
         <v>52</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>301</v>
@@ -8878,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
@@ -8886,7 +8944,7 @@
         <v>53</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>302</v>
@@ -8904,7 +8962,7 @@
         <v>0</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
@@ -8912,7 +8970,7 @@
         <v>54</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>303</v>
@@ -8930,7 +8988,7 @@
         <v>0</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
@@ -8938,7 +8996,7 @@
         <v>55</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>304</v>
@@ -8956,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
@@ -8964,7 +9022,7 @@
         <v>56</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>278</v>
@@ -8982,7 +9040,7 @@
         <v>0</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
@@ -8990,7 +9048,7 @@
         <v>57</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>305</v>
@@ -9016,7 +9074,7 @@
         <v>58</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>306</v>
@@ -9034,7 +9092,7 @@
         <v>0</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
@@ -9042,7 +9100,7 @@
         <v>59</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>307</v>
@@ -9060,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
@@ -9068,7 +9126,7 @@
         <v>60</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>308</v>
@@ -9086,7 +9144,7 @@
         <v>0</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
@@ -9094,7 +9152,7 @@
         <v>61</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>309</v>
@@ -9112,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
@@ -9120,7 +9178,7 @@
         <v>62</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>310</v>
@@ -9138,7 +9196,7 @@
         <v>0</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
@@ -9146,7 +9204,7 @@
         <v>63</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>311</v>
@@ -9164,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
@@ -9172,7 +9230,7 @@
         <v>64</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="C160" s="11" t="s">
         <v>262</v>
@@ -9190,7 +9248,7 @@
         <v>1</v>
       </c>
       <c r="H160" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
@@ -9198,7 +9256,7 @@
         <v>65</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>312</v>
@@ -9216,7 +9274,7 @@
         <v>1</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
@@ -9224,7 +9282,7 @@
         <v>66</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>313</v>
@@ -9242,7 +9300,7 @@
         <v>1</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
@@ -9250,7 +9308,7 @@
         <v>67</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="C163" s="11" t="s">
         <v>294</v>
@@ -9268,7 +9326,7 @@
         <v>1</v>
       </c>
       <c r="H163" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
@@ -9276,7 +9334,7 @@
         <v>68</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>314</v>
@@ -9294,7 +9352,7 @@
         <v>1</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
@@ -9302,7 +9360,7 @@
         <v>69</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="C165" s="11" t="s">
         <v>293</v>
@@ -9320,7 +9378,7 @@
         <v>1</v>
       </c>
       <c r="H165" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
@@ -9328,7 +9386,7 @@
         <v>70</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>315</v>
@@ -9346,7 +9404,7 @@
         <v>1</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
@@ -9354,7 +9412,7 @@
         <v>71</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>316</v>
@@ -9372,7 +9430,7 @@
         <v>1</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
@@ -9380,7 +9438,7 @@
         <v>72</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>317</v>
@@ -9398,7 +9456,7 @@
         <v>1</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
@@ -9406,7 +9464,7 @@
         <v>73</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>318</v>
@@ -9424,7 +9482,7 @@
         <v>1</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
@@ -9432,7 +9490,7 @@
         <v>74</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>319</v>
@@ -9450,7 +9508,7 @@
         <v>1</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
@@ -9458,7 +9516,7 @@
         <v>75</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>320</v>
@@ -9482,7 +9540,7 @@
         <v>76</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>321</v>
@@ -9506,7 +9564,7 @@
         <v>77</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>322</v>
@@ -9532,7 +9590,7 @@
         <v>78</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>323</v>
@@ -9555,12 +9613,12 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B176" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>258</v>
@@ -9589,13 +9647,13 @@
         <v>1</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C178" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D178" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>512</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>95</v>
@@ -9615,13 +9673,13 @@
         <v>2</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C179" s="11" t="s">
         <v>370</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E179" s="11" t="s">
         <v>95</v>
@@ -9633,7 +9691,7 @@
         <v>1</v>
       </c>
       <c r="H179" s="11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
@@ -9641,10 +9699,10 @@
         <v>3</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>310</v>
@@ -9667,13 +9725,13 @@
         <v>4</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>266</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>250</v>
@@ -9693,13 +9751,13 @@
         <v>5</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C182" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D182" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>517</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>95</v>
@@ -9719,13 +9777,13 @@
         <v>6</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C183" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>519</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>95</v>
@@ -9745,13 +9803,13 @@
         <v>7</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C184" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D184" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>521</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>95</v>
@@ -9771,13 +9829,13 @@
         <v>8</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C185" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D185" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>523</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>95</v>
@@ -9797,13 +9855,13 @@
         <v>9</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C186" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="D186" s="11" t="s">
         <v>524</v>
-      </c>
-      <c r="D186" s="11" t="s">
-        <v>525</v>
       </c>
       <c r="E186" s="11" t="s">
         <v>95</v>
@@ -9823,13 +9881,13 @@
         <v>10</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C187" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D187" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>527</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>95</v>
@@ -9849,13 +9907,13 @@
         <v>11</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>95</v>
@@ -9875,13 +9933,13 @@
         <v>12</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C189" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D189" s="1" t="s">
         <v>529</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>530</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>250</v>
@@ -9901,13 +9959,13 @@
         <v>13</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C190" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D190" s="1" t="s">
         <v>531</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>532</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>250</v>
@@ -9927,7 +9985,7 @@
         <v>14</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>358</v>
@@ -9953,13 +10011,13 @@
         <v>15</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>250</v>
@@ -9979,13 +10037,13 @@
         <v>16</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>250</v>
@@ -10005,13 +10063,13 @@
         <v>17</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>250</v>
@@ -10031,13 +10089,13 @@
         <v>18</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>95</v>
@@ -10057,13 +10115,13 @@
         <v>19</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C196" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="D196" s="11" t="s">
         <v>537</v>
-      </c>
-      <c r="D196" s="11" t="s">
-        <v>538</v>
       </c>
       <c r="E196" s="11" t="s">
         <v>95</v>
@@ -10083,14 +10141,14 @@
         <v>20</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C197" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D197" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="D197" s="1" t="s">
-        <v>540</v>
-      </c>
       <c r="E197" s="1" t="s">
         <v>95</v>
       </c>
@@ -10101,7 +10159,7 @@
         <v>0</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
@@ -10109,14 +10167,14 @@
         <v>21</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C198" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D198" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="D198" s="1" t="s">
-        <v>542</v>
-      </c>
       <c r="E198" s="1" t="s">
         <v>95</v>
       </c>
@@ -10127,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
@@ -10135,13 +10193,13 @@
         <v>22</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>95</v>
@@ -10153,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
@@ -10161,13 +10219,13 @@
         <v>23</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>95</v>
@@ -10179,7 +10237,7 @@
         <v>0</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
@@ -10187,13 +10245,13 @@
         <v>24</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>95</v>
@@ -10205,7 +10263,7 @@
         <v>0</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
@@ -10213,13 +10271,13 @@
         <v>25</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>95</v>
@@ -10231,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
@@ -10239,13 +10297,13 @@
         <v>26</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>95</v>
@@ -10257,7 +10315,7 @@
         <v>0</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
@@ -10265,13 +10323,13 @@
         <v>27</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>95</v>
@@ -10283,7 +10341,7 @@
         <v>0</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
@@ -10291,13 +10349,13 @@
         <v>28</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>95</v>
@@ -10309,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
@@ -10317,13 +10375,13 @@
         <v>29</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>95</v>
@@ -10335,7 +10393,7 @@
         <v>0</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
@@ -10343,13 +10401,13 @@
         <v>30</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>95</v>
@@ -10361,7 +10419,7 @@
         <v>0</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
@@ -10369,13 +10427,13 @@
         <v>31</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>95</v>
@@ -10387,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
@@ -10395,13 +10453,13 @@
         <v>32</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>95</v>
@@ -10413,7 +10471,7 @@
         <v>0</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
@@ -10421,13 +10479,13 @@
         <v>33</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>95</v>
@@ -10439,7 +10497,7 @@
         <v>0</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
@@ -10447,7 +10505,7 @@
         <v>34</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>270</v>
@@ -10473,7 +10531,7 @@
         <v>35</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="C212" s="11" t="s">
         <v>370</v>
@@ -10491,7 +10549,7 @@
         <v>0</v>
       </c>
       <c r="H212" s="11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
@@ -10499,7 +10557,7 @@
         <v>36</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>379</v>
@@ -10517,7 +10575,7 @@
         <v>0</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
@@ -10525,13 +10583,13 @@
         <v>37</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>95</v>
@@ -10543,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
@@ -10551,13 +10609,13 @@
         <v>38</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>95</v>
@@ -10572,29 +10630,29 @@
         <v>252</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A216" s="1">
+    <row r="216" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="14">
         <v>39</v>
       </c>
-      <c r="B216" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F216" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G216" s="1">
-        <v>0</v>
-      </c>
-      <c r="H216" s="1" t="s">
+      <c r="B216" s="14" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C216" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="D216" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="E216" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F216" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G216" s="14">
+        <v>0</v>
+      </c>
+      <c r="H216" s="14" t="s">
         <v>249</v>
       </c>
     </row>
@@ -10603,13 +10661,13 @@
         <v>40</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>95</v>
@@ -10624,29 +10682,29 @@
         <v>252</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A218" s="1">
+    <row r="218" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="14">
         <v>41</v>
       </c>
-      <c r="B218" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="C218" s="1" t="s">
+      <c r="B218" s="14" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C218" s="14" t="s">
+        <v>558</v>
+      </c>
+      <c r="D218" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="D218" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F218" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G218" s="1">
-        <v>0</v>
-      </c>
-      <c r="H218" s="1" t="s">
+      <c r="E218" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F218" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G218" s="14">
+        <v>0</v>
+      </c>
+      <c r="H218" s="14" t="s">
         <v>252</v>
       </c>
     </row>
@@ -10655,13 +10713,13 @@
         <v>42</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>95</v>
@@ -10681,13 +10739,13 @@
         <v>43</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>95</v>
@@ -10699,7 +10757,7 @@
         <v>0</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
@@ -10707,13 +10765,13 @@
         <v>44</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>95</v>
@@ -10725,7 +10783,7 @@
         <v>0</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
@@ -10733,13 +10791,13 @@
         <v>45</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>95</v>
@@ -10751,7 +10809,7 @@
         <v>0</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
@@ -10759,14 +10817,14 @@
         <v>46</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C223" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D223" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D223" s="1" t="s">
-        <v>566</v>
-      </c>
       <c r="E223" s="1" t="s">
         <v>95</v>
       </c>
@@ -10777,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
@@ -10785,13 +10843,13 @@
         <v>47</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D224" s="11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E224" s="11" t="s">
         <v>95</v>
@@ -10811,14 +10869,14 @@
         <v>48</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C225" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D225" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="D225" s="1" t="s">
-        <v>569</v>
-      </c>
       <c r="E225" s="1" t="s">
         <v>95</v>
       </c>
@@ -10829,7 +10887,7 @@
         <v>0</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
@@ -10837,14 +10895,14 @@
         <v>49</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C226" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D226" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="D226" s="1" t="s">
-        <v>571</v>
-      </c>
       <c r="E226" s="1" t="s">
         <v>95</v>
       </c>
@@ -10855,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
@@ -10863,13 +10921,13 @@
         <v>50</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D227" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E227" s="11" t="s">
         <v>95</v>
@@ -10889,13 +10947,13 @@
         <v>51</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>95</v>
@@ -10915,13 +10973,13 @@
         <v>52</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C229" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D229" s="1" t="s">
         <v>574</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>575</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>95</v>
@@ -10941,13 +10999,13 @@
         <v>53</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C230" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D230" s="1" t="s">
         <v>576</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>577</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>95</v>
@@ -10967,13 +11025,13 @@
         <v>54</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>95</v>
@@ -10985,7 +11043,7 @@
         <v>0</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
@@ -10993,14 +11051,14 @@
         <v>55</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C232" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="D232" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="D232" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="E232" s="1" t="s">
         <v>95</v>
       </c>
@@ -11011,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
@@ -11019,13 +11077,13 @@
         <v>56</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>95</v>
@@ -11037,7 +11095,7 @@
         <v>0</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
@@ -11045,13 +11103,13 @@
         <v>57</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C234" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D234" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>583</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>95</v>
@@ -11071,14 +11129,14 @@
         <v>58</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C235" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D235" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="D235" s="1" t="s">
-        <v>585</v>
-      </c>
       <c r="E235" s="1" t="s">
         <v>95</v>
       </c>
@@ -11089,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
@@ -11097,14 +11155,14 @@
         <v>59</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C236" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D236" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="D236" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="E236" s="1" t="s">
         <v>95</v>
       </c>
@@ -11115,17 +11173,17 @@
         <v>0</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B238" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="B239" s="4" t="s">
         <v>258</v>
@@ -11154,13 +11212,13 @@
         <v>1</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>95</v>
@@ -11172,7 +11230,7 @@
         <v>0</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
@@ -11180,13 +11238,13 @@
         <v>2</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>95</v>
@@ -11198,7 +11256,7 @@
         <v>0</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
@@ -11206,13 +11264,13 @@
         <v>3</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>95</v>
@@ -11224,7 +11282,7 @@
         <v>0</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
@@ -11232,13 +11290,13 @@
         <v>4</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>95</v>
@@ -11250,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
@@ -11258,13 +11316,13 @@
         <v>5</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>95</v>
@@ -11276,7 +11334,7 @@
         <v>0</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
@@ -11284,13 +11342,13 @@
         <v>6</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>95</v>
@@ -11302,7 +11360,7 @@
         <v>0</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
@@ -11310,13 +11368,13 @@
         <v>7</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>95</v>
@@ -11328,7 +11386,7 @@
         <v>0</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
@@ -11336,13 +11394,13 @@
         <v>8</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>95</v>
@@ -11354,7 +11412,7 @@
         <v>0</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
@@ -11362,13 +11420,13 @@
         <v>9</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>95</v>
@@ -11380,7 +11438,7 @@
         <v>0</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
@@ -11388,13 +11446,13 @@
         <v>10</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>95</v>
@@ -11406,7 +11464,7 @@
         <v>0</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
@@ -11414,7 +11472,7 @@
         <v>11</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>313</v>
@@ -11432,7 +11490,7 @@
         <v>0</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
@@ -11440,7 +11498,7 @@
         <v>12</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>358</v>
@@ -11458,7 +11516,7 @@
         <v>0</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
@@ -11466,13 +11524,13 @@
         <v>13</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>95</v>
@@ -11484,7 +11542,7 @@
         <v>0</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
@@ -11492,13 +11550,13 @@
         <v>14</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>95</v>
@@ -11510,7 +11568,7 @@
         <v>0</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
@@ -11518,13 +11576,13 @@
         <v>15</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>95</v>
@@ -11536,7 +11594,7 @@
         <v>0</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
@@ -11544,13 +11602,13 @@
         <v>16</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>95</v>
@@ -11562,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
@@ -11570,13 +11628,13 @@
         <v>17</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>95</v>
@@ -11588,7 +11646,7 @@
         <v>0</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
@@ -11596,13 +11654,13 @@
         <v>18</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>95</v>
@@ -11614,7 +11672,7 @@
         <v>0</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
@@ -11622,13 +11680,13 @@
         <v>19</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>95</v>
@@ -11640,7 +11698,7 @@
         <v>0</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
@@ -11648,13 +11706,13 @@
         <v>20</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>95</v>
@@ -11666,7 +11724,7 @@
         <v>0</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
@@ -11674,7 +11732,7 @@
         <v>21</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>182</v>
@@ -11700,13 +11758,13 @@
         <v>22</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>95</v>
@@ -11718,7 +11776,7 @@
         <v>0</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
@@ -11726,13 +11784,13 @@
         <v>23</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>95</v>
@@ -11744,7 +11802,7 @@
         <v>0</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
@@ -11752,13 +11810,13 @@
         <v>24</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>95</v>
@@ -11770,7 +11828,7 @@
         <v>0</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
@@ -11778,13 +11836,13 @@
         <v>25</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>95</v>
@@ -11796,7 +11854,7 @@
         <v>0</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
@@ -11804,13 +11862,13 @@
         <v>26</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>95</v>
@@ -11822,7 +11880,7 @@
         <v>0</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
@@ -11830,13 +11888,13 @@
         <v>27</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>95</v>
@@ -11848,7 +11906,7 @@
         <v>0</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
@@ -11856,13 +11914,13 @@
         <v>28</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>95</v>
@@ -11874,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
@@ -11882,13 +11940,13 @@
         <v>29</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>95</v>
@@ -11900,7 +11958,7 @@
         <v>0</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
@@ -11908,13 +11966,13 @@
         <v>30</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>95</v>
@@ -11926,7 +11984,7 @@
         <v>0</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
@@ -11934,13 +11992,13 @@
         <v>31</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>95</v>
@@ -11952,7 +12010,7 @@
         <v>0</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
@@ -11960,13 +12018,13 @@
         <v>32</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>95</v>
@@ -11978,7 +12036,7 @@
         <v>0</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
@@ -11986,13 +12044,13 @@
         <v>33</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>95</v>
@@ -12012,13 +12070,13 @@
         <v>34</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>95</v>
@@ -12035,12 +12093,12 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B275" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="B276" s="4" t="s">
         <v>258</v>
@@ -12069,13 +12127,13 @@
         <v>1</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>95</v>
@@ -12087,7 +12145,7 @@
         <v>0</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.3">
@@ -12095,13 +12153,13 @@
         <v>2</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>95</v>
@@ -12113,7 +12171,7 @@
         <v>0</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
@@ -12121,13 +12179,13 @@
         <v>3</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>95</v>
@@ -12139,7 +12197,7 @@
         <v>0</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.3">
@@ -12147,13 +12205,13 @@
         <v>4</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>95</v>
@@ -12165,7 +12223,7 @@
         <v>0</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.3">
@@ -12173,13 +12231,13 @@
         <v>5</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>95</v>
@@ -12191,7 +12249,7 @@
         <v>0</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
@@ -12199,13 +12257,13 @@
         <v>6</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>95</v>
@@ -12217,7 +12275,7 @@
         <v>0</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
@@ -12225,13 +12283,13 @@
         <v>7</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>95</v>
@@ -12243,7 +12301,7 @@
         <v>0</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
@@ -12251,13 +12309,13 @@
         <v>8</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>95</v>
@@ -12269,7 +12327,7 @@
         <v>0</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.3">
@@ -12277,7 +12335,7 @@
         <v>9</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>358</v>
@@ -12295,7 +12353,7 @@
         <v>0</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.3">
@@ -12303,13 +12361,13 @@
         <v>10</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>95</v>
@@ -12321,7 +12379,7 @@
         <v>0</v>
       </c>
       <c r="H286" s="1" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.3">
@@ -12329,7 +12387,7 @@
         <v>11</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>313</v>
@@ -12347,7 +12405,7 @@
         <v>0</v>
       </c>
       <c r="H287" s="1" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.3">
@@ -12355,13 +12413,13 @@
         <v>12</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>95</v>
@@ -12373,7 +12431,7 @@
         <v>0</v>
       </c>
       <c r="H288" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.3">
@@ -12381,13 +12439,13 @@
         <v>13</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>174</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E289" s="1" t="s">
         <v>95</v>
@@ -12399,7 +12457,7 @@
         <v>0</v>
       </c>
       <c r="H289" s="1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.3">
@@ -12407,7 +12465,7 @@
         <v>14</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C290" s="11" t="s">
         <v>370</v>
@@ -12425,7 +12483,7 @@
         <v>0</v>
       </c>
       <c r="H290" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.3">
@@ -12433,7 +12491,7 @@
         <v>15</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>379</v>
@@ -12451,7 +12509,7 @@
         <v>0</v>
       </c>
       <c r="H291" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.3">
@@ -12459,13 +12517,13 @@
         <v>16</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>95</v>
@@ -12477,7 +12535,7 @@
         <v>0</v>
       </c>
       <c r="H292" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.3">
@@ -12485,13 +12543,13 @@
         <v>17</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>95</v>
@@ -12511,13 +12569,13 @@
         <v>18</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>95</v>
@@ -12537,13 +12595,13 @@
         <v>19</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>224</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>95</v>
@@ -12563,13 +12621,13 @@
         <v>20</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>95</v>
@@ -12589,13 +12647,13 @@
         <v>21</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>95</v>
@@ -12615,13 +12673,13 @@
         <v>22</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>95</v>
@@ -12641,13 +12699,13 @@
         <v>23</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>95</v>
@@ -12667,13 +12725,13 @@
         <v>24</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>224</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>95</v>
@@ -12693,13 +12751,13 @@
         <v>25</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>95</v>
@@ -12719,13 +12777,13 @@
         <v>26</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>95</v>
@@ -12737,7 +12795,7 @@
         <v>0</v>
       </c>
       <c r="H302" s="1" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.3">
@@ -12745,10 +12803,10 @@
         <v>27</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>278</v>
@@ -12763,7 +12821,7 @@
         <v>0</v>
       </c>
       <c r="H303" s="1" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.3">
@@ -12771,13 +12829,13 @@
         <v>28</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>95</v>
@@ -12789,7 +12847,7 @@
         <v>0</v>
       </c>
       <c r="H304" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.3">
@@ -12797,13 +12855,13 @@
         <v>29</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>95</v>
@@ -12815,7 +12873,7 @@
         <v>0</v>
       </c>
       <c r="H305" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.3">
@@ -12823,13 +12881,13 @@
         <v>30</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>95</v>
@@ -12841,7 +12899,7 @@
         <v>0</v>
       </c>
       <c r="H306" s="1" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.3">
@@ -12849,13 +12907,13 @@
         <v>31</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>95</v>
@@ -12875,13 +12933,13 @@
         <v>32</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>95</v>
@@ -12901,13 +12959,13 @@
         <v>33</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="C309" s="11" t="s">
         <v>370</v>
       </c>
       <c r="D309" s="11" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="E309" s="11" t="s">
         <v>250</v>
@@ -12924,12 +12982,12 @@
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B311" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" s="4" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="B312" s="4" t="s">
         <v>258</v>
@@ -12958,13 +13016,13 @@
         <v>1</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>95</v>
@@ -12976,7 +13034,7 @@
         <v>0</v>
       </c>
       <c r="H313" s="1" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.3">
@@ -12984,13 +13042,13 @@
         <v>2</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>95</v>
@@ -13002,7 +13060,7 @@
         <v>0</v>
       </c>
       <c r="H314" s="1" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.3">
@@ -13010,13 +13068,13 @@
         <v>3</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>95</v>
@@ -13036,13 +13094,13 @@
         <v>4</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>95</v>
@@ -13054,7 +13112,7 @@
         <v>0</v>
       </c>
       <c r="H316" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.3">
@@ -13062,13 +13120,13 @@
         <v>5</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>95</v>
@@ -13080,7 +13138,7 @@
         <v>0</v>
       </c>
       <c r="H317" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.3">
@@ -13088,13 +13146,13 @@
         <v>6</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>95</v>
@@ -13106,7 +13164,7 @@
         <v>0</v>
       </c>
       <c r="H318" s="1" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.3">
@@ -13114,13 +13172,13 @@
         <v>7</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>95</v>
@@ -13132,7 +13190,7 @@
         <v>0</v>
       </c>
       <c r="H319" s="1" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.3">
@@ -13140,13 +13198,13 @@
         <v>8</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>95</v>
@@ -13158,7 +13216,7 @@
         <v>0</v>
       </c>
       <c r="H320" s="1" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.3">
@@ -13166,13 +13224,13 @@
         <v>9</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>95</v>
@@ -13192,13 +13250,13 @@
         <v>10</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>95</v>
@@ -13210,7 +13268,7 @@
         <v>0</v>
       </c>
       <c r="H322" s="1" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.3">
@@ -13218,13 +13276,13 @@
         <v>11</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>95</v>
@@ -13244,13 +13302,13 @@
         <v>12</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>95</v>
@@ -13262,7 +13320,7 @@
         <v>0</v>
       </c>
       <c r="H324" s="1" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.3">
@@ -13270,13 +13328,13 @@
         <v>13</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>95</v>
@@ -13288,7 +13346,7 @@
         <v>0</v>
       </c>
       <c r="H325" s="1" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.3">
@@ -13296,13 +13354,13 @@
         <v>14</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>95</v>
@@ -13314,7 +13372,7 @@
         <v>0</v>
       </c>
       <c r="H326" s="1" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.3">
@@ -13322,13 +13380,13 @@
         <v>15</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>95</v>
@@ -13340,7 +13398,7 @@
         <v>0</v>
       </c>
       <c r="H327" s="1" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.3">
@@ -13348,13 +13406,13 @@
         <v>16</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>95</v>
@@ -13374,13 +13432,13 @@
         <v>17</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>95</v>
@@ -13400,13 +13458,13 @@
         <v>18</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>95</v>
@@ -13426,13 +13484,13 @@
         <v>19</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>95</v>
@@ -13444,7 +13502,7 @@
         <v>0</v>
       </c>
       <c r="H331" s="1" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.3">
@@ -13452,13 +13510,13 @@
         <v>20</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>95</v>
@@ -13478,13 +13536,13 @@
         <v>21</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>95</v>
@@ -13504,13 +13562,13 @@
         <v>22</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>95</v>
@@ -13530,13 +13588,13 @@
         <v>23</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>95</v>
@@ -13548,7 +13606,7 @@
         <v>0</v>
       </c>
       <c r="H335" s="1" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.3">
@@ -13556,13 +13614,13 @@
         <v>24</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>95</v>
@@ -13574,7 +13632,7 @@
         <v>0</v>
       </c>
       <c r="H336" s="1" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.3">
@@ -13582,13 +13640,13 @@
         <v>25</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>95</v>
@@ -13600,7 +13658,7 @@
         <v>0</v>
       </c>
       <c r="H337" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.3">
@@ -13608,13 +13666,13 @@
         <v>26</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>95</v>
@@ -13626,7 +13684,7 @@
         <v>0</v>
       </c>
       <c r="H338" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.3">
@@ -13634,13 +13692,13 @@
         <v>27</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>95</v>
@@ -13652,7 +13710,7 @@
         <v>0</v>
       </c>
       <c r="H339" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.3">
@@ -13660,13 +13718,13 @@
         <v>28</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="E340" s="1" t="s">
         <v>95</v>
@@ -13678,7 +13736,7 @@
         <v>0</v>
       </c>
       <c r="H340" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.3">
@@ -13686,13 +13744,13 @@
         <v>29</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>95</v>
@@ -13704,7 +13762,7 @@
         <v>0</v>
       </c>
       <c r="H341" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.3">
@@ -13712,13 +13770,13 @@
         <v>30</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="E342" s="1" t="s">
         <v>95</v>
@@ -13738,13 +13796,13 @@
         <v>31</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>95</v>
@@ -13764,13 +13822,13 @@
         <v>32</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>95</v>
@@ -13790,13 +13848,13 @@
         <v>33</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>95</v>
@@ -13816,13 +13874,13 @@
         <v>34</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>95</v>
@@ -13834,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="H346" s="1" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.3">
@@ -13842,13 +13900,13 @@
         <v>35</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>95</v>
@@ -13860,7 +13918,7 @@
         <v>0</v>
       </c>
       <c r="H347" s="1" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.3">
@@ -13868,13 +13926,13 @@
         <v>36</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>95</v>
@@ -13886,7 +13944,7 @@
         <v>0</v>
       </c>
       <c r="H348" s="1" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.3">
@@ -13894,13 +13952,13 @@
         <v>37</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>95</v>
@@ -13912,7 +13970,7 @@
         <v>0</v>
       </c>
       <c r="H349" s="1" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.3">
@@ -13920,13 +13978,13 @@
         <v>38</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>95</v>
@@ -13938,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="H350" s="1" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.3">
@@ -13946,13 +14004,13 @@
         <v>39</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>95</v>
@@ -13964,7 +14022,7 @@
         <v>0</v>
       </c>
       <c r="H351" s="1" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.3">
@@ -13972,13 +14030,13 @@
         <v>40</v>
       </c>
       <c r="B352" s="11" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="C352" s="11" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D352" s="11" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="E352" s="11" t="s">
         <v>250</v>
@@ -13990,7 +14048,7 @@
         <v>0</v>
       </c>
       <c r="H352" s="11" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.3">
@@ -13998,13 +14056,13 @@
         <v>41</v>
       </c>
       <c r="B353" s="11" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="C353" s="11" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D353" s="11" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="E353" s="11" t="s">
         <v>250</v>
@@ -14016,7 +14074,7 @@
         <v>0</v>
       </c>
       <c r="H353" s="11" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.3">
@@ -14024,13 +14082,13 @@
         <v>42</v>
       </c>
       <c r="B354" s="11" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="C354" s="11" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="D354" s="11" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="E354" s="11" t="s">
         <v>250</v>
@@ -14050,13 +14108,13 @@
         <v>43</v>
       </c>
       <c r="B355" s="11" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="C355" s="11" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="D355" s="11" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E355" s="11" t="s">
         <v>250</v>
@@ -14068,7 +14126,7 @@
         <v>0</v>
       </c>
       <c r="H355" s="11" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.3">
@@ -14076,13 +14134,13 @@
         <v>44</v>
       </c>
       <c r="B356" s="11" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="C356" s="11" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="D356" s="11" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="E356" s="11" t="s">
         <v>250</v>
@@ -14094,7 +14152,7 @@
         <v>0</v>
       </c>
       <c r="H356" s="11" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.3">
@@ -14102,13 +14160,13 @@
         <v>45</v>
       </c>
       <c r="B357" s="11" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C357" s="11" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="D357" s="11" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E357" s="11" t="s">
         <v>250</v>
@@ -14120,7 +14178,7 @@
         <v>0</v>
       </c>
       <c r="H357" s="11" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.3">
@@ -14128,13 +14186,13 @@
         <v>46</v>
       </c>
       <c r="B358" s="11" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C358" s="11" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D358" s="11" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="E358" s="11" t="s">
         <v>250</v>
@@ -14146,7 +14204,7 @@
         <v>0</v>
       </c>
       <c r="H358" s="11" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.3">
@@ -14154,13 +14212,13 @@
         <v>47</v>
       </c>
       <c r="B359" s="11" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="C359" s="11" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D359" s="11" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="E359" s="11" t="s">
         <v>250</v>
@@ -14172,7 +14230,7 @@
         <v>0</v>
       </c>
       <c r="H359" s="11" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.3">
@@ -14180,13 +14238,13 @@
         <v>48</v>
       </c>
       <c r="B360" s="11" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="C360" s="11" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="D360" s="11" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="E360" s="11" t="s">
         <v>250</v>
@@ -14202,29 +14260,29 @@
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A361" s="11">
+      <c r="A361" s="17">
         <v>49</v>
       </c>
-      <c r="B361" s="11" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C361" s="11" t="s">
-        <v>861</v>
-      </c>
-      <c r="D361" s="11" t="s">
-        <v>817</v>
-      </c>
-      <c r="E361" s="11" t="s">
+      <c r="B361" s="17" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C361" s="18" t="s">
+        <v>858</v>
+      </c>
+      <c r="D361" s="18" t="s">
+        <v>814</v>
+      </c>
+      <c r="E361" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="F361" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="G361" s="11">
-        <v>0</v>
-      </c>
-      <c r="H361" s="11" t="s">
-        <v>958</v>
+      <c r="F361" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G361" s="18">
+        <v>0</v>
+      </c>
+      <c r="H361" s="18" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.3">
@@ -14232,13 +14290,13 @@
         <v>50</v>
       </c>
       <c r="B362" s="11" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="C362" s="11" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="D362" s="11" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="E362" s="11" t="s">
         <v>250</v>
@@ -14258,13 +14316,13 @@
         <v>51</v>
       </c>
       <c r="B363" s="11" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="C363" s="11" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D363" s="11" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="E363" s="11" t="s">
         <v>250</v>
@@ -14276,7 +14334,7 @@
         <v>0</v>
       </c>
       <c r="H363" s="11" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.3">
@@ -14284,13 +14342,13 @@
         <v>52</v>
       </c>
       <c r="B364" s="11" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="C364" s="11" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="D364" s="11" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="E364" s="11" t="s">
         <v>250</v>
@@ -14302,7 +14360,7 @@
         <v>0</v>
       </c>
       <c r="H364" s="11" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.3">
@@ -14310,13 +14368,13 @@
         <v>53</v>
       </c>
       <c r="B365" s="11" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="C365" s="11" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="D365" s="11" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="E365" s="11" t="s">
         <v>250</v>
@@ -14328,7 +14386,7 @@
         <v>0</v>
       </c>
       <c r="H365" s="11" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.3">
@@ -14336,13 +14394,13 @@
         <v>54</v>
       </c>
       <c r="B366" s="11" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="C366" s="11" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D366" s="11" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="E366" s="11" t="s">
         <v>250</v>
@@ -14354,7 +14412,7 @@
         <v>0</v>
       </c>
       <c r="H366" s="11" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.3">
@@ -14362,13 +14420,13 @@
         <v>55</v>
       </c>
       <c r="B367" s="11" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="C367" s="11" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="D367" s="11" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="E367" s="11" t="s">
         <v>250</v>
@@ -14388,13 +14446,13 @@
         <v>56</v>
       </c>
       <c r="B368" s="11" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="C368" s="11" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="D368" s="11" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="E368" s="11" t="s">
         <v>250</v>
@@ -14414,13 +14472,13 @@
         <v>57</v>
       </c>
       <c r="B369" s="11" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="C369" s="11" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="D369" s="11" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="E369" s="11" t="s">
         <v>250</v>
@@ -14440,13 +14498,13 @@
         <v>58</v>
       </c>
       <c r="B370" s="11" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="C370" s="11" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D370" s="11" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="E370" s="11" t="s">
         <v>250</v>
@@ -14458,7 +14516,7 @@
         <v>0</v>
       </c>
       <c r="H370" s="11" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.3">
@@ -14466,13 +14524,13 @@
         <v>59</v>
       </c>
       <c r="B371" s="11" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="C371" s="11" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D371" s="11" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="E371" s="11" t="s">
         <v>250</v>
@@ -14492,13 +14550,13 @@
         <v>60</v>
       </c>
       <c r="B372" s="11" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="C372" s="11" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D372" s="11" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="E372" s="11" t="s">
         <v>250</v>
@@ -14518,13 +14576,13 @@
         <v>61</v>
       </c>
       <c r="B373" s="11" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="C373" s="11" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D373" s="11" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="E373" s="11" t="s">
         <v>250</v>
@@ -14544,13 +14602,13 @@
         <v>62</v>
       </c>
       <c r="B374" s="11" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="C374" s="11" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="D374" s="11" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="E374" s="11" t="s">
         <v>250</v>
@@ -14562,7 +14620,7 @@
         <v>0</v>
       </c>
       <c r="H374" s="11" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.3">
@@ -14570,13 +14628,13 @@
         <v>63</v>
       </c>
       <c r="B375" s="11" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="C375" s="11" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D375" s="11" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="E375" s="11" t="s">
         <v>250</v>
@@ -14588,7 +14646,7 @@
         <v>0</v>
       </c>
       <c r="H375" s="11" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.3">
@@ -14596,13 +14654,13 @@
         <v>64</v>
       </c>
       <c r="B376" s="11" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="C376" s="11" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="D376" s="11" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="E376" s="11" t="s">
         <v>250</v>
@@ -14614,7 +14672,7 @@
         <v>0</v>
       </c>
       <c r="H376" s="11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.3">
@@ -14622,13 +14680,13 @@
         <v>65</v>
       </c>
       <c r="B377" s="11" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="C377" s="11" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="D377" s="11" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E377" s="11" t="s">
         <v>250</v>
@@ -14640,7 +14698,7 @@
         <v>0</v>
       </c>
       <c r="H377" s="11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.3">
@@ -14648,13 +14706,13 @@
         <v>66</v>
       </c>
       <c r="B378" s="11" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="C378" s="11" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D378" s="11" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E378" s="11" t="s">
         <v>250</v>
@@ -14666,7 +14724,7 @@
         <v>0</v>
       </c>
       <c r="H378" s="11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.3">
@@ -14674,13 +14732,13 @@
         <v>67</v>
       </c>
       <c r="B379" s="11" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="C379" s="11" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="D379" s="11" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E379" s="11" t="s">
         <v>250</v>
@@ -14692,7 +14750,7 @@
         <v>0</v>
       </c>
       <c r="H379" s="11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.3">
@@ -14700,13 +14758,13 @@
         <v>68</v>
       </c>
       <c r="B380" s="11" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="C380" s="11" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="D380" s="11" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="E380" s="11" t="s">
         <v>250</v>
@@ -14718,7 +14776,7 @@
         <v>0</v>
       </c>
       <c r="H380" s="11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.3">
@@ -14726,13 +14784,13 @@
         <v>69</v>
       </c>
       <c r="B381" s="11" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="C381" s="11" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="D381" s="11" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="E381" s="11" t="s">
         <v>250</v>
@@ -14752,13 +14810,13 @@
         <v>70</v>
       </c>
       <c r="B382" s="11" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="C382" s="11" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D382" s="11" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="E382" s="11" t="s">
         <v>250</v>
@@ -14778,13 +14836,13 @@
         <v>71</v>
       </c>
       <c r="B383" s="11" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="C383" s="11" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="D383" s="11" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="E383" s="11" t="s">
         <v>250</v>
@@ -14804,13 +14862,13 @@
         <v>72</v>
       </c>
       <c r="B384" s="11" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="C384" s="11" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D384" s="11" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="E384" s="11" t="s">
         <v>250</v>
@@ -14830,13 +14888,13 @@
         <v>73</v>
       </c>
       <c r="B385" s="11" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="C385" s="11" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D385" s="11" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="E385" s="11" t="s">
         <v>250</v>
@@ -14848,7 +14906,7 @@
         <v>0</v>
       </c>
       <c r="H385" s="11" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.3">
@@ -14856,13 +14914,13 @@
         <v>74</v>
       </c>
       <c r="B386" s="11" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="C386" s="11" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="D386" s="11" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E386" s="11" t="s">
         <v>250</v>
@@ -14874,7 +14932,7 @@
         <v>0</v>
       </c>
       <c r="H386" s="11" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.3">
@@ -14882,13 +14940,13 @@
         <v>75</v>
       </c>
       <c r="B387" s="11" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="C387" s="11" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="D387" s="11" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="E387" s="11" t="s">
         <v>250</v>
@@ -14900,7 +14958,7 @@
         <v>0</v>
       </c>
       <c r="H387" s="11" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.3">
@@ -14908,13 +14966,13 @@
         <v>76</v>
       </c>
       <c r="B388" s="11" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="C388" s="11" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D388" s="11" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="E388" s="11" t="s">
         <v>250</v>
@@ -14926,7 +14984,7 @@
         <v>0</v>
       </c>
       <c r="H388" s="11" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.3">
@@ -14934,13 +14992,13 @@
         <v>77</v>
       </c>
       <c r="B389" s="11" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="C389" s="11" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D389" s="11" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E389" s="11" t="s">
         <v>250</v>
@@ -14952,7 +15010,7 @@
         <v>0</v>
       </c>
       <c r="H389" s="11" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.3">
@@ -14960,13 +15018,13 @@
         <v>78</v>
       </c>
       <c r="B390" s="11" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="C390" s="11" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D390" s="11" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="E390" s="11" t="s">
         <v>250</v>
@@ -14978,7 +15036,7 @@
         <v>0</v>
       </c>
       <c r="H390" s="11" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.3">
@@ -14986,13 +15044,13 @@
         <v>79</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E391" s="1" t="s">
         <v>95</v>
@@ -15010,13 +15068,13 @@
         <v>80</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="E392" s="1" t="s">
         <v>95</v>
@@ -15031,12 +15089,12 @@
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B394" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A395" s="4" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="B395" s="4" t="s">
         <v>258</v>
@@ -15065,13 +15123,13 @@
         <v>1</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="E396" s="1" t="s">
         <v>95</v>
@@ -15083,7 +15141,7 @@
         <v>0</v>
       </c>
       <c r="H396" s="1" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.3">
@@ -15091,13 +15149,13 @@
         <v>2</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="E397" s="1" t="s">
         <v>95</v>
@@ -15109,7 +15167,7 @@
         <v>0</v>
       </c>
       <c r="H397" s="1" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.3">
@@ -15117,13 +15175,13 @@
         <v>3</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="E398" s="1" t="s">
         <v>95</v>
@@ -15135,7 +15193,7 @@
         <v>0</v>
       </c>
       <c r="H398" s="1" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.3">
@@ -15143,13 +15201,13 @@
         <v>4</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="E399" s="1" t="s">
         <v>95</v>
@@ -15161,7 +15219,7 @@
         <v>0</v>
       </c>
       <c r="H399" s="1" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.3">
@@ -15169,13 +15227,13 @@
         <v>5</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="E400" s="1" t="s">
         <v>95</v>
@@ -15187,7 +15245,7 @@
         <v>0</v>
       </c>
       <c r="H400" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.3">
@@ -15195,13 +15253,13 @@
         <v>6</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="E401" s="1" t="s">
         <v>95</v>
@@ -15213,7 +15271,7 @@
         <v>0</v>
       </c>
       <c r="H401" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.3">
@@ -15221,13 +15279,13 @@
         <v>7</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="E402" s="1" t="s">
         <v>95</v>
@@ -15239,7 +15297,7 @@
         <v>0</v>
       </c>
       <c r="H402" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.3">
@@ -15247,13 +15305,13 @@
         <v>8</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="E403" s="1" t="s">
         <v>95</v>
@@ -15265,7 +15323,7 @@
         <v>0</v>
       </c>
       <c r="H403" s="1" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.3">
@@ -15273,13 +15331,13 @@
         <v>9</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="E404" s="1" t="s">
         <v>95</v>
@@ -15291,7 +15349,7 @@
         <v>0</v>
       </c>
       <c r="H404" s="1" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.3">
@@ -15299,13 +15357,13 @@
         <v>10</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="E405" s="1" t="s">
         <v>95</v>
@@ -15317,7 +15375,7 @@
         <v>0</v>
       </c>
       <c r="H405" s="1" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.3">
@@ -15325,13 +15383,13 @@
         <v>11</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="E406" s="1" t="s">
         <v>95</v>
@@ -15343,7 +15401,7 @@
         <v>0</v>
       </c>
       <c r="H406" s="1" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.3">
@@ -15351,13 +15409,13 @@
         <v>12</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="E407" s="1" t="s">
         <v>95</v>
@@ -15369,7 +15427,7 @@
         <v>0</v>
       </c>
       <c r="H407" s="1" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.3">
@@ -15377,13 +15435,13 @@
         <v>13</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="E408" s="1" t="s">
         <v>95</v>
@@ -15395,7 +15453,7 @@
         <v>0</v>
       </c>
       <c r="H408" s="1" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.3">
@@ -15403,13 +15461,13 @@
         <v>14</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="E409" s="1" t="s">
         <v>95</v>
@@ -15421,7 +15479,7 @@
         <v>0</v>
       </c>
       <c r="H409" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.3">
@@ -15429,13 +15487,13 @@
         <v>15</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="E410" s="1" t="s">
         <v>95</v>
@@ -15447,7 +15505,7 @@
         <v>0</v>
       </c>
       <c r="H410" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.3">
@@ -15455,13 +15513,13 @@
         <v>16</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="E411" s="1" t="s">
         <v>95</v>
@@ -15473,7 +15531,7 @@
         <v>0</v>
       </c>
       <c r="H411" s="1" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.3">
@@ -15481,13 +15539,13 @@
         <v>17</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="E412" s="1" t="s">
         <v>95</v>
@@ -15499,7 +15557,7 @@
         <v>0</v>
       </c>
       <c r="H412" s="1" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.3">
@@ -15507,13 +15565,13 @@
         <v>18</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="E413" s="1" t="s">
         <v>95</v>
@@ -15525,7 +15583,7 @@
         <v>0</v>
       </c>
       <c r="H413" s="1" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.3">
@@ -15533,13 +15591,13 @@
         <v>19</v>
       </c>
       <c r="B414" s="11" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="C414" s="11" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D414" s="11" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="E414" s="11" t="s">
         <v>250</v>
@@ -15559,13 +15617,13 @@
         <v>20</v>
       </c>
       <c r="B415" s="11" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="C415" s="11" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="D415" s="11" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="E415" s="11" t="s">
         <v>250</v>
@@ -15585,13 +15643,13 @@
         <v>21</v>
       </c>
       <c r="B416" s="11" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="C416" s="11" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D416" s="11" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="E416" s="11" t="s">
         <v>250</v>
@@ -15611,13 +15669,13 @@
         <v>22</v>
       </c>
       <c r="B417" s="11" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C417" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="D417" s="11" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="E417" s="11" t="s">
         <v>250</v>
@@ -15637,13 +15695,13 @@
         <v>23</v>
       </c>
       <c r="B418" s="11" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="C418" s="11" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D418" s="11" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="E418" s="11" t="s">
         <v>250</v>
@@ -15663,13 +15721,13 @@
         <v>24</v>
       </c>
       <c r="B419" s="11" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="C419" s="11" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="D419" s="11" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E419" s="11" t="s">
         <v>250</v>
@@ -15689,13 +15747,13 @@
         <v>25</v>
       </c>
       <c r="B420" s="11" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="C420" s="11" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="D420" s="11" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="E420" s="11" t="s">
         <v>250</v>
@@ -15715,13 +15773,13 @@
         <v>26</v>
       </c>
       <c r="B421" s="11" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="C421" s="11" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="D421" s="11" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="E421" s="11" t="s">
         <v>250</v>
@@ -15741,13 +15799,13 @@
         <v>27</v>
       </c>
       <c r="B422" s="11" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="C422" s="11" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="D422" s="11" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="E422" s="11" t="s">
         <v>250</v>
@@ -15767,13 +15825,13 @@
         <v>28</v>
       </c>
       <c r="B423" s="11" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="C423" s="11" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="D423" s="11" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="E423" s="11" t="s">
         <v>250</v>
@@ -15793,13 +15851,13 @@
         <v>29</v>
       </c>
       <c r="B424" s="11" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="C424" s="11" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="D424" s="11" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="E424" s="11" t="s">
         <v>250</v>
@@ -15819,13 +15877,13 @@
         <v>30</v>
       </c>
       <c r="B425" s="11" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="C425" s="11" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="D425" s="11" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="E425" s="11" t="s">
         <v>250</v>
@@ -15842,12 +15900,12 @@
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B427" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A428" s="4" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="B428" s="4" t="s">
         <v>258</v>
@@ -15876,13 +15934,13 @@
         <v>1</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="E429" s="1" t="s">
         <v>95</v>
@@ -15902,13 +15960,13 @@
         <v>2</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="E430" s="1" t="s">
         <v>95</v>
@@ -15928,13 +15986,13 @@
         <v>3</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="E431" s="1" t="s">
         <v>95</v>
@@ -15954,13 +16012,13 @@
         <v>4</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="E432" s="1" t="s">
         <v>95</v>
@@ -15980,13 +16038,13 @@
         <v>5</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="E433" s="1" t="s">
         <v>95</v>
@@ -16006,13 +16064,13 @@
         <v>6</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="E434" s="1" t="s">
         <v>95</v>
@@ -16032,13 +16090,13 @@
         <v>7</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E435" s="1" t="s">
         <v>95</v>
@@ -16058,13 +16116,13 @@
         <v>8</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="E436" s="1" t="s">
         <v>250</v>
@@ -16084,13 +16142,13 @@
         <v>9</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="E437" s="1" t="s">
         <v>95</v>
@@ -16110,13 +16168,13 @@
         <v>10</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="E438" s="1" t="s">
         <v>250</v>

--- a/dataset_competition/META_DATA.xlsx
+++ b/dataset_competition/META_DATA.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="465" windowWidth="22380" windowHeight="14760" tabRatio="681"/>
+    <workbookView xWindow="2715" yWindow="465" windowWidth="22380" windowHeight="14760" tabRatio="681" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="테이블" sheetId="2" r:id="rId1"/>
     <sheet name="변수설명_글로벌변수10" sheetId="1" r:id="rId2"/>
     <sheet name="변수설명_글로벌변수5" sheetId="5" r:id="rId3"/>
     <sheet name="변수설명_이외변수" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="CN_INDEX">변수설명_이외변수!$B$176</definedName>
@@ -29,7 +30,7 @@
     <definedName name="OTHER_IDX">변수설명_이외변수!$B$427</definedName>
     <definedName name="US_IDX">변수설명_이외변수!$B$95</definedName>
   </definedNames>
-  <calcPr calcId="150001"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2657" uniqueCount="1143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3475" uniqueCount="1455">
   <si>
     <t>SPX</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3630,6 +3631,944 @@
   </si>
   <si>
     <t>2017.5.11.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>'G_IDX_CLOSE'</t>
+  </si>
+  <si>
+    <t>'G_IDX_HIGH'</t>
+  </si>
+  <si>
+    <t>'G_IDX_LOW'</t>
+  </si>
+  <si>
+    <t>'G_IDX_VOLUME'</t>
+  </si>
+  <si>
+    <t>'G_IDX_SIZE'</t>
+  </si>
+  <si>
+    <t>'G_IDX_EPS'</t>
+  </si>
+  <si>
+    <t>'G_IDX_PER'</t>
+  </si>
+  <si>
+    <t>'NORMAL_IDX'</t>
+  </si>
+  <si>
+    <t>'KR_INDEX'</t>
+  </si>
+  <si>
+    <t>'US_INDEX'</t>
+  </si>
+  <si>
+    <t>'CN_INDEX'</t>
+  </si>
+  <si>
+    <t>'DE_INDEX'</t>
+  </si>
+  <si>
+    <t>'JP_INDEX'</t>
+  </si>
+  <si>
+    <t>'MATERIALS'</t>
+  </si>
+  <si>
+    <t>'EXCHANGE'</t>
+  </si>
+  <si>
+    <t>'OTHER_IDX'</t>
+  </si>
+  <si>
+    <t>'TimeLog',</t>
+  </si>
+  <si>
+    <t>'SPX',</t>
+  </si>
+  <si>
+    <t>'SSEC',</t>
+  </si>
+  <si>
+    <t>'GDAXI',</t>
+  </si>
+  <si>
+    <t>'N225',</t>
+  </si>
+  <si>
+    <t>'KOSPI',</t>
+  </si>
+  <si>
+    <t>'FCHI',</t>
+  </si>
+  <si>
+    <t>'BVSP',</t>
+  </si>
+  <si>
+    <t>'BSE',</t>
+  </si>
+  <si>
+    <t>'RTS',</t>
+  </si>
+  <si>
+    <t>'VNI',</t>
+  </si>
+  <si>
+    <t>'bIXMLACWF',</t>
+  </si>
+  <si>
+    <t>'bIXMLWRLD',</t>
+  </si>
+  <si>
+    <t>'bIXMLEMKF',</t>
+  </si>
+  <si>
+    <t>'bIXMLEURO',</t>
+  </si>
+  <si>
+    <t>'bIXMLAAPF',</t>
+  </si>
+  <si>
+    <t>'bIXMLNAMR',</t>
+  </si>
+  <si>
+    <t>'bIXNRCN',</t>
+  </si>
+  <si>
+    <t>'bIXNRUSDW',</t>
+  </si>
+  <si>
+    <t>'bIXMLEROP',</t>
+  </si>
+  <si>
+    <t>'bIXNRUK',</t>
+  </si>
+  <si>
+    <t>'bIXMLPACF',</t>
+  </si>
+  <si>
+    <t>'bIXNRAU',</t>
+  </si>
+  <si>
+    <t>'bIXNRHKHS',</t>
+  </si>
+  <si>
+    <t>'bIXNRJPTP',</t>
+  </si>
+  <si>
+    <t>'bIXNRNZ',</t>
+  </si>
+  <si>
+    <t>'bIXNRSP',</t>
+  </si>
+  <si>
+    <t>'bIXMLEFLA',</t>
+  </si>
+  <si>
+    <t>'bIXNRAG',</t>
+  </si>
+  <si>
+    <t>'bIXNRCL',</t>
+  </si>
+  <si>
+    <t>'bIXNRMX',</t>
+  </si>
+  <si>
+    <t>'bIXMLEMEA',</t>
+  </si>
+  <si>
+    <t>'bIXNRSA',</t>
+  </si>
+  <si>
+    <t>'bIXNRTK',</t>
+  </si>
+  <si>
+    <t>'bIXMLEMFA',</t>
+  </si>
+  <si>
+    <t>'bIXNRKOKS',</t>
+  </si>
+  <si>
+    <t>'bIXNRID',</t>
+  </si>
+  <si>
+    <t>'bIXNRMY',</t>
+  </si>
+  <si>
+    <t>'bIXNRPH',</t>
+  </si>
+  <si>
+    <t>'bIXNRTW',</t>
+  </si>
+  <si>
+    <t>'bIXNRTH',</t>
+  </si>
+  <si>
+    <t>'arKOBSNFKP',</t>
+  </si>
+  <si>
+    <t>'acKOFINBXDD',</t>
+  </si>
+  <si>
+    <t>'aaKOCIOO',</t>
+  </si>
+  <si>
+    <t>'afKOCIHPP0',</t>
+  </si>
+  <si>
+    <t>'afKOCIHJP0',</t>
+  </si>
+  <si>
+    <t>'afKOCIAJR0',</t>
+  </si>
+  <si>
+    <t>'arKOCIBSBP',</t>
+  </si>
+  <si>
+    <t>'cCNNSKOPT',</t>
+  </si>
+  <si>
+    <t>'aoKOLWNUR',</t>
+  </si>
+  <si>
+    <t>'aaKOMBM2A',</t>
+  </si>
+  <si>
+    <t>'aaKOMBLFA',</t>
+  </si>
+  <si>
+    <t>'auKOMBRDB0',</t>
+  </si>
+  <si>
+    <t>'aaKOEIEX',</t>
+  </si>
+  <si>
+    <t>'aaKOEIIM',</t>
+  </si>
+  <si>
+    <t>'aaKOEIEXD',</t>
+  </si>
+  <si>
+    <t>'aaKOEIIMD',</t>
+  </si>
+  <si>
+    <t>'bKOSMDM_YoY',</t>
+  </si>
+  <si>
+    <t>'bKOSMDM',</t>
+  </si>
+  <si>
+    <t>'bKODYKS',</t>
+  </si>
+  <si>
+    <t>'bKOIVVK',</t>
+  </si>
+  <si>
+    <t>'arKOIRCR',</t>
+  </si>
+  <si>
+    <t>'arKOIRKSDACD',</t>
+  </si>
+  <si>
+    <t>'arKOIRKSDATB3',</t>
+  </si>
+  <si>
+    <t>'arKOIRKSDATB5',</t>
+  </si>
+  <si>
+    <t>'arKOIRKSDATB10',</t>
+  </si>
+  <si>
+    <t>'arKOIRKSDAMSB',</t>
+  </si>
+  <si>
+    <t>'arKOIRMSAAA3Y',</t>
+  </si>
+  <si>
+    <t>'arKOIRMFBAAA3Y',</t>
+  </si>
+  <si>
+    <t>'arKOIRMCPNAA33Y',</t>
+  </si>
+  <si>
+    <t>'arKOIRKSDATB5_YSR',</t>
+  </si>
+  <si>
+    <t>'arKOIRKSDATB10_YSR',</t>
+  </si>
+  <si>
+    <t>'arKOIRMSAAA3Y_YSR',</t>
+  </si>
+  <si>
+    <t>'arKOIRMFBAAA3Y_YSR',</t>
+  </si>
+  <si>
+    <t>'arKOIRMCPNAA33Y_YSR',</t>
+  </si>
+  <si>
+    <t>'ahKOPPDD',</t>
+  </si>
+  <si>
+    <t>'ahKOPPDD_YoY',</t>
+  </si>
+  <si>
+    <t>'cBKCFBLCL',</t>
+  </si>
+  <si>
+    <t>'aGLOCL6KOR',</t>
+  </si>
+  <si>
+    <t>'aKONA10RGDPGDP',</t>
+  </si>
+  <si>
+    <t>'aKONA10RGDPNA',</t>
+  </si>
+  <si>
+    <t>'aKONA10RGDPA',</t>
+  </si>
+  <si>
+    <t>'aKONA10RGDPC',</t>
+  </si>
+  <si>
+    <t>'aKONA10RGDPF',</t>
+  </si>
+  <si>
+    <t>'aKONA10RGDPS',</t>
+  </si>
+  <si>
+    <t>'aKONA10RGDPICT',</t>
+  </si>
+  <si>
+    <t>'aKONA10RGDPOICT',</t>
+  </si>
+  <si>
+    <t>'aKONA10RGDPPEI',</t>
+  </si>
+  <si>
+    <t>'aKONA10RGDPFI',</t>
+  </si>
+  <si>
+    <t>'aKONA10RGDPCC',</t>
+  </si>
+  <si>
+    <t>'aKONA10RGDPEG',</t>
+  </si>
+  <si>
+    <t>'aKONA10RGDPIG',</t>
+  </si>
+  <si>
+    <t>'aKONA10RGDPDDEI',</t>
+  </si>
+  <si>
+    <t>'aKONA10GRGNINGNI',</t>
+  </si>
+  <si>
+    <t>'aKONA10GRGNIRGNI',</t>
+  </si>
+  <si>
+    <t>'aKONA10GRGNIGDPDF',</t>
+  </si>
+  <si>
+    <t>'aKONA10GS',</t>
+  </si>
+  <si>
+    <t>'aKONA10GSGIR',</t>
+  </si>
+  <si>
+    <t>'Auscbld_YoY',</t>
+  </si>
+  <si>
+    <t>'agUSMAIPTOTP',</t>
+  </si>
+  <si>
+    <t>'aqUSMAIUTOT',</t>
+  </si>
+  <si>
+    <t>'aUSBSISMPUR',</t>
+  </si>
+  <si>
+    <t>'aqUSBSCHBB',</t>
+  </si>
+  <si>
+    <t>'aqUSBSPHIM',</t>
+  </si>
+  <si>
+    <t>'aqUSBSISNBA',</t>
+  </si>
+  <si>
+    <t>'aaUSMANOMDUR',</t>
+  </si>
+  <si>
+    <t>'aaUSMANOCPX',</t>
+  </si>
+  <si>
+    <t>'aqUSLWICUIC',</t>
+  </si>
+  <si>
+    <t>'aeUSLWECHNF',</t>
+  </si>
+  <si>
+    <t>'aeUSLWUR',</t>
+  </si>
+  <si>
+    <t>'aeUSPRCUSCONPRC',</t>
+  </si>
+  <si>
+    <t>'aeUSPRCXFDE',</t>
+  </si>
+  <si>
+    <t>'aeUSPRPFG',</t>
+  </si>
+  <si>
+    <t>'aaUSWRSRX',</t>
+  </si>
+  <si>
+    <t>'abUSCE',</t>
+  </si>
+  <si>
+    <t>'aeUSMBSARDI',</t>
+  </si>
+  <si>
+    <t>'ahUSCSUMS',</t>
+  </si>
+  <si>
+    <t>'aqUSCSCF',</t>
+  </si>
+  <si>
+    <t>'aUSIRFDTRGD',</t>
+  </si>
+  <si>
+    <t>'aaUSMBM2',</t>
+  </si>
+  <si>
+    <t>'aUSIRTCM10D',</t>
+  </si>
+  <si>
+    <t>'aUSIRFRM30W',</t>
+  </si>
+  <si>
+    <t>'aUSIRFRM15W',</t>
+  </si>
+  <si>
+    <t>'aUSCIMGAI',</t>
+  </si>
+  <si>
+    <t>'aUSCIMGAIP',</t>
+  </si>
+  <si>
+    <t>'apUSCISESH',</t>
+  </si>
+  <si>
+    <t>'aeUSCISHNO',</t>
+  </si>
+  <si>
+    <t>'aaUSCISEMP',</t>
+  </si>
+  <si>
+    <t>'aaUSCISNMP',</t>
+  </si>
+  <si>
+    <t>'aeUSCIPH',</t>
+  </si>
+  <si>
+    <t>'aeUSCISTPH',</t>
+  </si>
+  <si>
+    <t>'aUSCINAHBMI',</t>
+  </si>
+  <si>
+    <t>'bIXSP25HOM',</t>
+  </si>
+  <si>
+    <t>'afUSCIOFSP10',</t>
+  </si>
+  <si>
+    <t>'aaUSEITB',</t>
+  </si>
+  <si>
+    <t>'aUSBSISMNO',</t>
+  </si>
+  <si>
+    <t>'aUSBSISMIV',</t>
+  </si>
+  <si>
+    <t>'aUSMBCACI',</t>
+  </si>
+  <si>
+    <t>'aaUSMBCO',</t>
+  </si>
+  <si>
+    <t>'aaUSMBCORE',</t>
+  </si>
+  <si>
+    <t>'abUSPI',</t>
+  </si>
+  <si>
+    <t>'abUSPIWS',</t>
+  </si>
+  <si>
+    <t>'abUSPIDIC',</t>
+  </si>
+  <si>
+    <t>'adUSPIDIC',</t>
+  </si>
+  <si>
+    <t>'aqUSBSISNON',</t>
+  </si>
+  <si>
+    <t>'arUSBSISNIO',</t>
+  </si>
+  <si>
+    <t>'aUSCBLD',</t>
+  </si>
+  <si>
+    <t>'aUSCBLD1',</t>
+  </si>
+  <si>
+    <t>'aUSCBLD2',</t>
+  </si>
+  <si>
+    <t>'aUSCBLD3',</t>
+  </si>
+  <si>
+    <t>'aUSCBLD5',</t>
+  </si>
+  <si>
+    <t>'aUSCBLD6',</t>
+  </si>
+  <si>
+    <t>'aUSCBLD8',</t>
+  </si>
+  <si>
+    <t>'aUSCBLD9',</t>
+  </si>
+  <si>
+    <t>'aUSCBLD10',</t>
+  </si>
+  <si>
+    <t>'aUSCBCO',</t>
+  </si>
+  <si>
+    <t>'aUSCBCO1',</t>
+  </si>
+  <si>
+    <t>'aUSCBCO2',</t>
+  </si>
+  <si>
+    <t>'aUSCBCO3',</t>
+  </si>
+  <si>
+    <t>'aUSCBCO4',</t>
+  </si>
+  <si>
+    <t>'aUSBSISMEM',</t>
+  </si>
+  <si>
+    <t>'aUSBSISMIM',</t>
+  </si>
+  <si>
+    <t>'aUSBSISMEO',</t>
+  </si>
+  <si>
+    <t>'aUSBSISMCP',</t>
+  </si>
+  <si>
+    <t>'aUSBSISMPR',</t>
+  </si>
+  <si>
+    <t>'aUSBSISMDL',</t>
+  </si>
+  <si>
+    <t>'aUSBSISMBO',</t>
+  </si>
+  <si>
+    <t>'aUSBSISMCI',</t>
+  </si>
+  <si>
+    <t>'bUSTIVIXPCMW',</t>
+  </si>
+  <si>
+    <t>'bUSTICBOEPCR',</t>
+  </si>
+  <si>
+    <t>'aUSIRMAAA1020D',</t>
+  </si>
+  <si>
+    <t>'aUSIRMBAA1020D',</t>
+  </si>
+  <si>
+    <t>'aGLOCL6CHN',</t>
+  </si>
+  <si>
+    <t>'aCHCBLD',</t>
+  </si>
+  <si>
+    <t>'apCHMAIP',</t>
+  </si>
+  <si>
+    <t>'aaCHWRRTT',</t>
+  </si>
+  <si>
+    <t>'aCHMBLFL',</t>
+  </si>
+  <si>
+    <t>'aCHPRCPI',</t>
+  </si>
+  <si>
+    <t>'aCHPRCPICR',</t>
+  </si>
+  <si>
+    <t>'aCHPRPPI',</t>
+  </si>
+  <si>
+    <t>'apCHMBM2YOY',</t>
+  </si>
+  <si>
+    <t>'aCHIRHSDT1Y',</t>
+  </si>
+  <si>
+    <t>'aCHMBRRR',</t>
+  </si>
+  <si>
+    <t>'aaCHEIEXM',</t>
+  </si>
+  <si>
+    <t>'aaCHEIIMM',</t>
+  </si>
+  <si>
+    <t>'aaCHEITBM',</t>
+  </si>
+  <si>
+    <t>'aaCHFIFDIUT',</t>
+  </si>
+  <si>
+    <t>'aCHNAGDYT',</t>
+  </si>
+  <si>
+    <t>'aaCHFIET',</t>
+  </si>
+  <si>
+    <t>'aCHBSPM',</t>
+  </si>
+  <si>
+    <t>'aCHMBM1GR',</t>
+  </si>
+  <si>
+    <t>'aCHCIRECI',</t>
+  </si>
+  <si>
+    <t>'aaCHCIRIYNI',</t>
+  </si>
+  <si>
+    <t>'aaCHBPCAC',</t>
+  </si>
+  <si>
+    <t>'aaCHBPCADE',</t>
+  </si>
+  <si>
+    <t>'aaCHBPG',</t>
+  </si>
+  <si>
+    <t>'aaCHBPGEX',</t>
+  </si>
+  <si>
+    <t>'aaCHBPGIM',</t>
+  </si>
+  <si>
+    <t>'aaCHBPDIA',</t>
+  </si>
+  <si>
+    <t>'aaCHBPDIL',</t>
+  </si>
+  <si>
+    <t>'aCHEIEX',</t>
+  </si>
+  <si>
+    <t>'aCHEIIM',</t>
+  </si>
+  <si>
+    <t>'aCHPREX',</t>
+  </si>
+  <si>
+    <t>'aCHPRIM',</t>
+  </si>
+  <si>
+    <t>'aCHPRTT',</t>
+  </si>
+  <si>
+    <t>'aCHLWUEMP',</t>
+  </si>
+  <si>
+    <t>'aCHCBCO',</t>
+  </si>
+  <si>
+    <t>'aCHCBLG',</t>
+  </si>
+  <si>
+    <t>'aCHCBSG',</t>
+  </si>
+  <si>
+    <t>'aCHBSBSIT',</t>
+  </si>
+  <si>
+    <t>'aCHCSCI',</t>
+  </si>
+  <si>
+    <t>'aCHCSSI',</t>
+  </si>
+  <si>
+    <t>'aCHCSEI',</t>
+  </si>
+  <si>
+    <t>'aCHMBRA',</t>
+  </si>
+  <si>
+    <t>'aaCHMBM1',</t>
+  </si>
+  <si>
+    <t>'aaCHMBM2',</t>
+  </si>
+  <si>
+    <t>'aaCHMBM3',</t>
+  </si>
+  <si>
+    <t>'aCHMBM2GR',</t>
+  </si>
+  <si>
+    <t>'aCHIRDR',</t>
+  </si>
+  <si>
+    <t>'aCHIRIBO7D',</t>
+  </si>
+  <si>
+    <t>'aaCHFXFRM',</t>
+  </si>
+  <si>
+    <t>'aCHFXRUS',</t>
+  </si>
+  <si>
+    <t>'apCHEGCNT',</t>
+  </si>
+  <si>
+    <t>'aCHEGSCCO',</t>
+  </si>
+  <si>
+    <t>'cpAMSACHT',</t>
+  </si>
+  <si>
+    <t>'cpAMSACHCAR',</t>
+  </si>
+  <si>
+    <t>'agBDMANOT',</t>
+  </si>
+  <si>
+    <t>'agBDCIOCT',</t>
+  </si>
+  <si>
+    <t>'ahBDMAHS',</t>
+  </si>
+  <si>
+    <t>'aBDMANRC',</t>
+  </si>
+  <si>
+    <t>'abBDCE',</t>
+  </si>
+  <si>
+    <t>'aaBDBPCA',</t>
+  </si>
+  <si>
+    <t>'aaBDBPG',</t>
+  </si>
+  <si>
+    <t>'aaBDBPS',</t>
+  </si>
+  <si>
+    <t>'aaBDBPI',</t>
+  </si>
+  <si>
+    <t>'aaBDEIEX',</t>
+  </si>
+  <si>
+    <t>'aaBDEIIM',</t>
+  </si>
+  <si>
+    <t>'aaBDEITB',</t>
+  </si>
+  <si>
+    <t>'afBDPRC',</t>
+  </si>
+  <si>
+    <t>'afBDPRCN',</t>
+  </si>
+  <si>
+    <t>'afBDPRCCO',</t>
+  </si>
+  <si>
+    <t>'afBDPRP',</t>
+  </si>
+  <si>
+    <t>'afBDPREX',</t>
+  </si>
+  <si>
+    <t>'afBDPRIM',</t>
+  </si>
+  <si>
+    <t>'apBDLWUEM',</t>
+  </si>
+  <si>
+    <t>'aBDLWJV',</t>
+  </si>
+  <si>
+    <t>'arBDLWUR',</t>
+  </si>
+  <si>
+    <t>'afBDLWWI',</t>
+  </si>
+  <si>
+    <t>'aBDFXDEM',</t>
+  </si>
+  <si>
+    <t>'aaBDFXFR',</t>
+  </si>
+  <si>
+    <t>'aqBDBSIFOI',</t>
+  </si>
+  <si>
+    <t>'aqBDBSIFOP',</t>
+  </si>
+  <si>
+    <t>'aqBDBSIFOR',</t>
+  </si>
+  <si>
+    <t>'arBDBSZEWRE',</t>
+  </si>
+  <si>
+    <t>'arBDBSZEWRB',</t>
+  </si>
+  <si>
+    <t>'arBDBSZEWPE',</t>
+  </si>
+  <si>
+    <t>'arBDBSZEWPB',</t>
+  </si>
+  <si>
+    <t>'aqBDCSCC',</t>
+  </si>
+  <si>
+    <t>'aGLIRPCEU',</t>
+  </si>
+  <si>
+    <t>'aGLOCL6DEU',</t>
+  </si>
+  <si>
+    <t>'afJPMAAL',</t>
+  </si>
+  <si>
+    <t>'agJPMAORM',</t>
+  </si>
+  <si>
+    <t>'ahJPMANRC',</t>
+  </si>
+  <si>
+    <t>'afJPCIST',</t>
+  </si>
+  <si>
+    <t>'afJPCISAT',</t>
+  </si>
+  <si>
+    <t>'afJPCISAON',</t>
+  </si>
+  <si>
+    <t>'afJPCISART',</t>
+  </si>
+  <si>
+    <t>'aaJPBPCA',</t>
+  </si>
+  <si>
+    <t>'aaJPBPG',</t>
+  </si>
+  <si>
+    <t>'aaJPEIEX',</t>
+  </si>
+  <si>
+    <t>'aaJPEIIM',</t>
+  </si>
+  <si>
+    <t>'afJPTINTT',</t>
+  </si>
+  <si>
+    <t>'afJPPRCNT',</t>
+  </si>
+  <si>
+    <t>'aJPCBLD',</t>
+  </si>
+  <si>
+    <t>'aJPCBCO',</t>
+  </si>
+  <si>
+    <t>'aJPCBLG',</t>
+  </si>
+  <si>
+    <t>'aJPCS',</t>
+  </si>
+  <si>
+    <t>'aJPBSTKA',</t>
+  </si>
+  <si>
+    <t>'aJPBSTKAM',</t>
+  </si>
+  <si>
+    <t>'aJPBSTKAMS',</t>
+  </si>
+  <si>
+    <t>'aJPBSTKANM',</t>
+  </si>
+  <si>
+    <t>'aJPBSTKANML',</t>
+  </si>
+  <si>
+    <t>'aJPBSTKF',</t>
+  </si>
+  <si>
+    <t>'aJPBSTKFM',</t>
+  </si>
+  <si>
+    <t>'aJPBSTKFNM',</t>
+  </si>
+  <si>
+    <t>'aaJPMBM1',</t>
+  </si>
+  <si>
+    <t>'aaJPMBM2',</t>
+  </si>
+  <si>
+    <t>'arJPFXER',</t>
+  </si>
+  <si>
+    <t>'aaJPPFSDQ',</t>
+  </si>
+  <si>
+    <t>'aaJPFSAIA',</t>
+  </si>
+  <si>
+    <t>'aGLIRPCJP',</t>
+  </si>
+  <si>
+    <t>'aGLOCL6JPN',</t>
+  </si>
+  <si>
+    <t>'aJPCBLD_YoY',</t>
+  </si>
+  <si>
+    <t>http://www.kitco.com/charts/historicalgold.html</t>
+  </si>
+  <si>
+    <t>aGLFUGC1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aGLRMLMEX</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4280,7 +5219,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4340,6 +5279,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="56">
@@ -4678,7 +5620,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5002,7 +5946,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5189,10 +6133,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H438"/>
+  <dimension ref="A1:J438"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B427" sqref="B427"/>
+    <sheetView tabSelected="1" topLeftCell="A313" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B321" sqref="B321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5204,6 +6148,7 @@
     <col min="6" max="6" width="14.125" customWidth="1"/>
     <col min="7" max="7" width="10.875" customWidth="1"/>
     <col min="8" max="8" width="16.375" customWidth="1"/>
+    <col min="9" max="9" width="3.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -13219,12 +14164,12 @@
         <v>954</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>9</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>919</v>
+        <v>1454</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>857</v>
@@ -13245,33 +14190,36 @@
         <v>252</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A322" s="1">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A322" s="14">
         <v>10</v>
       </c>
-      <c r="B322" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="C322" s="1" t="s">
+      <c r="B322" s="14" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C322" s="15" t="s">
         <v>858</v>
       </c>
-      <c r="D322" s="1" t="s">
+      <c r="D322" s="15" t="s">
         <v>859</v>
       </c>
-      <c r="E322" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F322" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G322" s="1">
-        <v>0</v>
-      </c>
-      <c r="H322" s="1" t="s">
+      <c r="E322" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F322" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G322" s="15">
+        <v>0</v>
+      </c>
+      <c r="H322" s="15" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J322" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>11</v>
       </c>
@@ -13297,7 +14245,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>12</v>
       </c>
@@ -13323,7 +14271,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>13</v>
       </c>
@@ -13349,7 +14297,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>14</v>
       </c>
@@ -13375,7 +14323,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>15</v>
       </c>
@@ -13401,7 +14349,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>16</v>
       </c>
@@ -13427,7 +14375,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>17</v>
       </c>
@@ -13453,7 +14401,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>18</v>
       </c>
@@ -13479,7 +14427,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>19</v>
       </c>
@@ -13505,7 +14453,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>20</v>
       </c>
@@ -13531,7 +14479,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>21</v>
       </c>
@@ -13557,7 +14505,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>22</v>
       </c>
@@ -13583,7 +14531,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>23</v>
       </c>
@@ -13609,7 +14557,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>24</v>
       </c>
@@ -16187,6 +17135,4662 @@
       </c>
       <c r="H438" s="1" t="s">
         <v>249</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AQ79"/>
+  <sheetViews>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AQ3" sqref="AQ3:AQ12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="str">
+        <f>CONCATENATE("'",A1,"'")</f>
+        <v>'G_IDX_CLOSE'</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="str">
+        <f>CONCATENATE("'",E1,"',")</f>
+        <v>'TimeLog',</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="str">
+        <f>CONCATENATE("'",I1,"',")</f>
+        <v>'bIXMLACWF',</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" t="str">
+        <f>CONCATENATE("'",M1,"',")</f>
+        <v>'arKOBSNFKP',</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="R1" t="str">
+        <f>CONCATENATE("'",Q1,"',")</f>
+        <v>'Auscbld_YoY',</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="V1" t="str">
+        <f>CONCATENATE("'",U1,"',")</f>
+        <v>'aGLOCL6CHN',</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="Z1" t="str">
+        <f>CONCATENATE("'",Y1,"',")</f>
+        <v>'agBDMANOT',</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="AD1" t="str">
+        <f>CONCATENATE("'",AC1,"',")</f>
+        <v>'afJPMAAL',</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="AH1" t="str">
+        <f>CONCATENATE("'",AG1,"',")</f>
+        <v>'aGLEGOFWTI',</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="AK1" t="str">
+        <f>CONCATENATE("'",AJ1,"',")</f>
+        <v>'aGLEGOFWTI',</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="AN1" t="str">
+        <f>CONCATENATE("'",AM1,"',")</f>
+        <v>'arKOFXUSDD',</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B16" si="0">CONCATENATE("'",A2,"'")</f>
+        <v>'G_IDX_HIGH'</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F11" si="1">CONCATENATE("'",E2,"',")</f>
+        <v>'SPX',</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" ref="J2:J30" si="2">CONCATENATE("'",I2,"',")</f>
+        <v>'bIXMLWRLD',</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N2" t="str">
+        <f t="shared" ref="N2:N57" si="3">CONCATENATE("'",M2,"',")</f>
+        <v>'acKOFINBXDD',</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="R2" t="str">
+        <f t="shared" ref="R2:R65" si="4">CONCATENATE("'",Q2,"',")</f>
+        <v>'agUSMAIPTOTP',</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="V2" t="str">
+        <f t="shared" ref="V2:V55" si="5">CONCATENATE("'",U2,"',")</f>
+        <v>'aCHCBLD',</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="Z2" t="str">
+        <f t="shared" ref="Z2:Z34" si="6">CONCATENATE("'",Y2,"',")</f>
+        <v>'agBDCIOCT',</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="AD2" t="str">
+        <f t="shared" ref="AD2:AD33" si="7">CONCATENATE("'",AC2,"',")</f>
+        <v>'agJPMAORM',</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="AH2" t="str">
+        <f t="shared" ref="AH2:AH65" si="8">CONCATENATE("'",AG2,"',")</f>
+        <v>'aGLEGOFBRT',</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="AK2" t="str">
+        <f t="shared" ref="AK2:AK65" si="9">CONCATENATE("'",AJ2,"',")</f>
+        <v>'aGLEGOFBRT',</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="AN2" t="str">
+        <f t="shared" ref="AN2:AN30" si="10">CONCATENATE("'",AM2,"',")</f>
+        <v>'arKOFXJPYD',</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>'G_IDX_LOW'</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="1"/>
+        <v>'SSEC',</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="2"/>
+        <v>'bIXMLEMKF',</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" si="3"/>
+        <v>'aaKOCIOO',</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="R3" t="str">
+        <f t="shared" si="4"/>
+        <v>'aqUSMAIUTOT',</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="V3" t="str">
+        <f t="shared" si="5"/>
+        <v>'apCHMAIP',</v>
+      </c>
+      <c r="W3" t="s">
+        <v>1333</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="Z3" t="str">
+        <f t="shared" si="6"/>
+        <v>'ahBDMAHS',</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="AD3" t="str">
+        <f t="shared" si="7"/>
+        <v>'ahJPMANRC',</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="AH3" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLFUNG1',</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="AK3" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLFUNG1',</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="AN3" t="str">
+        <f t="shared" si="10"/>
+        <v>'arKOFXEURD',</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="AQ3" t="str">
+        <f t="shared" ref="AQ3:AQ12" si="11">CONCATENATE("'",AP3,"',")</f>
+        <v>'aGLOCL6OTO',</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>'G_IDX_VOLUME'</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>'GDAXI',</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="2"/>
+        <v>'bIXMLEURO',</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="3"/>
+        <v>'afKOCIHPP0',</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" si="4"/>
+        <v>'aUSBSISMPUR',</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1260</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="V4" t="str">
+        <f t="shared" si="5"/>
+        <v>'aaCHWRRTT',</v>
+      </c>
+      <c r="W4" t="s">
+        <v>1334</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="Z4" t="str">
+        <f t="shared" si="6"/>
+        <v>'aBDMANRC',</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>1388</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="AD4" t="str">
+        <f t="shared" si="7"/>
+        <v>'afJPCIST',</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>1422</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="AH4" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLFUXB1',</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="AK4" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLFUXB1',</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="AN4" t="str">
+        <f t="shared" si="10"/>
+        <v>'arKOFXJPDD',</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="AQ4" t="str">
+        <f t="shared" si="11"/>
+        <v>'aGLOCL6OEU',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>'G_IDX_SIZE'</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>'N225',</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1163</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="2"/>
+        <v>'bIXMLAAPF',</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1174</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="3"/>
+        <v>'afKOCIHJP0',</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1204</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="4"/>
+        <v>'aqUSBSCHBB',</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1261</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="V5" t="str">
+        <f t="shared" si="5"/>
+        <v>'aCHMBLFL',</v>
+      </c>
+      <c r="W5" t="s">
+        <v>1335</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="Z5" t="str">
+        <f t="shared" si="6"/>
+        <v>'abBDCE',</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>1389</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="AD5" t="str">
+        <f t="shared" si="7"/>
+        <v>'afJPCISAT',</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>1423</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="AH5" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLFUHO1',</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="AK5" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLFUHO1',</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="AN5" t="str">
+        <f t="shared" si="10"/>
+        <v>'arKOFXDERD',</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="AQ5" t="str">
+        <f t="shared" si="11"/>
+        <v>'aGLOCL6ONM',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>'G_IDX_EPS'</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>'KOSPI',</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1164</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="2"/>
+        <v>'bIXMLNAMR',</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1175</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="3"/>
+        <v>'afKOCIAJR0',</v>
+      </c>
+      <c r="O6" t="s">
+        <v>1205</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="4"/>
+        <v>'aqUSBSPHIM',</v>
+      </c>
+      <c r="S6" t="s">
+        <v>1262</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="V6" t="str">
+        <f t="shared" si="5"/>
+        <v>'aCHPRCPI',</v>
+      </c>
+      <c r="W6" t="s">
+        <v>1336</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="Z6" t="str">
+        <f t="shared" si="6"/>
+        <v>'aaBDBPCA',</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>1390</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="AD6" t="str">
+        <f t="shared" si="7"/>
+        <v>'afJPCISAON',</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>1424</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="AH6" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLRMLED3M',</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="AK6" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLRMLED3M',</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="AN6" t="str">
+        <f t="shared" si="10"/>
+        <v>'arKOFXDUKD',</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="AQ6" t="str">
+        <f t="shared" si="11"/>
+        <v>'aGLOCL6GBR',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>'G_IDX_PER'</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>'FCHI',</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="2"/>
+        <v>'bIXNRCN',</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1176</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="3"/>
+        <v>'arKOCIBSBP',</v>
+      </c>
+      <c r="O7" t="s">
+        <v>1206</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>1079</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="4"/>
+        <v>'aqUSBSISNBA',</v>
+      </c>
+      <c r="S7" t="s">
+        <v>1263</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="V7" t="str">
+        <f t="shared" si="5"/>
+        <v>'aCHPRCPICR',</v>
+      </c>
+      <c r="W7" t="s">
+        <v>1337</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="Z7" t="str">
+        <f t="shared" si="6"/>
+        <v>'aaBDBPG',</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>1391</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="AD7" t="str">
+        <f t="shared" si="7"/>
+        <v>'afJPCISART',</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>1425</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="AH7" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLRMLTI3M',</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="AK7" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLRMLTI3M',</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="AN7" t="str">
+        <f t="shared" si="10"/>
+        <v>'arKOFXDAUD',</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="AQ7" t="str">
+        <f t="shared" si="11"/>
+        <v>'aGLOCL6FRA',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>'NORMAL_IDX'</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>'BVSP',</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1166</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="2"/>
+        <v>'bIXNRUSDW',</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1177</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="3"/>
+        <v>'cCNNSKOPT',</v>
+      </c>
+      <c r="O8" t="s">
+        <v>1207</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" si="4"/>
+        <v>'aaUSMANOMDUR',</v>
+      </c>
+      <c r="S8" t="s">
+        <v>1264</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="V8" t="str">
+        <f t="shared" si="5"/>
+        <v>'aCHPRPPI',</v>
+      </c>
+      <c r="W8" t="s">
+        <v>1338</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="Z8" t="str">
+        <f t="shared" si="6"/>
+        <v>'aaBDBPS',</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>1392</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="AD8" t="str">
+        <f t="shared" si="7"/>
+        <v>'aaJPBPCA',</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>1426</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="AH8" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLRMLZZ3M',</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="AK8" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLRMLZZ3M',</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="AN8" t="str">
+        <f t="shared" si="10"/>
+        <v>'arKOFXCNDD',</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="AQ8" t="str">
+        <f t="shared" si="11"/>
+        <v>'aGLOCL6AUS',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>'KR_INDEX'</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>'BSE',</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1167</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="2"/>
+        <v>'bIXMLEROP',</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1178</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="3"/>
+        <v>'aoKOLWNUR',</v>
+      </c>
+      <c r="O9" t="s">
+        <v>1208</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="4"/>
+        <v>'aaUSMANOCPX',</v>
+      </c>
+      <c r="S9" t="s">
+        <v>1265</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="V9" t="str">
+        <f t="shared" si="5"/>
+        <v>'apCHMBM2YOY',</v>
+      </c>
+      <c r="W9" t="s">
+        <v>1339</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="Z9" t="str">
+        <f t="shared" si="6"/>
+        <v>'aaBDBPI',</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>1393</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="AD9" t="str">
+        <f t="shared" si="7"/>
+        <v>'aaJPBPG',</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>1427</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="AH9" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLRMLMEX',</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="AK9" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLRMLMEX',</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="AN9" t="str">
+        <f t="shared" si="10"/>
+        <v>'arKOFXSWDD',</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="AQ9" t="str">
+        <f t="shared" si="11"/>
+        <v>'aGLOCL6MEX',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>'US_INDEX'</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>'RTS',</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1168</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="2"/>
+        <v>'bIXNRUK',</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1179</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="3"/>
+        <v>'aaKOMBM2A',</v>
+      </c>
+      <c r="O10" t="s">
+        <v>1209</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="4"/>
+        <v>'aqUSLWICUIC',</v>
+      </c>
+      <c r="S10" t="s">
+        <v>1266</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="V10" t="str">
+        <f t="shared" si="5"/>
+        <v>'aCHIRHSDT1Y',</v>
+      </c>
+      <c r="W10" t="s">
+        <v>1340</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="Z10" t="str">
+        <f t="shared" si="6"/>
+        <v>'aaBDEIEX',</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>1394</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="AD10" t="str">
+        <f t="shared" si="7"/>
+        <v>'aaJPEIEX',</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>1428</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="AH10" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLFUGC1',</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="AK10" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLFUSI1',</v>
+      </c>
+      <c r="AM10" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="AN10" t="str">
+        <f t="shared" si="10"/>
+        <v>'arKOFXHKDD',</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="AQ10" t="str">
+        <f t="shared" si="11"/>
+        <v>'aTWCBLD',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>'CN_INDEX'</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>'VNI',</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1169</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="2"/>
+        <v>'bIXMLPACF',</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1180</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="3"/>
+        <v>'aaKOMBLFA',</v>
+      </c>
+      <c r="O11" t="s">
+        <v>1210</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="4"/>
+        <v>'aeUSLWECHNF',</v>
+      </c>
+      <c r="S11" t="s">
+        <v>1267</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="V11" t="str">
+        <f t="shared" si="5"/>
+        <v>'aCHMBRRR',</v>
+      </c>
+      <c r="W11" t="s">
+        <v>1341</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="Z11" t="str">
+        <f t="shared" si="6"/>
+        <v>'aaBDEIIM',</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>1395</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="AD11" t="str">
+        <f t="shared" si="7"/>
+        <v>'aaJPEIIM',</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>1429</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="AH11" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLFUSI1',</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="AK11" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLFUW1',</v>
+      </c>
+      <c r="AM11" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="AN11" t="str">
+        <f t="shared" si="10"/>
+        <v>'arKOFXTHDD',</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="AQ11" t="str">
+        <f t="shared" si="11"/>
+        <v>'aGLOCL6IDN',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>'DE_INDEX'</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1154</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="2"/>
+        <v>'bIXNRAU',</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1181</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="3"/>
+        <v>'auKOMBRDB0',</v>
+      </c>
+      <c r="O12" t="s">
+        <v>1211</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="4"/>
+        <v>'aeUSLWUR',</v>
+      </c>
+      <c r="S12" t="s">
+        <v>1268</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="V12" t="str">
+        <f t="shared" si="5"/>
+        <v>'aaCHEIEXM',</v>
+      </c>
+      <c r="W12" t="s">
+        <v>1342</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="Z12" t="str">
+        <f t="shared" si="6"/>
+        <v>'aaBDEITB',</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>1396</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="AD12" t="str">
+        <f t="shared" si="7"/>
+        <v>'afJPTINTT',</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>1430</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="AH12" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLFUW1',</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="AK12" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLFUC1',</v>
+      </c>
+      <c r="AM12" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="AN12" t="str">
+        <f t="shared" si="10"/>
+        <v>'arKOFXINDD',</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="AQ12" t="str">
+        <f t="shared" si="11"/>
+        <v>'aTHCBLD',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>'JP_INDEX'</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1155</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="2"/>
+        <v>'bIXNRHKHS',</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1182</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="3"/>
+        <v>'aaKOEIEX',</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1212</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" si="4"/>
+        <v>'aeUSPRCUSCONPRC',</v>
+      </c>
+      <c r="S13" t="s">
+        <v>1269</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="V13" t="str">
+        <f t="shared" si="5"/>
+        <v>'aaCHEIIMM',</v>
+      </c>
+      <c r="W13" t="s">
+        <v>1343</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Z13" t="str">
+        <f t="shared" si="6"/>
+        <v>'afBDPRC',</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>1397</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="AD13" t="str">
+        <f t="shared" si="7"/>
+        <v>'afJPPRCNT',</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>1431</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="AH13" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLFUC1',</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="AK13" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLFUS1',</v>
+      </c>
+      <c r="AM13" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="AN13" t="str">
+        <f t="shared" si="10"/>
+        <v>'afUSFXMCN',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>'MATERIALS'</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1156</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="2"/>
+        <v>'bIXNRJPTP',</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1183</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="3"/>
+        <v>'aaKOEIIM',</v>
+      </c>
+      <c r="O14" t="s">
+        <v>1213</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="R14" t="str">
+        <f t="shared" si="4"/>
+        <v>'aeUSPRCXFDE',</v>
+      </c>
+      <c r="S14" t="s">
+        <v>1270</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="V14" t="str">
+        <f t="shared" si="5"/>
+        <v>'aaCHEITBM',</v>
+      </c>
+      <c r="W14" t="s">
+        <v>1344</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="Z14" t="str">
+        <f t="shared" si="6"/>
+        <v>'afBDPRCN',</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>1398</v>
+      </c>
+      <c r="AC14" s="11" t="s">
+        <v>778</v>
+      </c>
+      <c r="AD14" t="str">
+        <f t="shared" si="7"/>
+        <v>'aJPCBLD',</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>1432</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="AH14" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLFUS1',</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="AK14" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLRMRR1',</v>
+      </c>
+      <c r="AM14" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="AN14" t="str">
+        <f t="shared" si="10"/>
+        <v>'afUSFXBRI',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>'EXCHANGE'</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1157</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="2"/>
+        <v>'bIXNRNZ',</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1184</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="3"/>
+        <v>'aaKOEIEXD',</v>
+      </c>
+      <c r="O15" t="s">
+        <v>1214</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="4"/>
+        <v>'aeUSPRPFG',</v>
+      </c>
+      <c r="S15" t="s">
+        <v>1271</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="V15" t="str">
+        <f t="shared" si="5"/>
+        <v>'aaCHFIFDIUT',</v>
+      </c>
+      <c r="W15" t="s">
+        <v>1345</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="Z15" t="str">
+        <f t="shared" si="6"/>
+        <v>'afBDPRCCO',</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>1399</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="AD15" t="str">
+        <f t="shared" si="7"/>
+        <v>'aJPCBCO',</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>1433</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="AH15" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLRMRR1',</v>
+      </c>
+      <c r="AJ15" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="AK15" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLFUSB1',</v>
+      </c>
+      <c r="AM15" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="AN15" t="str">
+        <f t="shared" si="10"/>
+        <v>'afUSFXOTN',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>'OTHER_IDX'</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>1158</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="2"/>
+        <v>'bIXNRSP',</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1185</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="3"/>
+        <v>'aaKOEIIMD',</v>
+      </c>
+      <c r="O16" t="s">
+        <v>1215</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="R16" t="str">
+        <f t="shared" si="4"/>
+        <v>'aaUSWRSRX',</v>
+      </c>
+      <c r="S16" t="s">
+        <v>1272</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="V16" t="str">
+        <f t="shared" si="5"/>
+        <v>'aCHNAGDYT',</v>
+      </c>
+      <c r="W16" t="s">
+        <v>1346</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="Z16" t="str">
+        <f t="shared" si="6"/>
+        <v>'afBDPRP',</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>1400</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="AD16" t="str">
+        <f t="shared" si="7"/>
+        <v>'aJPCBLG',</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>1434</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="AH16" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLFUSB1',</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="AK16" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLFUKC1',</v>
+      </c>
+      <c r="AM16" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="AN16" t="str">
+        <f t="shared" si="10"/>
+        <v>'afUSFXMCRR',</v>
+      </c>
+    </row>
+    <row r="17" spans="9:40" x14ac:dyDescent="0.3">
+      <c r="I17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="2"/>
+        <v>'bIXMLEFLA',</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1186</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="3"/>
+        <v>'bKOSMDM_YoY',</v>
+      </c>
+      <c r="O17" t="s">
+        <v>1216</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" si="4"/>
+        <v>'abUSCE',</v>
+      </c>
+      <c r="S17" t="s">
+        <v>1273</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="V17" t="str">
+        <f t="shared" si="5"/>
+        <v>'aaCHFIET',</v>
+      </c>
+      <c r="W17" t="s">
+        <v>1347</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z17" t="str">
+        <f t="shared" si="6"/>
+        <v>'afBDPREX',</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>1401</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="AD17" t="str">
+        <f t="shared" si="7"/>
+        <v>'aJPCS',</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>1435</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="AH17" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLFUKC1',</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="AK17" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLFUJO1',</v>
+      </c>
+      <c r="AM17" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="AN17" t="str">
+        <f t="shared" si="10"/>
+        <v>'afUSFXBRIR',</v>
+      </c>
+    </row>
+    <row r="18" spans="9:40" x14ac:dyDescent="0.3">
+      <c r="I18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="2"/>
+        <v>'bIXNRAG',</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1187</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="3"/>
+        <v>'bKOSMDM',</v>
+      </c>
+      <c r="O18" t="s">
+        <v>1217</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="R18" t="str">
+        <f t="shared" si="4"/>
+        <v>'aeUSMBSARDI',</v>
+      </c>
+      <c r="S18" t="s">
+        <v>1274</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="V18" t="str">
+        <f t="shared" si="5"/>
+        <v>'aCHBSPM',</v>
+      </c>
+      <c r="W18" t="s">
+        <v>1348</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="Z18" t="str">
+        <f t="shared" si="6"/>
+        <v>'afBDPRIM',</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>1402</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="AD18" t="str">
+        <f t="shared" si="7"/>
+        <v>'aJPBSTKA',</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>1436</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="AH18" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLFUJO1',</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="AK18" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLFULH1',</v>
+      </c>
+      <c r="AM18" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="AN18" t="str">
+        <f t="shared" si="10"/>
+        <v>'afUSFXOTRR',</v>
+      </c>
+    </row>
+    <row r="19" spans="9:40" x14ac:dyDescent="0.3">
+      <c r="I19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="2"/>
+        <v>'bIXNRCL',</v>
+      </c>
+      <c r="K19" t="s">
+        <v>1188</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="3"/>
+        <v>'bKODYKS',</v>
+      </c>
+      <c r="O19" t="s">
+        <v>1218</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R19" t="str">
+        <f t="shared" si="4"/>
+        <v>'ahUSCSUMS',</v>
+      </c>
+      <c r="S19" t="s">
+        <v>1275</v>
+      </c>
+      <c r="U19" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="V19" t="str">
+        <f t="shared" si="5"/>
+        <v>'aCHMBM1GR',</v>
+      </c>
+      <c r="W19" t="s">
+        <v>1349</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="Z19" t="str">
+        <f t="shared" si="6"/>
+        <v>'apBDLWUEM',</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>1403</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="AD19" t="str">
+        <f t="shared" si="7"/>
+        <v>'aJPBSTKAM',</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>1437</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="AH19" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLFULH1',</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="AK19" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLFULC1',</v>
+      </c>
+      <c r="AM19" s="11" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AN19" t="str">
+        <f t="shared" si="10"/>
+        <v>'arKOFXUSDD_YoY',</v>
+      </c>
+    </row>
+    <row r="20" spans="9:40" x14ac:dyDescent="0.3">
+      <c r="I20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="2"/>
+        <v>'bIXNRMX',</v>
+      </c>
+      <c r="K20" t="s">
+        <v>1189</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="3"/>
+        <v>'bKOIVVK',</v>
+      </c>
+      <c r="O20" t="s">
+        <v>1219</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="R20" t="str">
+        <f t="shared" si="4"/>
+        <v>'aqUSCSCF',</v>
+      </c>
+      <c r="S20" t="s">
+        <v>1276</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="V20" t="str">
+        <f t="shared" si="5"/>
+        <v>'aCHCIRECI',</v>
+      </c>
+      <c r="W20" t="s">
+        <v>1350</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="Z20" t="str">
+        <f t="shared" si="6"/>
+        <v>'aBDLWJV',</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>1404</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="AD20" t="str">
+        <f t="shared" si="7"/>
+        <v>'aJPBSTKAMS',</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>1438</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="AH20" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLFULC1',</v>
+      </c>
+      <c r="AJ20" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="AK20" t="str">
+        <f t="shared" si="9"/>
+        <v>'bIXMSW40R2',</v>
+      </c>
+      <c r="AM20" s="11" t="s">
+        <v>1126</v>
+      </c>
+      <c r="AN20" t="str">
+        <f t="shared" si="10"/>
+        <v>'arKOFXJPYD_YoY',</v>
+      </c>
+    </row>
+    <row r="21" spans="9:40" x14ac:dyDescent="0.3">
+      <c r="I21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="2"/>
+        <v>'bIXMLEMEA',</v>
+      </c>
+      <c r="K21" t="s">
+        <v>1190</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="3"/>
+        <v>'arKOIRCR',</v>
+      </c>
+      <c r="O21" t="s">
+        <v>1220</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="R21" t="str">
+        <f t="shared" si="4"/>
+        <v>'aUSIRFDTRGD',</v>
+      </c>
+      <c r="S21" t="s">
+        <v>1277</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="V21" t="str">
+        <f t="shared" si="5"/>
+        <v>'aaCHCIRIYNI',</v>
+      </c>
+      <c r="W21" t="s">
+        <v>1351</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="Z21" t="str">
+        <f t="shared" si="6"/>
+        <v>'arBDLWUR',</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>1405</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="AD21" t="str">
+        <f t="shared" si="7"/>
+        <v>'aJPBSTKANM',</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>1439</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="AH21" t="str">
+        <f t="shared" si="8"/>
+        <v>'bIXMSW40R2',</v>
+      </c>
+      <c r="AJ21" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="AK21" t="str">
+        <f t="shared" si="9"/>
+        <v>'bIXMSEM40R2',</v>
+      </c>
+      <c r="AM21" s="11" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AN21" t="str">
+        <f t="shared" si="10"/>
+        <v>'arKOFXEURD_YoY',</v>
+      </c>
+    </row>
+    <row r="22" spans="9:40" x14ac:dyDescent="0.3">
+      <c r="I22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="2"/>
+        <v>'bIXNRSA',</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1191</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="3"/>
+        <v>'arKOIRKSDACD',</v>
+      </c>
+      <c r="O22" t="s">
+        <v>1221</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="R22" t="str">
+        <f t="shared" si="4"/>
+        <v>'aaUSMBM2',</v>
+      </c>
+      <c r="S22" t="s">
+        <v>1278</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="V22" t="str">
+        <f t="shared" si="5"/>
+        <v>'aaCHBPCAC',</v>
+      </c>
+      <c r="W22" t="s">
+        <v>1352</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="Z22" t="str">
+        <f t="shared" si="6"/>
+        <v>'afBDLWWI',</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>1406</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="AD22" t="str">
+        <f t="shared" si="7"/>
+        <v>'aJPBSTKANML',</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>1440</v>
+      </c>
+      <c r="AG22" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="AH22" t="str">
+        <f t="shared" si="8"/>
+        <v>'bIXMSEM40R2',</v>
+      </c>
+      <c r="AJ22" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="AK22" t="str">
+        <f t="shared" si="9"/>
+        <v>'aEUCIHPHF',</v>
+      </c>
+      <c r="AM22" s="11" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AN22" t="str">
+        <f t="shared" si="10"/>
+        <v>'arKOFXJPDD_YoY',</v>
+      </c>
+    </row>
+    <row r="23" spans="9:40" x14ac:dyDescent="0.3">
+      <c r="I23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="2"/>
+        <v>'bIXNRTK',</v>
+      </c>
+      <c r="K23" t="s">
+        <v>1192</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="3"/>
+        <v>'arKOIRKSDATB3',</v>
+      </c>
+      <c r="O23" t="s">
+        <v>1222</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="R23" t="str">
+        <f t="shared" si="4"/>
+        <v>'aUSIRTCM10D',</v>
+      </c>
+      <c r="S23" t="s">
+        <v>1279</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="V23" t="str">
+        <f t="shared" si="5"/>
+        <v>'aaCHBPCADE',</v>
+      </c>
+      <c r="W23" t="s">
+        <v>1353</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="Z23" t="str">
+        <f t="shared" si="6"/>
+        <v>'aBDFXDEM',</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>1407</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="AD23" t="str">
+        <f t="shared" si="7"/>
+        <v>'aJPBSTKF',</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>1441</v>
+      </c>
+      <c r="AG23" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="AH23" t="str">
+        <f t="shared" si="8"/>
+        <v>'aEUCIHPHF',</v>
+      </c>
+      <c r="AJ23" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="AK23" t="str">
+        <f t="shared" si="9"/>
+        <v>'aEUCIHPNW',</v>
+      </c>
+      <c r="AM23" s="11" t="s">
+        <v>1129</v>
+      </c>
+      <c r="AN23" t="str">
+        <f t="shared" si="10"/>
+        <v>'arKOFXDERD_YoY',</v>
+      </c>
+    </row>
+    <row r="24" spans="9:40" x14ac:dyDescent="0.3">
+      <c r="I24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="2"/>
+        <v>'bIXMLEMFA',</v>
+      </c>
+      <c r="K24" t="s">
+        <v>1193</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="3"/>
+        <v>'arKOIRKSDATB5',</v>
+      </c>
+      <c r="O24" t="s">
+        <v>1223</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="R24" t="str">
+        <f t="shared" si="4"/>
+        <v>'aUSIRFRM30W',</v>
+      </c>
+      <c r="S24" t="s">
+        <v>1280</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="V24" t="str">
+        <f t="shared" si="5"/>
+        <v>'aaCHBPG',</v>
+      </c>
+      <c r="W24" t="s">
+        <v>1354</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="Z24" t="str">
+        <f t="shared" si="6"/>
+        <v>'aaBDFXFR',</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>1408</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="AD24" t="str">
+        <f t="shared" si="7"/>
+        <v>'aJPBSTKFM',</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>1442</v>
+      </c>
+      <c r="AG24" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="AH24" t="str">
+        <f t="shared" si="8"/>
+        <v>'aEUCIHPNW',</v>
+      </c>
+      <c r="AJ24" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="AK24" t="str">
+        <f t="shared" si="9"/>
+        <v>'aCHCIHPB',</v>
+      </c>
+      <c r="AM24" s="11" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AN24" t="str">
+        <f t="shared" si="10"/>
+        <v>'arKOFXDUKD_YoY',</v>
+      </c>
+    </row>
+    <row r="25" spans="9:40" x14ac:dyDescent="0.3">
+      <c r="I25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="2"/>
+        <v>'bIXNRKOKS',</v>
+      </c>
+      <c r="K25" t="s">
+        <v>1194</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="3"/>
+        <v>'arKOIRKSDATB10',</v>
+      </c>
+      <c r="O25" t="s">
+        <v>1224</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="R25" t="str">
+        <f t="shared" si="4"/>
+        <v>'aUSIRFRM15W',</v>
+      </c>
+      <c r="S25" t="s">
+        <v>1281</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="V25" t="str">
+        <f t="shared" si="5"/>
+        <v>'aaCHBPGEX',</v>
+      </c>
+      <c r="W25" t="s">
+        <v>1355</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="Z25" t="str">
+        <f t="shared" si="6"/>
+        <v>'aqBDBSIFOI',</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>1409</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD25" t="str">
+        <f t="shared" si="7"/>
+        <v>'aJPBSTKFNM',</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AG25" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="AH25" t="str">
+        <f t="shared" si="8"/>
+        <v>'aCHCIHPB',</v>
+      </c>
+      <c r="AJ25" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="AK25" t="str">
+        <f t="shared" si="9"/>
+        <v>'aCHCIHPT',</v>
+      </c>
+      <c r="AM25" s="11" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AN25" t="str">
+        <f t="shared" si="10"/>
+        <v>'arKOFXDAUD_YoY',</v>
+      </c>
+    </row>
+    <row r="26" spans="9:40" x14ac:dyDescent="0.3">
+      <c r="I26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="2"/>
+        <v>'bIXNRID',</v>
+      </c>
+      <c r="K26" t="s">
+        <v>1195</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="3"/>
+        <v>'arKOIRKSDAMSB',</v>
+      </c>
+      <c r="O26" t="s">
+        <v>1225</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="R26" t="str">
+        <f t="shared" si="4"/>
+        <v>'aUSCIMGAI',</v>
+      </c>
+      <c r="S26" t="s">
+        <v>1282</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="V26" t="str">
+        <f t="shared" si="5"/>
+        <v>'aaCHBPGIM',</v>
+      </c>
+      <c r="W26" t="s">
+        <v>1356</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="Z26" t="str">
+        <f t="shared" si="6"/>
+        <v>'aqBDBSIFOP',</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>1410</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="AD26" t="str">
+        <f t="shared" si="7"/>
+        <v>'aaJPMBM1',</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>1444</v>
+      </c>
+      <c r="AG26" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="AH26" t="str">
+        <f t="shared" si="8"/>
+        <v>'aCHCIHPT',</v>
+      </c>
+      <c r="AJ26" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="AK26" t="str">
+        <f t="shared" si="9"/>
+        <v>'aCHCIHPSH',</v>
+      </c>
+      <c r="AM26" s="11" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AN26" t="str">
+        <f t="shared" si="10"/>
+        <v>'arKOFXCNDD_YoY',</v>
+      </c>
+    </row>
+    <row r="27" spans="9:40" x14ac:dyDescent="0.3">
+      <c r="I27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="2"/>
+        <v>'bIXNRMY',</v>
+      </c>
+      <c r="K27" t="s">
+        <v>1196</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="3"/>
+        <v>'arKOIRMSAAA3Y',</v>
+      </c>
+      <c r="O27" t="s">
+        <v>1226</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="R27" t="str">
+        <f t="shared" si="4"/>
+        <v>'aUSCIMGAIP',</v>
+      </c>
+      <c r="S27" t="s">
+        <v>1283</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="V27" t="str">
+        <f t="shared" si="5"/>
+        <v>'aaCHBPDIA',</v>
+      </c>
+      <c r="W27" t="s">
+        <v>1357</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="Z27" t="str">
+        <f t="shared" si="6"/>
+        <v>'aqBDBSIFOR',</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>1411</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="AD27" t="str">
+        <f t="shared" si="7"/>
+        <v>'aaJPMBM2',</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>1445</v>
+      </c>
+      <c r="AG27" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="AH27" t="str">
+        <f t="shared" si="8"/>
+        <v>'aCHCIHPSH',</v>
+      </c>
+      <c r="AJ27" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="AK27" t="str">
+        <f t="shared" si="9"/>
+        <v>'aCHCIHPK',</v>
+      </c>
+      <c r="AM27" s="11" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AN27" t="str">
+        <f t="shared" si="10"/>
+        <v>'arKOFXSWDD_YoY',</v>
+      </c>
+    </row>
+    <row r="28" spans="9:40" x14ac:dyDescent="0.3">
+      <c r="I28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="2"/>
+        <v>'bIXNRPH',</v>
+      </c>
+      <c r="K28" t="s">
+        <v>1197</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="3"/>
+        <v>'arKOIRMFBAAA3Y',</v>
+      </c>
+      <c r="O28" t="s">
+        <v>1227</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="R28" t="str">
+        <f t="shared" si="4"/>
+        <v>'apUSCISESH',</v>
+      </c>
+      <c r="S28" t="s">
+        <v>1284</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="V28" t="str">
+        <f t="shared" si="5"/>
+        <v>'aaCHBPDIL',</v>
+      </c>
+      <c r="W28" t="s">
+        <v>1358</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="Z28" t="str">
+        <f t="shared" si="6"/>
+        <v>'arBDBSZEWRE',</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>1412</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="AD28" t="str">
+        <f t="shared" si="7"/>
+        <v>'arJPFXER',</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>1446</v>
+      </c>
+      <c r="AG28" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="AH28" t="str">
+        <f t="shared" si="8"/>
+        <v>'aCHCIHPK',</v>
+      </c>
+      <c r="AJ28" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="AK28" t="str">
+        <f t="shared" si="9"/>
+        <v>'aCHCIHPSZ',</v>
+      </c>
+      <c r="AM28" s="11" t="s">
+        <v>1134</v>
+      </c>
+      <c r="AN28" t="str">
+        <f t="shared" si="10"/>
+        <v>'arKOFXHKDD_YoY',</v>
+      </c>
+    </row>
+    <row r="29" spans="9:40" x14ac:dyDescent="0.3">
+      <c r="I29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="2"/>
+        <v>'bIXNRTW',</v>
+      </c>
+      <c r="K29" t="s">
+        <v>1198</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="3"/>
+        <v>'arKOIRMCPNAA33Y',</v>
+      </c>
+      <c r="O29" t="s">
+        <v>1228</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="R29" t="str">
+        <f t="shared" si="4"/>
+        <v>'aeUSCISHNO',</v>
+      </c>
+      <c r="S29" t="s">
+        <v>1285</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="V29" t="str">
+        <f t="shared" si="5"/>
+        <v>'aCHEIEX',</v>
+      </c>
+      <c r="W29" t="s">
+        <v>1359</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="Z29" t="str">
+        <f t="shared" si="6"/>
+        <v>'arBDBSZEWRB',</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>1413</v>
+      </c>
+      <c r="AC29" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="AD29" t="str">
+        <f t="shared" si="7"/>
+        <v>'aaJPPFSDQ',</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>1447</v>
+      </c>
+      <c r="AG29" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="AH29" t="str">
+        <f t="shared" si="8"/>
+        <v>'aCHCIHPSZ',</v>
+      </c>
+      <c r="AJ29" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="AK29" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLREIDE',</v>
+      </c>
+      <c r="AM29" s="11" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AN29" t="str">
+        <f t="shared" si="10"/>
+        <v>'arKOFXTHDD_YoY',</v>
+      </c>
+    </row>
+    <row r="30" spans="9:40" x14ac:dyDescent="0.3">
+      <c r="I30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="2"/>
+        <v>'bIXNRTH',</v>
+      </c>
+      <c r="K30" t="s">
+        <v>1199</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>1070</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="3"/>
+        <v>'arKOIRKSDATB5_YSR',</v>
+      </c>
+      <c r="O30" t="s">
+        <v>1229</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="R30" t="str">
+        <f t="shared" si="4"/>
+        <v>'aaUSCISEMP',</v>
+      </c>
+      <c r="S30" t="s">
+        <v>1286</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="V30" t="str">
+        <f t="shared" si="5"/>
+        <v>'aCHEIIM',</v>
+      </c>
+      <c r="W30" t="s">
+        <v>1360</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="Z30" t="str">
+        <f t="shared" si="6"/>
+        <v>'arBDBSZEWPE',</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>1414</v>
+      </c>
+      <c r="AC30" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="AD30" t="str">
+        <f t="shared" si="7"/>
+        <v>'aaJPFSAIA',</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>1448</v>
+      </c>
+      <c r="AG30" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="AH30" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLREIDE',</v>
+      </c>
+      <c r="AJ30" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="AK30" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLREIMW',</v>
+      </c>
+      <c r="AM30" s="11" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AN30" t="str">
+        <f t="shared" si="10"/>
+        <v>'arKOFXINDD_YoY',</v>
+      </c>
+    </row>
+    <row r="31" spans="9:40" x14ac:dyDescent="0.3">
+      <c r="M31" s="10" t="s">
+        <v>1071</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="3"/>
+        <v>'arKOIRKSDATB10_YSR',</v>
+      </c>
+      <c r="O31" t="s">
+        <v>1230</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="R31" t="str">
+        <f t="shared" si="4"/>
+        <v>'aaUSCISNMP',</v>
+      </c>
+      <c r="S31" t="s">
+        <v>1287</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="V31" t="str">
+        <f t="shared" si="5"/>
+        <v>'aCHPREX',</v>
+      </c>
+      <c r="W31" t="s">
+        <v>1361</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="Z31" t="str">
+        <f t="shared" si="6"/>
+        <v>'arBDBSZEWPB',</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>1415</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="AD31" t="str">
+        <f t="shared" si="7"/>
+        <v>'aGLIRPCJP',</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>1449</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="AH31" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLREIMW',</v>
+      </c>
+      <c r="AJ31" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="AK31" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLREIMA',</v>
+      </c>
+    </row>
+    <row r="32" spans="9:40" x14ac:dyDescent="0.3">
+      <c r="M32" s="10" t="s">
+        <v>1072</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="3"/>
+        <v>'arKOIRMSAAA3Y_YSR',</v>
+      </c>
+      <c r="O32" t="s">
+        <v>1231</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="R32" t="str">
+        <f t="shared" si="4"/>
+        <v>'aeUSCIPH',</v>
+      </c>
+      <c r="S32" t="s">
+        <v>1288</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="V32" t="str">
+        <f t="shared" si="5"/>
+        <v>'aCHPRIM',</v>
+      </c>
+      <c r="W32" t="s">
+        <v>1362</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="Z32" t="str">
+        <f t="shared" si="6"/>
+        <v>'aqBDCSCC',</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>1416</v>
+      </c>
+      <c r="AC32" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="AD32" t="str">
+        <f t="shared" si="7"/>
+        <v>'aGLOCL6JPN',</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>1450</v>
+      </c>
+      <c r="AG32" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="AH32" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLREIMA',</v>
+      </c>
+      <c r="AJ32" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="AK32" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLREIME',</v>
+      </c>
+    </row>
+    <row r="33" spans="13:37" x14ac:dyDescent="0.3">
+      <c r="M33" s="10" t="s">
+        <v>1073</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="3"/>
+        <v>'arKOIRMFBAAA3Y_YSR',</v>
+      </c>
+      <c r="O33" t="s">
+        <v>1232</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="R33" t="str">
+        <f t="shared" si="4"/>
+        <v>'aeUSCISTPH',</v>
+      </c>
+      <c r="S33" t="s">
+        <v>1289</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="V33" t="str">
+        <f t="shared" si="5"/>
+        <v>'aCHPRTT',</v>
+      </c>
+      <c r="W33" t="s">
+        <v>1363</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="Z33" t="str">
+        <f t="shared" si="6"/>
+        <v>'aGLIRPCEU',</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>1417</v>
+      </c>
+      <c r="AC33" s="11" t="s">
+        <v>1137</v>
+      </c>
+      <c r="AD33" t="str">
+        <f t="shared" si="7"/>
+        <v>'aJPCBLD_YoY',</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>1451</v>
+      </c>
+      <c r="AG33" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="AH33" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLREIME',</v>
+      </c>
+      <c r="AJ33" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="AK33" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLRMCRBGRNI',</v>
+      </c>
+    </row>
+    <row r="34" spans="13:37" x14ac:dyDescent="0.3">
+      <c r="M34" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="3"/>
+        <v>'arKOIRMCPNAA33Y_YSR',</v>
+      </c>
+      <c r="O34" t="s">
+        <v>1233</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="R34" t="str">
+        <f t="shared" si="4"/>
+        <v>'aUSCINAHBMI',</v>
+      </c>
+      <c r="S34" t="s">
+        <v>1290</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="V34" t="str">
+        <f t="shared" si="5"/>
+        <v>'aCHLWUEMP',</v>
+      </c>
+      <c r="W34" t="s">
+        <v>1364</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="Z34" t="str">
+        <f t="shared" si="6"/>
+        <v>'aGLOCL6DEU',</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>1418</v>
+      </c>
+      <c r="AG34" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="AH34" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLRMCRBGRNI',</v>
+      </c>
+      <c r="AJ34" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="AK34" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLRMNYFECRB',</v>
+      </c>
+    </row>
+    <row r="35" spans="13:37" x14ac:dyDescent="0.3">
+      <c r="M35" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="3"/>
+        <v>'ahKOPPDD',</v>
+      </c>
+      <c r="O35" t="s">
+        <v>1234</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="R35" t="str">
+        <f t="shared" si="4"/>
+        <v>'bIXSP25HOM',</v>
+      </c>
+      <c r="S35" t="s">
+        <v>1291</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="V35" t="str">
+        <f t="shared" si="5"/>
+        <v>'aCHCBCO',</v>
+      </c>
+      <c r="W35" t="s">
+        <v>1365</v>
+      </c>
+      <c r="AG35" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="AH35" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLRMNYFECRB',</v>
+      </c>
+      <c r="AJ35" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="AK35" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLRMCRBENGY',</v>
+      </c>
+    </row>
+    <row r="36" spans="13:37" x14ac:dyDescent="0.3">
+      <c r="M36" s="11" t="s">
+        <v>1076</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="3"/>
+        <v>'ahKOPPDD_YoY',</v>
+      </c>
+      <c r="O36" t="s">
+        <v>1235</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="R36" t="str">
+        <f t="shared" si="4"/>
+        <v>'afUSCIOFSP10',</v>
+      </c>
+      <c r="S36" t="s">
+        <v>1292</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="V36" t="str">
+        <f t="shared" si="5"/>
+        <v>'aCHCBLG',</v>
+      </c>
+      <c r="W36" t="s">
+        <v>1366</v>
+      </c>
+      <c r="AG36" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="AH36" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLRMCRBENGY',</v>
+      </c>
+      <c r="AJ36" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="AK36" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLRMCRBINDS',</v>
+      </c>
+    </row>
+    <row r="37" spans="13:37" x14ac:dyDescent="0.3">
+      <c r="M37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="3"/>
+        <v>'cBKCFBLCL',</v>
+      </c>
+      <c r="O37" t="s">
+        <v>1236</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="R37" t="str">
+        <f t="shared" si="4"/>
+        <v>'aaUSEITB',</v>
+      </c>
+      <c r="S37" t="s">
+        <v>1293</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="V37" t="str">
+        <f t="shared" si="5"/>
+        <v>'aCHCBSG',</v>
+      </c>
+      <c r="W37" t="s">
+        <v>1367</v>
+      </c>
+      <c r="AG37" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="AH37" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLRMCRBINDS',</v>
+      </c>
+      <c r="AJ37" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="AK37" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLRMCRBPRMI',</v>
+      </c>
+    </row>
+    <row r="38" spans="13:37" x14ac:dyDescent="0.3">
+      <c r="M38" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="3"/>
+        <v>'aGLOCL6KOR',</v>
+      </c>
+      <c r="O38" t="s">
+        <v>1237</v>
+      </c>
+      <c r="Q38" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="R38" t="str">
+        <f t="shared" si="4"/>
+        <v>'aUSBSISMNO',</v>
+      </c>
+      <c r="S38" t="s">
+        <v>1294</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="V38" t="str">
+        <f t="shared" si="5"/>
+        <v>'aCHBSBSIT',</v>
+      </c>
+      <c r="W38" t="s">
+        <v>1368</v>
+      </c>
+      <c r="AG38" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="AH38" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLRMCRBPRMI',</v>
+      </c>
+      <c r="AJ38" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="AK38" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLFUCRY',</v>
+      </c>
+    </row>
+    <row r="39" spans="13:37" x14ac:dyDescent="0.3">
+      <c r="M39" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="3"/>
+        <v>'aKONA10RGDPGDP',</v>
+      </c>
+      <c r="O39" t="s">
+        <v>1238</v>
+      </c>
+      <c r="Q39" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="R39" t="str">
+        <f t="shared" si="4"/>
+        <v>'aUSBSISMIV',</v>
+      </c>
+      <c r="S39" t="s">
+        <v>1295</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="V39" t="str">
+        <f t="shared" si="5"/>
+        <v>'aCHCSCI',</v>
+      </c>
+      <c r="W39" t="s">
+        <v>1369</v>
+      </c>
+      <c r="AG39" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="AH39" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLFUCRY',</v>
+      </c>
+      <c r="AJ39" s="11" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AK39" t="str">
+        <f t="shared" si="9"/>
+        <v>'Aglegofwti_YoY',</v>
+      </c>
+    </row>
+    <row r="40" spans="13:37" x14ac:dyDescent="0.3">
+      <c r="M40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="3"/>
+        <v>'aKONA10RGDPNA',</v>
+      </c>
+      <c r="O40" t="s">
+        <v>1239</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="R40" t="str">
+        <f t="shared" si="4"/>
+        <v>'aUSMBCACI',</v>
+      </c>
+      <c r="S40" t="s">
+        <v>1296</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="V40" t="str">
+        <f t="shared" si="5"/>
+        <v>'aCHCSSI',</v>
+      </c>
+      <c r="W40" t="s">
+        <v>1370</v>
+      </c>
+      <c r="AG40" s="11" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AH40" t="str">
+        <f t="shared" si="8"/>
+        <v>'Aglegofwti_YoY',</v>
+      </c>
+      <c r="AJ40" s="11" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AK40" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLEGOFBRT_YoY',</v>
+      </c>
+    </row>
+    <row r="41" spans="13:37" x14ac:dyDescent="0.3">
+      <c r="M41" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="3"/>
+        <v>'aKONA10RGDPA',</v>
+      </c>
+      <c r="O41" t="s">
+        <v>1240</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="R41" t="str">
+        <f t="shared" si="4"/>
+        <v>'aaUSMBCO',</v>
+      </c>
+      <c r="S41" t="s">
+        <v>1297</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="V41" t="str">
+        <f t="shared" si="5"/>
+        <v>'aCHCSEI',</v>
+      </c>
+      <c r="W41" t="s">
+        <v>1371</v>
+      </c>
+      <c r="AG41" s="11" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AH41" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLEGOFBRT_YoY',</v>
+      </c>
+      <c r="AJ41" s="11" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AK41" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLFUNG1_YoY',</v>
+      </c>
+    </row>
+    <row r="42" spans="13:37" x14ac:dyDescent="0.3">
+      <c r="M42" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="3"/>
+        <v>'aKONA10RGDPC',</v>
+      </c>
+      <c r="O42" t="s">
+        <v>1241</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="R42" t="str">
+        <f t="shared" si="4"/>
+        <v>'aaUSMBCORE',</v>
+      </c>
+      <c r="S42" t="s">
+        <v>1298</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="V42" t="str">
+        <f t="shared" si="5"/>
+        <v>'aCHMBRA',</v>
+      </c>
+      <c r="W42" t="s">
+        <v>1372</v>
+      </c>
+      <c r="AG42" s="11" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AH42" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLFUNG1_YoY',</v>
+      </c>
+      <c r="AJ42" s="11" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AK42" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLFUXB1_YoY',</v>
+      </c>
+    </row>
+    <row r="43" spans="13:37" x14ac:dyDescent="0.3">
+      <c r="M43" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="3"/>
+        <v>'aKONA10RGDPF',</v>
+      </c>
+      <c r="O43" t="s">
+        <v>1242</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="R43" t="str">
+        <f t="shared" si="4"/>
+        <v>'abUSPI',</v>
+      </c>
+      <c r="S43" t="s">
+        <v>1299</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="V43" t="str">
+        <f t="shared" si="5"/>
+        <v>'aaCHMBM1',</v>
+      </c>
+      <c r="W43" t="s">
+        <v>1373</v>
+      </c>
+      <c r="AG43" s="11" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AH43" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLFUXB1_YoY',</v>
+      </c>
+      <c r="AJ43" s="11" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AK43" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLFUHO1_YoY',</v>
+      </c>
+    </row>
+    <row r="44" spans="13:37" x14ac:dyDescent="0.3">
+      <c r="M44" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" si="3"/>
+        <v>'aKONA10RGDPS',</v>
+      </c>
+      <c r="O44" t="s">
+        <v>1243</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="R44" t="str">
+        <f t="shared" si="4"/>
+        <v>'abUSPIWS',</v>
+      </c>
+      <c r="S44" t="s">
+        <v>1300</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="V44" t="str">
+        <f t="shared" si="5"/>
+        <v>'aaCHMBM2',</v>
+      </c>
+      <c r="W44" t="s">
+        <v>1374</v>
+      </c>
+      <c r="AG44" s="11" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AH44" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLFUHO1_YoY',</v>
+      </c>
+      <c r="AJ44" s="11" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AK44" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLRMLED3M_YoY',</v>
+      </c>
+    </row>
+    <row r="45" spans="13:37" x14ac:dyDescent="0.3">
+      <c r="M45" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="3"/>
+        <v>'aKONA10RGDPICT',</v>
+      </c>
+      <c r="O45" t="s">
+        <v>1244</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="R45" t="str">
+        <f t="shared" si="4"/>
+        <v>'abUSPIDIC',</v>
+      </c>
+      <c r="S45" t="s">
+        <v>1301</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="V45" t="str">
+        <f t="shared" si="5"/>
+        <v>'aaCHMBM3',</v>
+      </c>
+      <c r="W45" t="s">
+        <v>1375</v>
+      </c>
+      <c r="AG45" s="11" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AH45" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLRMLED3M_YoY',</v>
+      </c>
+      <c r="AJ45" s="11" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AK45" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLRMLTI3M_YoY',</v>
+      </c>
+    </row>
+    <row r="46" spans="13:37" x14ac:dyDescent="0.3">
+      <c r="M46" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="3"/>
+        <v>'aKONA10RGDPOICT',</v>
+      </c>
+      <c r="O46" t="s">
+        <v>1245</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R46" t="str">
+        <f t="shared" si="4"/>
+        <v>'adUSPIDIC',</v>
+      </c>
+      <c r="S46" t="s">
+        <v>1302</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="V46" t="str">
+        <f t="shared" si="5"/>
+        <v>'aCHMBM2GR',</v>
+      </c>
+      <c r="W46" t="s">
+        <v>1376</v>
+      </c>
+      <c r="AG46" s="11" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AH46" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLRMLTI3M_YoY',</v>
+      </c>
+      <c r="AJ46" s="11" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AK46" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLRMLZZ3M_YoY',</v>
+      </c>
+    </row>
+    <row r="47" spans="13:37" x14ac:dyDescent="0.3">
+      <c r="M47" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="3"/>
+        <v>'aKONA10RGDPPEI',</v>
+      </c>
+      <c r="O47" t="s">
+        <v>1246</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="R47" t="str">
+        <f t="shared" si="4"/>
+        <v>'aqUSBSISNON',</v>
+      </c>
+      <c r="S47" t="s">
+        <v>1303</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="V47" t="str">
+        <f t="shared" si="5"/>
+        <v>'aCHIRDR',</v>
+      </c>
+      <c r="W47" t="s">
+        <v>1377</v>
+      </c>
+      <c r="AG47" s="11" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AH47" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLRMLZZ3M_YoY',</v>
+      </c>
+      <c r="AJ47" s="11" t="s">
+        <v>1095</v>
+      </c>
+      <c r="AK47" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLRMLMEX_YoY',</v>
+      </c>
+    </row>
+    <row r="48" spans="13:37" x14ac:dyDescent="0.3">
+      <c r="M48" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" si="3"/>
+        <v>'aKONA10RGDPFI',</v>
+      </c>
+      <c r="O48" t="s">
+        <v>1247</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="R48" t="str">
+        <f t="shared" si="4"/>
+        <v>'arUSBSISNIO',</v>
+      </c>
+      <c r="S48" t="s">
+        <v>1304</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="V48" t="str">
+        <f t="shared" si="5"/>
+        <v>'aCHIRIBO7D',</v>
+      </c>
+      <c r="W48" t="s">
+        <v>1378</v>
+      </c>
+      <c r="AG48" s="11" t="s">
+        <v>1095</v>
+      </c>
+      <c r="AH48" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLRMLMEX_YoY',</v>
+      </c>
+      <c r="AJ48" s="11" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AK48" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLFUSI1_YoY',</v>
+      </c>
+    </row>
+    <row r="49" spans="13:37" x14ac:dyDescent="0.3">
+      <c r="M49" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" si="3"/>
+        <v>'aKONA10RGDPCC',</v>
+      </c>
+      <c r="O49" t="s">
+        <v>1248</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="R49" t="str">
+        <f t="shared" si="4"/>
+        <v>'aUSCBLD',</v>
+      </c>
+      <c r="S49" t="s">
+        <v>1305</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="V49" t="str">
+        <f t="shared" si="5"/>
+        <v>'aaCHFXFRM',</v>
+      </c>
+      <c r="W49" t="s">
+        <v>1379</v>
+      </c>
+      <c r="AG49" s="11" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AH49" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLFUSI1_YoY',</v>
+      </c>
+      <c r="AJ49" s="11" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AK49" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLFUW1_YoY',</v>
+      </c>
+    </row>
+    <row r="50" spans="13:37" x14ac:dyDescent="0.3">
+      <c r="M50" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="3"/>
+        <v>'aKONA10RGDPEG',</v>
+      </c>
+      <c r="O50" t="s">
+        <v>1249</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="R50" t="str">
+        <f t="shared" si="4"/>
+        <v>'aUSCBLD1',</v>
+      </c>
+      <c r="S50" t="s">
+        <v>1306</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="V50" t="str">
+        <f t="shared" si="5"/>
+        <v>'aCHFXRUS',</v>
+      </c>
+      <c r="W50" t="s">
+        <v>1380</v>
+      </c>
+      <c r="AG50" s="11" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AH50" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLFUW1_YoY',</v>
+      </c>
+      <c r="AJ50" s="11" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AK50" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLFUC1_YoY',</v>
+      </c>
+    </row>
+    <row r="51" spans="13:37" x14ac:dyDescent="0.3">
+      <c r="M51" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" si="3"/>
+        <v>'aKONA10RGDPIG',</v>
+      </c>
+      <c r="O51" t="s">
+        <v>1250</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="R51" t="str">
+        <f t="shared" si="4"/>
+        <v>'aUSCBLD2',</v>
+      </c>
+      <c r="S51" t="s">
+        <v>1307</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="V51" t="str">
+        <f t="shared" si="5"/>
+        <v>'apCHEGCNT',</v>
+      </c>
+      <c r="W51" t="s">
+        <v>1381</v>
+      </c>
+      <c r="AG51" s="11" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AH51" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLFUC1_YoY',</v>
+      </c>
+      <c r="AJ51" s="11" t="s">
+        <v>1099</v>
+      </c>
+      <c r="AK51" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLFUS1_YoY',</v>
+      </c>
+    </row>
+    <row r="52" spans="13:37" x14ac:dyDescent="0.3">
+      <c r="M52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N52" t="str">
+        <f t="shared" si="3"/>
+        <v>'aKONA10RGDPDDEI',</v>
+      </c>
+      <c r="O52" t="s">
+        <v>1251</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="R52" t="str">
+        <f t="shared" si="4"/>
+        <v>'aUSCBLD3',</v>
+      </c>
+      <c r="S52" t="s">
+        <v>1308</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="V52" t="str">
+        <f t="shared" si="5"/>
+        <v>'aCHEGSCCO',</v>
+      </c>
+      <c r="W52" t="s">
+        <v>1382</v>
+      </c>
+      <c r="AG52" s="11" t="s">
+        <v>1099</v>
+      </c>
+      <c r="AH52" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLFUS1_YoY',</v>
+      </c>
+      <c r="AJ52" s="11" t="s">
+        <v>1100</v>
+      </c>
+      <c r="AK52" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLRMRR1_YoY',</v>
+      </c>
+    </row>
+    <row r="53" spans="13:37" x14ac:dyDescent="0.3">
+      <c r="M53" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N53" t="str">
+        <f t="shared" si="3"/>
+        <v>'aKONA10GRGNINGNI',</v>
+      </c>
+      <c r="O53" t="s">
+        <v>1252</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="R53" t="str">
+        <f t="shared" si="4"/>
+        <v>'aUSCBLD5',</v>
+      </c>
+      <c r="S53" t="s">
+        <v>1309</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="V53" t="str">
+        <f t="shared" si="5"/>
+        <v>'cpAMSACHT',</v>
+      </c>
+      <c r="W53" t="s">
+        <v>1383</v>
+      </c>
+      <c r="AG53" s="11" t="s">
+        <v>1100</v>
+      </c>
+      <c r="AH53" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLRMRR1_YoY',</v>
+      </c>
+      <c r="AJ53" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AK53" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLFUSB1_YoY',</v>
+      </c>
+    </row>
+    <row r="54" spans="13:37" x14ac:dyDescent="0.3">
+      <c r="M54" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N54" t="str">
+        <f t="shared" si="3"/>
+        <v>'aKONA10GRGNIRGNI',</v>
+      </c>
+      <c r="O54" t="s">
+        <v>1253</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="R54" t="str">
+        <f t="shared" si="4"/>
+        <v>'aUSCBLD6',</v>
+      </c>
+      <c r="S54" t="s">
+        <v>1310</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="V54" t="str">
+        <f t="shared" si="5"/>
+        <v>'cpAMSACHCAR',</v>
+      </c>
+      <c r="W54" t="s">
+        <v>1384</v>
+      </c>
+      <c r="AG54" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AH54" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLFUSB1_YoY',</v>
+      </c>
+      <c r="AJ54" s="11" t="s">
+        <v>1102</v>
+      </c>
+      <c r="AK54" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLFUKC1_YoY',</v>
+      </c>
+    </row>
+    <row r="55" spans="13:37" x14ac:dyDescent="0.3">
+      <c r="M55" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="N55" t="str">
+        <f t="shared" si="3"/>
+        <v>'aKONA10GRGNIGDPDF',</v>
+      </c>
+      <c r="O55" t="s">
+        <v>1254</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="R55" t="str">
+        <f t="shared" si="4"/>
+        <v>'aUSCBLD8',</v>
+      </c>
+      <c r="S55" t="s">
+        <v>1311</v>
+      </c>
+      <c r="U55" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="V55" t="str">
+        <f t="shared" si="5"/>
+        <v>'cpAMSACHCAR',</v>
+      </c>
+      <c r="W55" t="s">
+        <v>1384</v>
+      </c>
+      <c r="AG55" s="11" t="s">
+        <v>1102</v>
+      </c>
+      <c r="AH55" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLFUKC1_YoY',</v>
+      </c>
+      <c r="AJ55" s="11" t="s">
+        <v>1103</v>
+      </c>
+      <c r="AK55" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLFUJO1_YoY',</v>
+      </c>
+    </row>
+    <row r="56" spans="13:37" x14ac:dyDescent="0.3">
+      <c r="M56" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N56" t="str">
+        <f t="shared" si="3"/>
+        <v>'aKONA10GS',</v>
+      </c>
+      <c r="O56" t="s">
+        <v>1255</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="R56" t="str">
+        <f t="shared" si="4"/>
+        <v>'aUSCBLD9',</v>
+      </c>
+      <c r="S56" t="s">
+        <v>1312</v>
+      </c>
+      <c r="AG56" s="11" t="s">
+        <v>1103</v>
+      </c>
+      <c r="AH56" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLFUJO1_YoY',</v>
+      </c>
+      <c r="AJ56" s="11" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AK56" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLFULH1_YoY',</v>
+      </c>
+    </row>
+    <row r="57" spans="13:37" x14ac:dyDescent="0.3">
+      <c r="M57" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N57" t="str">
+        <f t="shared" si="3"/>
+        <v>'aKONA10GSGIR',</v>
+      </c>
+      <c r="O57" t="s">
+        <v>1256</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="R57" t="str">
+        <f t="shared" si="4"/>
+        <v>'aUSCBLD10',</v>
+      </c>
+      <c r="S57" t="s">
+        <v>1313</v>
+      </c>
+      <c r="AG57" s="11" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AH57" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLFULH1_YoY',</v>
+      </c>
+      <c r="AJ57" s="11" t="s">
+        <v>1105</v>
+      </c>
+      <c r="AK57" t="str">
+        <f t="shared" si="9"/>
+        <v>'aGLFULC1_YoY',</v>
+      </c>
+    </row>
+    <row r="58" spans="13:37" x14ac:dyDescent="0.3">
+      <c r="Q58" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="R58" t="str">
+        <f t="shared" si="4"/>
+        <v>'aUSCBCO',</v>
+      </c>
+      <c r="S58" t="s">
+        <v>1314</v>
+      </c>
+      <c r="AG58" s="11" t="s">
+        <v>1105</v>
+      </c>
+      <c r="AH58" t="str">
+        <f t="shared" si="8"/>
+        <v>'aGLFULC1_YoY',</v>
+      </c>
+      <c r="AJ58" s="11" t="s">
+        <v>1106</v>
+      </c>
+      <c r="AK58" t="str">
+        <f t="shared" si="9"/>
+        <v>'bIXMSW40R2_YoY',</v>
+      </c>
+    </row>
+    <row r="59" spans="13:37" x14ac:dyDescent="0.3">
+      <c r="Q59" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="R59" t="str">
+        <f t="shared" si="4"/>
+        <v>'aUSCBCO1',</v>
+      </c>
+      <c r="S59" t="s">
+        <v>1315</v>
+      </c>
+      <c r="AG59" s="11" t="s">
+        <v>1106</v>
+      </c>
+      <c r="AH59" t="str">
+        <f t="shared" si="8"/>
+        <v>'bIXMSW40R2_YoY',</v>
+      </c>
+      <c r="AJ59" s="11" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AK59" t="str">
+        <f t="shared" si="9"/>
+        <v>'bIXMSEM40R2_YoY',</v>
+      </c>
+    </row>
+    <row r="60" spans="13:37" x14ac:dyDescent="0.3">
+      <c r="Q60" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="R60" t="str">
+        <f t="shared" si="4"/>
+        <v>'aUSCBCO2',</v>
+      </c>
+      <c r="S60" t="s">
+        <v>1316</v>
+      </c>
+      <c r="AG60" s="11" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AH60" t="str">
+        <f t="shared" si="8"/>
+        <v>'bIXMSEM40R2_YoY',</v>
+      </c>
+      <c r="AJ60" s="11" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AK60" t="str">
+        <f t="shared" si="9"/>
+        <v>'aEUCIHPHF_YoY',</v>
+      </c>
+    </row>
+    <row r="61" spans="13:37" x14ac:dyDescent="0.3">
+      <c r="Q61" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="R61" t="str">
+        <f t="shared" si="4"/>
+        <v>'aUSCBCO3',</v>
+      </c>
+      <c r="S61" t="s">
+        <v>1317</v>
+      </c>
+      <c r="AG61" s="11" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AH61" t="str">
+        <f t="shared" si="8"/>
+        <v>'aEUCIHPHF_YoY',</v>
+      </c>
+      <c r="AJ61" s="11" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AK61" t="str">
+        <f t="shared" si="9"/>
+        <v>'aEUCIHPNW_YoY',</v>
+      </c>
+    </row>
+    <row r="62" spans="13:37" x14ac:dyDescent="0.3">
+      <c r="Q62" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R62" t="str">
+        <f t="shared" si="4"/>
+        <v>'aUSCBCO4',</v>
+      </c>
+      <c r="S62" t="s">
+        <v>1318</v>
+      </c>
+      <c r="AG62" s="11" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AH62" t="str">
+        <f t="shared" si="8"/>
+        <v>'aEUCIHPNW_YoY',</v>
+      </c>
+      <c r="AJ62" s="11" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AK62" t="str">
+        <f t="shared" si="9"/>
+        <v>'aCHCIHPB_YoY',</v>
+      </c>
+    </row>
+    <row r="63" spans="13:37" x14ac:dyDescent="0.3">
+      <c r="Q63" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="R63" t="str">
+        <f t="shared" si="4"/>
+        <v>'aUSBSISMEM',</v>
+      </c>
+      <c r="S63" t="s">
+        <v>1319</v>
+      </c>
+      <c r="AG63" s="11" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AH63" t="str">
+        <f t="shared" si="8"/>
+        <v>'aCHCIHPB_YoY',</v>
+      </c>
+      <c r="AJ63" s="11" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AK63" t="str">
+        <f t="shared" si="9"/>
+        <v>'aCHCIHPT_YoY',</v>
+      </c>
+    </row>
+    <row r="64" spans="13:37" x14ac:dyDescent="0.3">
+      <c r="Q64" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="R64" t="str">
+        <f t="shared" si="4"/>
+        <v>'aUSBSISMIM',</v>
+      </c>
+      <c r="S64" t="s">
+        <v>1320</v>
+      </c>
+      <c r="AG64" s="11" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AH64" t="str">
+        <f t="shared" si="8"/>
+        <v>'aCHCIHPT_YoY',</v>
+      </c>
+      <c r="AJ64" s="11" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AK64" t="str">
+        <f t="shared" si="9"/>
+        <v>'aCHCIHPSH_YoY',</v>
+      </c>
+    </row>
+    <row r="65" spans="17:37" x14ac:dyDescent="0.3">
+      <c r="Q65" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="R65" t="str">
+        <f t="shared" si="4"/>
+        <v>'aUSBSISMEO',</v>
+      </c>
+      <c r="S65" t="s">
+        <v>1321</v>
+      </c>
+      <c r="AG65" s="11" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AH65" t="str">
+        <f t="shared" si="8"/>
+        <v>'aCHCIHPSH_YoY',</v>
+      </c>
+      <c r="AJ65" s="11" t="s">
+        <v>1113</v>
+      </c>
+      <c r="AK65" t="str">
+        <f t="shared" si="9"/>
+        <v>'aCHCIHPK_YoY',</v>
+      </c>
+    </row>
+    <row r="66" spans="17:37" x14ac:dyDescent="0.3">
+      <c r="Q66" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="R66" t="str">
+        <f t="shared" ref="R66:R74" si="12">CONCATENATE("'",Q66,"',")</f>
+        <v>'aUSBSISMCP',</v>
+      </c>
+      <c r="S66" t="s">
+        <v>1322</v>
+      </c>
+      <c r="AG66" s="11" t="s">
+        <v>1113</v>
+      </c>
+      <c r="AH66" t="str">
+        <f t="shared" ref="AH66:AH79" si="13">CONCATENATE("'",AG66,"',")</f>
+        <v>'aCHCIHPK_YoY',</v>
+      </c>
+      <c r="AJ66" s="11" t="s">
+        <v>1114</v>
+      </c>
+      <c r="AK66" t="str">
+        <f t="shared" ref="AK66:AK78" si="14">CONCATENATE("'",AJ66,"',")</f>
+        <v>'aCHCIHPSZ_YoY',</v>
+      </c>
+    </row>
+    <row r="67" spans="17:37" x14ac:dyDescent="0.3">
+      <c r="Q67" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="R67" t="str">
+        <f t="shared" si="12"/>
+        <v>'aUSBSISMPR',</v>
+      </c>
+      <c r="S67" t="s">
+        <v>1323</v>
+      </c>
+      <c r="AG67" s="11" t="s">
+        <v>1114</v>
+      </c>
+      <c r="AH67" t="str">
+        <f t="shared" si="13"/>
+        <v>'aCHCIHPSZ_YoY',</v>
+      </c>
+      <c r="AJ67" s="11" t="s">
+        <v>1115</v>
+      </c>
+      <c r="AK67" t="str">
+        <f t="shared" si="14"/>
+        <v>'aGLREIDE_YoY',</v>
+      </c>
+    </row>
+    <row r="68" spans="17:37" x14ac:dyDescent="0.3">
+      <c r="Q68" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="R68" t="str">
+        <f t="shared" si="12"/>
+        <v>'aUSBSISMDL',</v>
+      </c>
+      <c r="S68" t="s">
+        <v>1324</v>
+      </c>
+      <c r="AG68" s="11" t="s">
+        <v>1115</v>
+      </c>
+      <c r="AH68" t="str">
+        <f t="shared" si="13"/>
+        <v>'aGLREIDE_YoY',</v>
+      </c>
+      <c r="AJ68" s="11" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AK68" t="str">
+        <f t="shared" si="14"/>
+        <v>'aGLREIMW_YoY',</v>
+      </c>
+    </row>
+    <row r="69" spans="17:37" x14ac:dyDescent="0.3">
+      <c r="Q69" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="R69" t="str">
+        <f t="shared" si="12"/>
+        <v>'aUSBSISMBO',</v>
+      </c>
+      <c r="S69" t="s">
+        <v>1325</v>
+      </c>
+      <c r="AG69" s="11" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AH69" t="str">
+        <f t="shared" si="13"/>
+        <v>'aGLREIMW_YoY',</v>
+      </c>
+      <c r="AJ69" s="11" t="s">
+        <v>1117</v>
+      </c>
+      <c r="AK69" t="str">
+        <f t="shared" si="14"/>
+        <v>'aGLREIMA_YoY',</v>
+      </c>
+    </row>
+    <row r="70" spans="17:37" x14ac:dyDescent="0.3">
+      <c r="Q70" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="R70" t="str">
+        <f t="shared" si="12"/>
+        <v>'aUSBSISMCI',</v>
+      </c>
+      <c r="S70" t="s">
+        <v>1326</v>
+      </c>
+      <c r="AG70" s="11" t="s">
+        <v>1117</v>
+      </c>
+      <c r="AH70" t="str">
+        <f t="shared" si="13"/>
+        <v>'aGLREIMA_YoY',</v>
+      </c>
+      <c r="AJ70" s="11" t="s">
+        <v>1118</v>
+      </c>
+      <c r="AK70" t="str">
+        <f t="shared" si="14"/>
+        <v>'aGLREIME_YoY',</v>
+      </c>
+    </row>
+    <row r="71" spans="17:37" x14ac:dyDescent="0.3">
+      <c r="Q71" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="R71" t="str">
+        <f t="shared" si="12"/>
+        <v>'bUSTIVIXPCMW',</v>
+      </c>
+      <c r="S71" t="s">
+        <v>1327</v>
+      </c>
+      <c r="AG71" s="11" t="s">
+        <v>1118</v>
+      </c>
+      <c r="AH71" t="str">
+        <f t="shared" si="13"/>
+        <v>'aGLREIME_YoY',</v>
+      </c>
+      <c r="AJ71" s="11" t="s">
+        <v>1119</v>
+      </c>
+      <c r="AK71" t="str">
+        <f t="shared" si="14"/>
+        <v>'aGLRMCRBGRNI_YoY',</v>
+      </c>
+    </row>
+    <row r="72" spans="17:37" x14ac:dyDescent="0.3">
+      <c r="Q72" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="R72" t="str">
+        <f t="shared" si="12"/>
+        <v>'bUSTICBOEPCR',</v>
+      </c>
+      <c r="S72" t="s">
+        <v>1328</v>
+      </c>
+      <c r="AG72" s="11" t="s">
+        <v>1119</v>
+      </c>
+      <c r="AH72" t="str">
+        <f t="shared" si="13"/>
+        <v>'aGLRMCRBGRNI_YoY',</v>
+      </c>
+      <c r="AJ72" s="11" t="s">
+        <v>1120</v>
+      </c>
+      <c r="AK72" t="str">
+        <f t="shared" si="14"/>
+        <v>'aGLRMNYFECRB_YoY',</v>
+      </c>
+    </row>
+    <row r="73" spans="17:37" x14ac:dyDescent="0.3">
+      <c r="Q73" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="R73" t="str">
+        <f t="shared" si="12"/>
+        <v>'aUSIRMAAA1020D',</v>
+      </c>
+      <c r="S73" t="s">
+        <v>1329</v>
+      </c>
+      <c r="AG73" s="11" t="s">
+        <v>1120</v>
+      </c>
+      <c r="AH73" t="str">
+        <f t="shared" si="13"/>
+        <v>'aGLRMNYFECRB_YoY',</v>
+      </c>
+      <c r="AJ73" s="11" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AK73" t="str">
+        <f t="shared" si="14"/>
+        <v>'aGLRMCRBENGY_YoY',</v>
+      </c>
+    </row>
+    <row r="74" spans="17:37" x14ac:dyDescent="0.3">
+      <c r="Q74" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="R74" t="str">
+        <f t="shared" si="12"/>
+        <v>'aUSIRMBAA1020D',</v>
+      </c>
+      <c r="S74" t="s">
+        <v>1330</v>
+      </c>
+      <c r="AG74" s="11" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AH74" t="str">
+        <f t="shared" si="13"/>
+        <v>'aGLRMCRBENGY_YoY',</v>
+      </c>
+      <c r="AJ74" s="11" t="s">
+        <v>1122</v>
+      </c>
+      <c r="AK74" t="str">
+        <f t="shared" si="14"/>
+        <v>'aGLRMCRBINDS_YoY',</v>
+      </c>
+    </row>
+    <row r="75" spans="17:37" x14ac:dyDescent="0.3">
+      <c r="AG75" s="11" t="s">
+        <v>1122</v>
+      </c>
+      <c r="AH75" t="str">
+        <f t="shared" si="13"/>
+        <v>'aGLRMCRBINDS_YoY',</v>
+      </c>
+      <c r="AJ75" s="11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AK75" t="str">
+        <f t="shared" si="14"/>
+        <v>'aGLRMCRBPRMI_YoY',</v>
+      </c>
+    </row>
+    <row r="76" spans="17:37" x14ac:dyDescent="0.3">
+      <c r="AG76" s="11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AH76" t="str">
+        <f t="shared" si="13"/>
+        <v>'aGLRMCRBPRMI_YoY',</v>
+      </c>
+      <c r="AJ76" s="11" t="s">
+        <v>1124</v>
+      </c>
+      <c r="AK76" t="str">
+        <f t="shared" si="14"/>
+        <v>'aGLFUCRY_YoY',</v>
+      </c>
+    </row>
+    <row r="77" spans="17:37" x14ac:dyDescent="0.3">
+      <c r="AG77" s="11" t="s">
+        <v>1124</v>
+      </c>
+      <c r="AH77" t="str">
+        <f t="shared" si="13"/>
+        <v>'aGLFUCRY_YoY',</v>
+      </c>
+      <c r="AJ77" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="AK77" t="str">
+        <f t="shared" si="14"/>
+        <v>'aGLRMNRFTK',</v>
+      </c>
+    </row>
+    <row r="78" spans="17:37" x14ac:dyDescent="0.3">
+      <c r="AG78" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="AH78" t="str">
+        <f t="shared" si="13"/>
+        <v>'aGLRMNRFTK',</v>
+      </c>
+      <c r="AJ78" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="AK78" t="str">
+        <f t="shared" si="14"/>
+        <v>'aGLRMPPRDRI',</v>
+      </c>
+    </row>
+    <row r="79" spans="17:37" x14ac:dyDescent="0.3">
+      <c r="AG79" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="AH79" t="str">
+        <f t="shared" si="13"/>
+        <v>'aGLRMPPRDRI',</v>
       </c>
     </row>
   </sheetData>

--- a/dataset_competition/META_DATA.xlsx
+++ b/dataset_competition/META_DATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="465" windowWidth="22380" windowHeight="14760" tabRatio="681" activeTab="3"/>
+    <workbookView xWindow="2715" yWindow="465" windowWidth="22380" windowHeight="14760" tabRatio="681"/>
   </bookViews>
   <sheets>
     <sheet name="테이블" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3475" uniqueCount="1455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3478" uniqueCount="1458">
   <si>
     <t>SPX</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4569,6 +4569,18 @@
   </si>
   <si>
     <t>aGLRMLMEX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>글로벌지수 변수 합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이외 변수 합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 변수 합</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5618,10 +5630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5730,9 +5742,7 @@
       <c r="C6" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="D6" s="1">
-        <v>5</v>
-      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="6" t="s">
         <v>1065</v>
       </c>
@@ -5747,9 +5757,7 @@
       <c r="C7" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="D7" s="1">
-        <v>5</v>
-      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="6" t="s">
         <v>1065</v>
       </c>
@@ -5764,9 +5772,7 @@
       <c r="C8" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="D8" s="1">
-        <v>5</v>
-      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="6" t="s">
         <v>1066</v>
       </c>
@@ -5922,6 +5928,33 @@
       </c>
       <c r="E17" s="9" t="s">
         <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D19" s="1">
+        <f>SUM(D2:D8)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D20" s="1">
+        <f>SUM(D9:D17)</f>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D21" s="1">
+        <f>SUM(D19:D20)</f>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -5938,6 +5971,7 @@
     <hyperlink ref="E17" location="OTHER_IDX" display="OTHER_IDX"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6135,8 +6169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B321" sqref="B321"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
